--- a/cost_benefit_with_management.xlsx
+++ b/cost_benefit_with_management.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2865" windowWidth="20730" windowHeight="8250"/>
+    <workbookView xWindow="4950" yWindow="2865" windowWidth="20730" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="discounting" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="micks" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
   <si>
     <t>0.92-1.19</t>
   </si>
@@ -322,6 +323,51 @@
   <si>
     <t>Naïve</t>
   </si>
+  <si>
+    <t>Cost per vaccine</t>
+  </si>
+  <si>
+    <t>Total vaccine costs</t>
+  </si>
+  <si>
+    <t>Total hospitalised</t>
+  </si>
+  <si>
+    <t>Total hospitalisation costs</t>
+  </si>
+  <si>
+    <t>Total undiscounted costs</t>
+  </si>
+  <si>
+    <t>Total wage loss</t>
+  </si>
+  <si>
+    <t>Total management costs</t>
+  </si>
+  <si>
+    <t>Benefit/cost</t>
+  </si>
+  <si>
+    <t>Total discounted costs</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Naïve post vaccination</t>
+  </si>
+  <si>
+    <t>Outbreak size post vaccination</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Proportion to vaccinate</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +416,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +435,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -422,6 +480,20 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:P20" si="3">$F4*(1/(1+discount_rate)^G$3)</f>
+        <f t="shared" ref="G4:P17" si="3">$F4*(1/(1+discount_rate)^G$3)</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
@@ -1039,7 +1111,7 @@
         <v>1765.4919786096257</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U52" si="4">0.17</f>
+        <f t="shared" ref="U4:U17" si="4">0.17</f>
         <v>0.17</v>
       </c>
       <c r="V4" s="2">
@@ -1054,7 +1126,7 @@
         <v>378064.95721925132</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" ref="Y4:AH20" si="5">($X4/10)*(1/(1+discount_rate)^Y$3)</f>
+        <f t="shared" ref="Y4:AH17" si="5">($X4/10)*(1/(1+discount_rate)^Y$3)</f>
         <v>37806.49572192513</v>
       </c>
       <c r="Z4" s="2">
@@ -1120,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" ref="AP4:AY20" si="6">(($X4-$AN4)/10)*(1/(1+discount_rate)^AP$3)</f>
+        <f t="shared" ref="AP4:AY17" si="6">(($X4-$AN4)/10)*(1/(1+discount_rate)^AP$3)</f>
         <v>22951.395721925132</v>
       </c>
       <c r="AQ4" s="2">
@@ -1237,7 +1309,7 @@
         <v>852</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T52" si="8">330147/187</f>
+        <f t="shared" ref="T5:T17" si="8">330147/187</f>
         <v>1765.4919786096257</v>
       </c>
       <c r="U5" s="1">
@@ -5694,18 +5766,8288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="13.28515625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="10" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" style="10" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="50" width="13.28515625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>436350</v>
+      </c>
+      <c r="C2">
+        <v>52010</v>
+      </c>
+      <c r="D2">
+        <v>31159</v>
+      </c>
+      <c r="E2">
+        <v>17920</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8">
+        <f>F2*E2</f>
+        <v>358400</v>
+      </c>
+      <c r="H2">
+        <v>852</v>
+      </c>
+      <c r="I2" s="10">
+        <f>H2*D2</f>
+        <v>26547468</v>
+      </c>
+      <c r="J2" s="7">
+        <f>330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K2" s="11">
+        <f>J2*D2</f>
+        <v>55010964.561497323</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L21" si="0">0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="M2" s="7">
+        <f>L2*D2</f>
+        <v>5297.0300000000007</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O2" s="10">
+        <f>N2*M2</f>
+        <v>9057921.3000000007</v>
+      </c>
+      <c r="P2" s="13">
+        <f>I2+K2+O2</f>
+        <v>90616353.861497328</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" ref="Q2:Z11" si="1">($P2/10)*(1/(1+discount_rate)^Q$1)</f>
+        <v>9061635.3861497324</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="1"/>
+        <v>8797704.258397799</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="1"/>
+        <v>8541460.4450464062</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="1"/>
+        <v>8292680.0437343754</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="1"/>
+        <v>8051145.6735285204</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="1"/>
+        <v>7816646.284979146</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="1"/>
+        <v>7588976.9757079091</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" si="1"/>
+        <v>7367938.8113669008</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" si="1"/>
+        <v>7153338.6518125255</v>
+      </c>
+      <c r="Z2" s="2">
+        <f t="shared" si="1"/>
+        <v>6944988.9823422581</v>
+      </c>
+      <c r="AA2" s="15">
+        <f>SUM(Q2:Z2)</f>
+        <v>79616515.513065577</v>
+      </c>
+      <c r="AB2">
+        <v>82</v>
+      </c>
+      <c r="AC2">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="8">
+        <f>AC2*AB2</f>
+        <v>1640</v>
+      </c>
+      <c r="AE2">
+        <v>852</v>
+      </c>
+      <c r="AF2" s="10">
+        <f>AE2*AB2</f>
+        <v>69864</v>
+      </c>
+      <c r="AG2" s="7">
+        <f>330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH2" s="11">
+        <f>AG2*AB2</f>
+        <v>144770.3422459893</v>
+      </c>
+      <c r="AI2" s="1">
+        <f t="shared" ref="AI2:AI21" si="2">0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ2" s="7">
+        <f>AI2*AB2</f>
+        <v>13.940000000000001</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL2" s="10">
+        <f>AK2*AJ2</f>
+        <v>23837.4</v>
+      </c>
+      <c r="AM2" s="13">
+        <f>AF2+AH2+AL2</f>
+        <v>238471.7422459893</v>
+      </c>
+      <c r="AN2" s="2">
+        <f t="shared" ref="AN2:AW11" si="3">($AM2/10)*(1/(1+discount_rate)^AN$1)</f>
+        <v>23847.17422459893</v>
+      </c>
+      <c r="AO2" s="2">
+        <f t="shared" si="3"/>
+        <v>23152.596334562069</v>
+      </c>
+      <c r="AP2" s="2">
+        <f t="shared" si="3"/>
+        <v>22478.24886850686</v>
+      </c>
+      <c r="AQ2" s="2">
+        <f t="shared" si="3"/>
+        <v>21823.542590783363</v>
+      </c>
+      <c r="AR2" s="2">
+        <f t="shared" si="3"/>
+        <v>21187.905427945014</v>
+      </c>
+      <c r="AS2" s="2">
+        <f t="shared" si="3"/>
+        <v>20570.781968878655</v>
+      </c>
+      <c r="AT2" s="2">
+        <f t="shared" si="3"/>
+        <v>19971.632979493839</v>
+      </c>
+      <c r="AU2" s="2">
+        <f t="shared" si="3"/>
+        <v>19389.934931547414</v>
+      </c>
+      <c r="AV2" s="2">
+        <f t="shared" si="3"/>
+        <v>18825.179545191666</v>
+      </c>
+      <c r="AW2" s="2">
+        <f t="shared" si="3"/>
+        <v>18276.873344846277</v>
+      </c>
+      <c r="AX2" s="15">
+        <f>SUM(AN2:AW2)</f>
+        <v>209523.87021635409</v>
+      </c>
+      <c r="AY2">
+        <f>AA2/(G2+AX2)</f>
+        <v>140.18871135445528</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" ref="AZ2:AZ21" si="4">AA2/G2</f>
+        <v>222.14429551636601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>206000</v>
+      </c>
+      <c r="C3">
+        <v>20679</v>
+      </c>
+      <c r="D3">
+        <v>8437</v>
+      </c>
+      <c r="E3">
+        <v>4585</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G20" si="5">F3*E3</f>
+        <v>91700</v>
+      </c>
+      <c r="H3">
+        <v>852</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I21" si="6">H3*D3</f>
+        <v>7188324</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J21" si="7">330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K21" si="8">J3*D3</f>
+        <v>14895455.823529411</v>
+      </c>
+      <c r="L3" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M21" si="9">L3*D3</f>
+        <v>1434.2900000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O21" si="10">N3*M3</f>
+        <v>2452635.9000000004</v>
+      </c>
+      <c r="P3" s="13">
+        <f t="shared" ref="P3:P21" si="11">I3+K3+O3</f>
+        <v>24536415.723529413</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="1"/>
+        <v>2453641.5723529411</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="1"/>
+        <v>2382176.2838378069</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>2312792.508580395</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="1"/>
+        <v>2245429.6199809662</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="1"/>
+        <v>2180028.7572630742</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="1"/>
+        <v>2116532.7740418194</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="1"/>
+        <v>2054886.188390116</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="1"/>
+        <v>1995035.1343593358</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="1"/>
+        <v>1936927.3149119767</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="1"/>
+        <v>1880511.9562252201</v>
+      </c>
+      <c r="AA3" s="15">
+        <f t="shared" ref="AA3:AA43" si="12">SUM(Q3:Z3)</f>
+        <v>21557962.109943651</v>
+      </c>
+      <c r="AB3">
+        <v>71</v>
+      </c>
+      <c r="AC3">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="8">
+        <f t="shared" ref="AD3:AD21" si="13">AC3*AB3</f>
+        <v>1420</v>
+      </c>
+      <c r="AE3">
+        <v>852</v>
+      </c>
+      <c r="AF3" s="10">
+        <f t="shared" ref="AF3:AF21" si="14">AE3*AB3</f>
+        <v>60492</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" ref="AG3:AG21" si="15">330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" ref="AH3:AH43" si="16">AG3*AB3</f>
+        <v>125349.93048128342</v>
+      </c>
+      <c r="AI3" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f t="shared" ref="AJ3:AJ21" si="17">AI3*AB3</f>
+        <v>12.07</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL3" s="10">
+        <f t="shared" ref="AL3:AL21" si="18">AK3*AJ3</f>
+        <v>20639.7</v>
+      </c>
+      <c r="AM3" s="13">
+        <f t="shared" ref="AM3:AM21" si="19">AF3+AH3+AL3</f>
+        <v>206481.63048128341</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" si="3"/>
+        <v>20648.163048128343</v>
+      </c>
+      <c r="AO3" s="2">
+        <f t="shared" si="3"/>
+        <v>20046.760240901305</v>
+      </c>
+      <c r="AP3" s="2">
+        <f t="shared" si="3"/>
+        <v>19462.874020292529</v>
+      </c>
+      <c r="AQ3" s="2">
+        <f t="shared" si="3"/>
+        <v>18895.994194458766</v>
+      </c>
+      <c r="AR3" s="2">
+        <f t="shared" si="3"/>
+        <v>18345.625431513366</v>
+      </c>
+      <c r="AS3" s="2">
+        <f t="shared" si="3"/>
+        <v>17811.286826712007</v>
+      </c>
+      <c r="AT3" s="2">
+        <f t="shared" si="3"/>
+        <v>17292.511482244667</v>
+      </c>
+      <c r="AU3" s="2">
+        <f t="shared" si="3"/>
+        <v>16788.846099266666</v>
+      </c>
+      <c r="AV3" s="2">
+        <f t="shared" si="3"/>
+        <v>16299.850581812296</v>
+      </c>
+      <c r="AW3" s="2">
+        <f t="shared" si="3"/>
+        <v>15825.097652244949</v>
+      </c>
+      <c r="AX3" s="15">
+        <f t="shared" ref="AX3:AX21" si="20">SUM(AN3:AW3)</f>
+        <v>181417.00957757491</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY21" si="21">AA3/(G3+AX3)</f>
+        <v>78.933062950883055</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="4"/>
+        <v>235.09228037015976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>482180</v>
+      </c>
+      <c r="C4">
+        <v>51357</v>
+      </c>
+      <c r="D4">
+        <v>24695</v>
+      </c>
+      <c r="E4">
+        <v>13687</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="5"/>
+        <v>273740</v>
+      </c>
+      <c r="H4">
+        <v>852</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="6"/>
+        <v>21040140</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="8"/>
+        <v>43598824.411764704</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="9"/>
+        <v>4198.1500000000005</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="10"/>
+        <v>7178836.5000000009</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" si="11"/>
+        <v>71817800.911764711</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="1"/>
+        <v>7181780.0911764707</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="1"/>
+        <v>6972602.0302684186</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="1"/>
+        <v>6769516.5342411827</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="1"/>
+        <v>6572346.1497487212</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="1"/>
+        <v>6380918.5919890506</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="1"/>
+        <v>6195066.5941641266</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="1"/>
+        <v>6014627.7613243945</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="1"/>
+        <v>5839444.4284702856</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="1"/>
+        <v>5669363.5227866853</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="1"/>
+        <v>5504236.4298899863</v>
+      </c>
+      <c r="AA4" s="15">
+        <f t="shared" si="12"/>
+        <v>63099902.13405931</v>
+      </c>
+      <c r="AB4">
+        <v>62</v>
+      </c>
+      <c r="AC4">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="8">
+        <f t="shared" si="13"/>
+        <v>1240</v>
+      </c>
+      <c r="AE4">
+        <v>852</v>
+      </c>
+      <c r="AF4" s="10">
+        <f t="shared" si="14"/>
+        <v>52824</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH4" s="11">
+        <f t="shared" si="16"/>
+        <v>109460.50267379679</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f t="shared" si="17"/>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL4" s="10">
+        <f t="shared" si="18"/>
+        <v>18023.400000000001</v>
+      </c>
+      <c r="AM4" s="13">
+        <f t="shared" si="19"/>
+        <v>180307.90267379678</v>
+      </c>
+      <c r="AN4" s="2">
+        <f t="shared" si="3"/>
+        <v>18030.790267379678</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" si="3"/>
+        <v>17505.621618815221</v>
+      </c>
+      <c r="AP4" s="2">
+        <f t="shared" si="3"/>
+        <v>16995.749144480797</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f t="shared" si="3"/>
+        <v>16500.72732473864</v>
+      </c>
+      <c r="AR4" s="2">
+        <f t="shared" si="3"/>
+        <v>16020.123616251107</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" si="3"/>
+        <v>15553.518074030202</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" si="3"/>
+        <v>15100.502984495341</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" si="3"/>
+        <v>14660.682509218776</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="3"/>
+        <v>14233.672339047356</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" si="3"/>
+        <v>13819.099358298405</v>
+      </c>
+      <c r="AX4" s="15">
+        <f t="shared" si="20"/>
+        <v>158420.48723675552</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="21"/>
+        <v>146.01034568782904</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="4"/>
+        <v>230.51034607313258</v>
+      </c>
+      <c r="BB4" s="2"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>283700</v>
+      </c>
+      <c r="C5">
+        <v>32625</v>
+      </c>
+      <c r="D5">
+        <v>18403</v>
+      </c>
+      <c r="E5">
+        <v>10461</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="5"/>
+        <v>209220</v>
+      </c>
+      <c r="H5">
+        <v>852</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="6"/>
+        <v>15679356</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="8"/>
+        <v>32490348.882352941</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="9"/>
+        <v>3128.51</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="10"/>
+        <v>5349752.1000000006</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" si="11"/>
+        <v>53519456.982352942</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>5351945.6982352939</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="1"/>
+        <v>5196063.7846944602</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="1"/>
+        <v>5044722.1210625824</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="1"/>
+        <v>4897788.4670510516</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="1"/>
+        <v>4755134.4340301473</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="1"/>
+        <v>4616635.3728448031</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="1"/>
+        <v>4482170.2648978671</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="1"/>
+        <v>4351621.6164056957</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="1"/>
+        <v>4224875.3557336852</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="1"/>
+        <v>4101820.7337220251</v>
+      </c>
+      <c r="AA5" s="15">
+        <f t="shared" si="12"/>
+        <v>47022777.848677605</v>
+      </c>
+      <c r="AB5">
+        <v>96</v>
+      </c>
+      <c r="AC5">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="8">
+        <f t="shared" si="13"/>
+        <v>1920</v>
+      </c>
+      <c r="AE5">
+        <v>852</v>
+      </c>
+      <c r="AF5" s="10">
+        <f t="shared" si="14"/>
+        <v>81792</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="16"/>
+        <v>169487.22994652408</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f t="shared" si="17"/>
+        <v>16.32</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL5" s="10">
+        <f t="shared" si="18"/>
+        <v>27907.200000000001</v>
+      </c>
+      <c r="AM5" s="13">
+        <f t="shared" si="19"/>
+        <v>279186.42994652409</v>
+      </c>
+      <c r="AN5" s="2">
+        <f t="shared" si="3"/>
+        <v>27918.642994652408</v>
+      </c>
+      <c r="AO5" s="2">
+        <f t="shared" si="3"/>
+        <v>27105.478635584863</v>
+      </c>
+      <c r="AP5" s="2">
+        <f t="shared" si="3"/>
+        <v>26315.998675325107</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f t="shared" si="3"/>
+        <v>25549.51327701467</v>
+      </c>
+      <c r="AR5" s="2">
+        <f t="shared" si="3"/>
+        <v>24805.352696130747</v>
+      </c>
+      <c r="AS5" s="2">
+        <f t="shared" si="3"/>
+        <v>24082.866695272573</v>
+      </c>
+      <c r="AT5" s="2">
+        <f t="shared" si="3"/>
+        <v>23381.423975992788</v>
+      </c>
+      <c r="AU5" s="2">
+        <f t="shared" si="3"/>
+        <v>22700.411627177462</v>
+      </c>
+      <c r="AV5" s="2">
+        <f t="shared" si="3"/>
+        <v>22039.234589492684</v>
+      </c>
+      <c r="AW5" s="2">
+        <f t="shared" si="3"/>
+        <v>21397.315135429792</v>
+      </c>
+      <c r="AX5" s="15">
+        <f t="shared" si="20"/>
+        <v>245296.23830207309</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="21"/>
+        <v>103.45676102649186</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="4"/>
+        <v>224.75278581721443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>469300</v>
+      </c>
+      <c r="C6">
+        <v>55544</v>
+      </c>
+      <c r="D6">
+        <v>32903</v>
+      </c>
+      <c r="E6">
+        <v>18880</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="5"/>
+        <v>377600</v>
+      </c>
+      <c r="H6">
+        <v>852</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="6"/>
+        <v>28033356</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="8"/>
+        <v>58089982.572192512</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="9"/>
+        <v>5593.51</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="10"/>
+        <v>9564902.0999999996</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="11"/>
+        <v>95688240.672192514</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>9568824.0672192518</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="1"/>
+        <v>9290120.453610925</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="1"/>
+        <v>9019534.4209814798</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="1"/>
+        <v>8756829.5349334758</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="1"/>
+        <v>8501776.2475082297</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="1"/>
+        <v>8254151.696609932</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="1"/>
+        <v>8013739.5112717785</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="1"/>
+        <v>7780329.6225939589</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="1"/>
+        <v>7553718.0801883098</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="1"/>
+        <v>7333706.8739692327</v>
+      </c>
+      <c r="AA6" s="15">
+        <f t="shared" si="12"/>
+        <v>84072730.508886561</v>
+      </c>
+      <c r="AB6">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="AE6">
+        <v>852</v>
+      </c>
+      <c r="AF6" s="10">
+        <f t="shared" si="14"/>
+        <v>42600</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" si="16"/>
+        <v>88274.598930481283</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ6" s="7">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL6" s="10">
+        <f t="shared" si="18"/>
+        <v>14535</v>
+      </c>
+      <c r="AM6" s="13">
+        <f t="shared" si="19"/>
+        <v>145409.5989304813</v>
+      </c>
+      <c r="AN6" s="2">
+        <f t="shared" si="3"/>
+        <v>14540.95989304813</v>
+      </c>
+      <c r="AO6" s="2">
+        <f t="shared" si="3"/>
+        <v>14117.436789367117</v>
+      </c>
+      <c r="AP6" s="2">
+        <f t="shared" si="3"/>
+        <v>13706.249310065161</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f t="shared" si="3"/>
+        <v>13307.038165111808</v>
+      </c>
+      <c r="AR6" s="2">
+        <f t="shared" si="3"/>
+        <v>12919.454529234765</v>
+      </c>
+      <c r="AS6" s="2">
+        <f t="shared" si="3"/>
+        <v>12543.159737121132</v>
+      </c>
+      <c r="AT6" s="2">
+        <f t="shared" si="3"/>
+        <v>12177.824987496244</v>
+      </c>
+      <c r="AU6" s="2">
+        <f t="shared" si="3"/>
+        <v>11823.131055821596</v>
+      </c>
+      <c r="AV6" s="2">
+        <f t="shared" si="3"/>
+        <v>11478.768015360773</v>
+      </c>
+      <c r="AW6" s="2">
+        <f t="shared" si="3"/>
+        <v>11144.434966369683</v>
+      </c>
+      <c r="AX6" s="15">
+        <f t="shared" si="20"/>
+        <v>127758.4574489964</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="21"/>
+        <v>166.36256753924349</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="4"/>
+        <v>222.65023969514451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>151700</v>
+      </c>
+      <c r="C7">
+        <v>15602</v>
+      </c>
+      <c r="D7">
+        <v>6846</v>
+      </c>
+      <c r="E7">
+        <v>3751</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="5"/>
+        <v>75020</v>
+      </c>
+      <c r="H7">
+        <v>852</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="6"/>
+        <v>5832792</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="8"/>
+        <v>12086558.085561497</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="9"/>
+        <v>1163.8200000000002</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="10"/>
+        <v>1990132.2000000002</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="11"/>
+        <v>19909482.285561498</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>1990948.2285561499</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="1"/>
+        <v>1932959.4452001455</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="1"/>
+        <v>1876659.6555341219</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="1"/>
+        <v>1821999.6655671087</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="1"/>
+        <v>1768931.7141428241</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="1"/>
+        <v>1717409.4312066254</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="1"/>
+        <v>1667387.7972879857</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="1"/>
+        <v>1618823.1041630928</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="1"/>
+        <v>1571672.9166631969</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="1"/>
+        <v>1525896.0355953369</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="12"/>
+        <v>17492687.993916586</v>
+      </c>
+      <c r="AB7">
+        <v>56</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="13"/>
+        <v>1120</v>
+      </c>
+      <c r="AE7">
+        <v>852</v>
+      </c>
+      <c r="AF7" s="10">
+        <f t="shared" si="14"/>
+        <v>47712</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="16"/>
+        <v>98867.550802139041</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f t="shared" si="17"/>
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL7" s="10">
+        <f t="shared" si="18"/>
+        <v>16279.200000000003</v>
+      </c>
+      <c r="AM7" s="13">
+        <f t="shared" si="19"/>
+        <v>162858.75080213905</v>
+      </c>
+      <c r="AN7" s="2">
+        <f t="shared" si="3"/>
+        <v>16285.875080213906</v>
+      </c>
+      <c r="AO7" s="2">
+        <f t="shared" si="3"/>
+        <v>15811.52920409117</v>
+      </c>
+      <c r="AP7" s="2">
+        <f t="shared" si="3"/>
+        <v>15350.999227272981</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f t="shared" si="3"/>
+        <v>14903.882744925226</v>
+      </c>
+      <c r="AR7" s="2">
+        <f t="shared" si="3"/>
+        <v>14469.789072742939</v>
+      </c>
+      <c r="AS7" s="2">
+        <f t="shared" si="3"/>
+        <v>14048.338905575669</v>
+      </c>
+      <c r="AT7" s="2">
+        <f t="shared" si="3"/>
+        <v>13639.163985995794</v>
+      </c>
+      <c r="AU7" s="2">
+        <f t="shared" si="3"/>
+        <v>13241.906782520187</v>
+      </c>
+      <c r="AV7" s="2">
+        <f t="shared" si="3"/>
+        <v>12856.220177204066</v>
+      </c>
+      <c r="AW7" s="2">
+        <f t="shared" si="3"/>
+        <v>12481.767162334045</v>
+      </c>
+      <c r="AX7" s="15">
+        <f t="shared" si="20"/>
+        <v>143089.47234287599</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="21"/>
+        <v>80.201413565466098</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="4"/>
+        <v>233.1736602761475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>138380</v>
+      </c>
+      <c r="C8">
+        <v>15198</v>
+      </c>
+      <c r="D8">
+        <v>7836</v>
+      </c>
+      <c r="E8">
+        <v>4388</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="5"/>
+        <v>87760</v>
+      </c>
+      <c r="H8">
+        <v>852</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="6"/>
+        <v>6676272</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="8"/>
+        <v>13834395.144385027</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="9"/>
+        <v>1332.1200000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="10"/>
+        <v>2277925.2000000002</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="11"/>
+        <v>22788592.344385024</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>2278859.2344385022</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
+        <v>2212484.6936296141</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="1"/>
+        <v>2148043.3918734114</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="1"/>
+        <v>2085479.0212363219</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="1"/>
+        <v>2024736.9138216719</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="1"/>
+        <v>1965763.9940016232</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="1"/>
+        <v>1908508.7320404109</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="1"/>
+        <v>1852921.0990683599</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
+        <v>1798952.5233673397</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="1"/>
+        <v>1746555.8479294563</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" si="12"/>
+        <v>20022305.45140671</v>
+      </c>
+      <c r="AB8">
+        <v>86</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="13"/>
+        <v>1720</v>
+      </c>
+      <c r="AE8">
+        <v>852</v>
+      </c>
+      <c r="AF8" s="10">
+        <f t="shared" si="14"/>
+        <v>73272</v>
+      </c>
+      <c r="AG8" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="16"/>
+        <v>151832.31016042782</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ8" s="7">
+        <f t="shared" si="17"/>
+        <v>14.620000000000001</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL8" s="10">
+        <f t="shared" si="18"/>
+        <v>25000.2</v>
+      </c>
+      <c r="AM8" s="13">
+        <f t="shared" si="19"/>
+        <v>250104.51016042783</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" si="3"/>
+        <v>25010.451016042782</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" si="3"/>
+        <v>24281.99127771144</v>
+      </c>
+      <c r="AP8" s="2">
+        <f t="shared" si="3"/>
+        <v>23574.748813312075</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f t="shared" si="3"/>
+        <v>22888.105643992309</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="3"/>
+        <v>22221.461790283796</v>
+      </c>
+      <c r="AS8" s="2">
+        <f t="shared" si="3"/>
+        <v>21574.234747848346</v>
+      </c>
+      <c r="AT8" s="2">
+        <f t="shared" si="3"/>
+        <v>20945.858978493539</v>
+      </c>
+      <c r="AU8" s="2">
+        <f t="shared" si="3"/>
+        <v>20335.785416013143</v>
+      </c>
+      <c r="AV8" s="2">
+        <f t="shared" si="3"/>
+        <v>19743.480986420527</v>
+      </c>
+      <c r="AW8" s="2">
+        <f t="shared" si="3"/>
+        <v>19168.428142155852</v>
+      </c>
+      <c r="AX8" s="15">
+        <f t="shared" si="20"/>
+        <v>219744.54681227382</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="21"/>
+        <v>65.112225685657847</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="4"/>
+        <v>228.14842127856323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>98196</v>
+      </c>
+      <c r="C9">
+        <v>10558</v>
+      </c>
+      <c r="D9">
+        <v>5192</v>
+      </c>
+      <c r="E9">
+        <v>2886</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="5"/>
+        <v>57720</v>
+      </c>
+      <c r="H9">
+        <v>852</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="6"/>
+        <v>4423584</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="8"/>
+        <v>9166434.3529411759</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="9"/>
+        <v>882.6400000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="10"/>
+        <v>1509314.4000000001</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="11"/>
+        <v>15099332.752941176</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>1509933.2752941176</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="1"/>
+        <v>1465954.6362078812</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="1"/>
+        <v>1423256.9283571662</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="1"/>
+        <v>1381802.8430652099</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="1"/>
+        <v>1341556.158315738</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="1"/>
+        <v>1302481.7071026582</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="1"/>
+        <v>1264545.3467016099</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="1"/>
+        <v>1227713.9288365145</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
+        <v>1191955.2707150625</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="1"/>
+        <v>1157238.1269078278</v>
+      </c>
+      <c r="AA9" s="15">
+        <f t="shared" si="12"/>
+        <v>13266438.221503789</v>
+      </c>
+      <c r="AB9">
+        <v>62</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="13"/>
+        <v>1240</v>
+      </c>
+      <c r="AE9">
+        <v>852</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" si="14"/>
+        <v>52824</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="16"/>
+        <v>109460.50267379679</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ9" s="7">
+        <f t="shared" si="17"/>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL9" s="10">
+        <f t="shared" si="18"/>
+        <v>18023.400000000001</v>
+      </c>
+      <c r="AM9" s="13">
+        <f t="shared" si="19"/>
+        <v>180307.90267379678</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="3"/>
+        <v>18030.790267379678</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="3"/>
+        <v>17505.621618815221</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="3"/>
+        <v>16995.749144480797</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="3"/>
+        <v>16500.72732473864</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="3"/>
+        <v>16020.123616251107</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="3"/>
+        <v>15553.518074030202</v>
+      </c>
+      <c r="AT9" s="2">
+        <f t="shared" si="3"/>
+        <v>15100.502984495341</v>
+      </c>
+      <c r="AU9" s="2">
+        <f t="shared" si="3"/>
+        <v>14660.682509218776</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="3"/>
+        <v>14233.672339047356</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" si="3"/>
+        <v>13819.099358298405</v>
+      </c>
+      <c r="AX9" s="15">
+        <f t="shared" si="20"/>
+        <v>158420.48723675552</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="21"/>
+        <v>61.378774477231673</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="4"/>
+        <v>229.84127202882516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>162560</v>
+      </c>
+      <c r="C10">
+        <v>17328</v>
+      </c>
+      <c r="D10">
+        <v>8348</v>
+      </c>
+      <c r="E10">
+        <v>4628</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="5"/>
+        <v>92560</v>
+      </c>
+      <c r="H10">
+        <v>852</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="6"/>
+        <v>7112496</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="8"/>
+        <v>14738327.037433155</v>
+      </c>
+      <c r="L10" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="9"/>
+        <v>1419.16</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="10"/>
+        <v>2426763.6</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="11"/>
+        <v>24277586.637433156</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>2427758.6637433157</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="1"/>
+        <v>2357047.2463527336</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="1"/>
+        <v>2288395.3848084793</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="1"/>
+        <v>2221743.0920470674</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="1"/>
+        <v>2157032.1282010362</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="1"/>
+        <v>2094205.9497097442</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="1"/>
+        <v>2033209.6599123729</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="1"/>
+        <v>1973989.9610799737</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="1"/>
+        <v>1916495.1078446347</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="1"/>
+        <v>1860674.8619850823</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="12"/>
+        <v>21330552.055684444</v>
+      </c>
+      <c r="AB10">
+        <v>75</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" si="13"/>
+        <v>1500</v>
+      </c>
+      <c r="AE10">
+        <v>852</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" si="14"/>
+        <v>63900</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="16"/>
+        <v>132411.89839572192</v>
+      </c>
+      <c r="AI10" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f t="shared" si="17"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="18"/>
+        <v>21802.500000000004</v>
+      </c>
+      <c r="AM10" s="13">
+        <f t="shared" si="19"/>
+        <v>218114.39839572192</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="3"/>
+        <v>21811.439839572191</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="3"/>
+        <v>21176.155184050673</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="3"/>
+        <v>20559.373965097737</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="3"/>
+        <v>19960.557247667708</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="3"/>
+        <v>19379.181793852145</v>
+      </c>
+      <c r="AS10" s="2">
+        <f t="shared" si="3"/>
+        <v>18814.739605681694</v>
+      </c>
+      <c r="AT10" s="2">
+        <f t="shared" si="3"/>
+        <v>18266.737481244363</v>
+      </c>
+      <c r="AU10" s="2">
+        <f t="shared" si="3"/>
+        <v>17734.696583732391</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" si="3"/>
+        <v>17218.152023041155</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" si="3"/>
+        <v>16716.65244955452</v>
+      </c>
+      <c r="AX10" s="15">
+        <f t="shared" si="20"/>
+        <v>191637.68617349459</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="21"/>
+        <v>75.055333288895085</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="4"/>
+        <v>230.4510809818976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>137000</v>
+      </c>
+      <c r="C11">
+        <v>13059</v>
+      </c>
+      <c r="D11">
+        <v>4411</v>
+      </c>
+      <c r="E11">
+        <v>2356</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="5"/>
+        <v>47120</v>
+      </c>
+      <c r="H11">
+        <v>852</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="6"/>
+        <v>3758172</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="8"/>
+        <v>7787585.1176470593</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="9"/>
+        <v>749.87</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="10"/>
+        <v>1282277.7</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="11"/>
+        <v>12828034.817647059</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>1282803.4817647059</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="1"/>
+        <v>1245440.2735579668</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="1"/>
+        <v>1209165.3141339484</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="1"/>
+        <v>1173946.9069261635</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="1"/>
+        <v>1139754.2785690909</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="1"/>
+        <v>1106557.5520088261</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="1"/>
+        <v>1074327.7203969185</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="1"/>
+        <v>1043036.621744581</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="1"/>
+        <v>1012656.9143151273</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="1"/>
+        <v>983162.05273313331</v>
+      </c>
+      <c r="AA11" s="15">
+        <f t="shared" si="12"/>
+        <v>11270851.116150461</v>
+      </c>
+      <c r="AB11">
+        <v>90</v>
+      </c>
+      <c r="AC11">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" si="13"/>
+        <v>1800</v>
+      </c>
+      <c r="AE11">
+        <v>852</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" si="14"/>
+        <v>76680</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH11" s="11">
+        <f t="shared" si="16"/>
+        <v>158894.27807486631</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f t="shared" si="17"/>
+        <v>15.3</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL11" s="10">
+        <f t="shared" si="18"/>
+        <v>26163</v>
+      </c>
+      <c r="AM11" s="13">
+        <f t="shared" si="19"/>
+        <v>261737.27807486631</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="3"/>
+        <v>26173.72780748663</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="3"/>
+        <v>25411.386220860804</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="3"/>
+        <v>24671.248758117286</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="3"/>
+        <v>23952.66869720125</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="3"/>
+        <v>23255.018152622575</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="3"/>
+        <v>22577.687526818034</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" si="3"/>
+        <v>21920.084977493236</v>
+      </c>
+      <c r="AU11" s="2">
+        <f t="shared" si="3"/>
+        <v>21281.635900478868</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="3"/>
+        <v>20661.782427649388</v>
+      </c>
+      <c r="AW11" s="2">
+        <f t="shared" si="3"/>
+        <v>20059.982939465426</v>
+      </c>
+      <c r="AX11" s="15">
+        <f t="shared" si="20"/>
+        <v>229965.22340819353</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="21"/>
+        <v>40.676478440521471</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="4"/>
+        <v>239.19463319504374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>151690</v>
+      </c>
+      <c r="C12">
+        <v>14921</v>
+      </c>
+      <c r="D12">
+        <v>5688</v>
+      </c>
+      <c r="E12">
+        <v>3071</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="5"/>
+        <v>61420</v>
+      </c>
+      <c r="H12">
+        <v>852</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="6"/>
+        <v>4846176</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="8"/>
+        <v>10042118.374331551</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="9"/>
+        <v>966.96</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="10"/>
+        <v>1653501.6</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="11"/>
+        <v>16541795.97433155</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12:Z21" si="22">($P12/10)*(1/(1+discount_rate)^Q$1)</f>
+        <v>1654179.5974331549</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="22"/>
+        <v>1605999.6091584028</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="22"/>
+        <v>1559222.9215130124</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="22"/>
+        <v>1513808.661663119</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="22"/>
+        <v>1469717.1472457466</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="22"/>
+        <v>1426909.8516948998</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="22"/>
+        <v>1385349.3705775726</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="22"/>
+        <v>1344999.3889102645</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="22"/>
+        <v>1305824.6494274412</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="22"/>
+        <v>1267790.9217742148</v>
+      </c>
+      <c r="AA12" s="15">
+        <f t="shared" si="12"/>
+        <v>14533802.119397828</v>
+      </c>
+      <c r="AB12">
+        <v>70</v>
+      </c>
+      <c r="AC12">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="13"/>
+        <v>1400</v>
+      </c>
+      <c r="AE12">
+        <v>852</v>
+      </c>
+      <c r="AF12" s="10">
+        <f t="shared" si="14"/>
+        <v>59640</v>
+      </c>
+      <c r="AG12" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="16"/>
+        <v>123584.4385026738</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ12" s="7">
+        <f t="shared" si="17"/>
+        <v>11.9</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL12" s="10">
+        <f t="shared" si="18"/>
+        <v>20349</v>
+      </c>
+      <c r="AM12" s="13">
+        <f t="shared" si="19"/>
+        <v>203573.43850267382</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" ref="AN12:AW21" si="23">($AM12/10)*(1/(1+discount_rate)^AN$1)</f>
+        <v>20357.343850267382</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="23"/>
+        <v>19764.411505113963</v>
+      </c>
+      <c r="AP12" s="2">
+        <f t="shared" si="23"/>
+        <v>19188.749034091226</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f t="shared" si="23"/>
+        <v>18629.853431156531</v>
+      </c>
+      <c r="AR12" s="2">
+        <f t="shared" si="23"/>
+        <v>18087.236340928674</v>
+      </c>
+      <c r="AS12" s="2">
+        <f t="shared" si="23"/>
+        <v>17560.423631969585</v>
+      </c>
+      <c r="AT12" s="2">
+        <f t="shared" si="23"/>
+        <v>17048.954982494743</v>
+      </c>
+      <c r="AU12" s="2">
+        <f t="shared" si="23"/>
+        <v>16552.383478150234</v>
+      </c>
+      <c r="AV12" s="2">
+        <f t="shared" si="23"/>
+        <v>16070.275221505082</v>
+      </c>
+      <c r="AW12" s="2">
+        <f t="shared" si="23"/>
+        <v>15602.208952917556</v>
+      </c>
+      <c r="AX12" s="15">
+        <f t="shared" si="20"/>
+        <v>178861.84042859497</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="21"/>
+        <v>60.486477436137612</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="4"/>
+        <v>236.62979679905288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>55620</v>
+      </c>
+      <c r="C13">
+        <v>5238</v>
+      </c>
+      <c r="D13">
+        <v>1678</v>
+      </c>
+      <c r="E13">
+        <v>893</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="5"/>
+        <v>17860</v>
+      </c>
+      <c r="H13">
+        <v>852</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="6"/>
+        <v>1429656</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="8"/>
+        <v>2962495.5401069517</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="9"/>
+        <v>285.26000000000005</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="10"/>
+        <v>487794.60000000009</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="11"/>
+        <v>4879946.1401069518</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="22"/>
+        <v>487994.61401069519</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="22"/>
+        <v>473781.17865116039</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="22"/>
+        <v>459981.72684578679</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="22"/>
+        <v>446584.20082115225</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="22"/>
+        <v>433576.89400111872</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="22"/>
+        <v>420948.44077778514</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="22"/>
+        <v>408687.8065803739</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="22"/>
+        <v>396784.27823337272</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="22"/>
+        <v>385227.45459550753</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="22"/>
+        <v>374007.23747136653</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" si="12"/>
+        <v>4287573.8319883188</v>
+      </c>
+      <c r="AB13">
+        <v>72</v>
+      </c>
+      <c r="AC13">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="13"/>
+        <v>1440</v>
+      </c>
+      <c r="AE13">
+        <v>852</v>
+      </c>
+      <c r="AF13" s="10">
+        <f t="shared" si="14"/>
+        <v>61344</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH13" s="11">
+        <f t="shared" si="16"/>
+        <v>127115.42245989305</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f t="shared" si="17"/>
+        <v>12.24</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL13" s="10">
+        <f t="shared" si="18"/>
+        <v>20930.400000000001</v>
+      </c>
+      <c r="AM13" s="13">
+        <f t="shared" si="19"/>
+        <v>209389.82245989304</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="23"/>
+        <v>20938.982245989304</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="23"/>
+        <v>20329.108976688643</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="23"/>
+        <v>19736.999006493828</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="23"/>
+        <v>19162.134957761002</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="23"/>
+        <v>18604.014522098059</v>
+      </c>
+      <c r="AS13" s="2">
+        <f t="shared" si="23"/>
+        <v>18062.150021454428</v>
+      </c>
+      <c r="AT13" s="2">
+        <f t="shared" si="23"/>
+        <v>17536.067981994591</v>
+      </c>
+      <c r="AU13" s="2">
+        <f t="shared" si="23"/>
+        <v>17025.308720383095</v>
+      </c>
+      <c r="AV13" s="2">
+        <f t="shared" si="23"/>
+        <v>16529.425942119509</v>
+      </c>
+      <c r="AW13" s="2">
+        <f t="shared" si="23"/>
+        <v>16047.986351572341</v>
+      </c>
+      <c r="AX13" s="15">
+        <f t="shared" si="20"/>
+        <v>183972.17872655479</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="21"/>
+        <v>21.243261897287386</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="4"/>
+        <v>240.06572407549376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>297420</v>
+      </c>
+      <c r="C14">
+        <v>31607</v>
+      </c>
+      <c r="D14">
+        <v>15115</v>
+      </c>
+      <c r="E14">
+        <v>8371</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="5"/>
+        <v>167420</v>
+      </c>
+      <c r="H14">
+        <v>852</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="6"/>
+        <v>12877980</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="8"/>
+        <v>26685411.256684493</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="9"/>
+        <v>2569.5500000000002</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="10"/>
+        <v>4393930.5</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="11"/>
+        <v>43957321.756684497</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="22"/>
+        <v>4395732.1756684501</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="22"/>
+        <v>4267701.1414256794</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="22"/>
+        <v>4143399.1664326987</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="22"/>
+        <v>4022717.6373132998</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="22"/>
+        <v>3905551.1041876702</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="22"/>
+        <v>3791797.1885317187</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="22"/>
+        <v>3681356.4937201152</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="22"/>
+        <v>3574132.5181748685</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="22"/>
+        <v>3470031.5710435621</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="22"/>
+        <v>3368962.6903335555</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" si="12"/>
+        <v>38621381.686831616</v>
+      </c>
+      <c r="AB14">
+        <v>102</v>
+      </c>
+      <c r="AC14">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="13"/>
+        <v>2040</v>
+      </c>
+      <c r="AE14">
+        <v>852</v>
+      </c>
+      <c r="AF14" s="10">
+        <f t="shared" si="14"/>
+        <v>86904</v>
+      </c>
+      <c r="AG14" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="16"/>
+        <v>180080.18181818182</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ14" s="7">
+        <f t="shared" si="17"/>
+        <v>17.34</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL14" s="10">
+        <f t="shared" si="18"/>
+        <v>29651.4</v>
+      </c>
+      <c r="AM14" s="13">
+        <f t="shared" si="19"/>
+        <v>296635.58181818185</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" si="23"/>
+        <v>29663.558181818185</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" si="23"/>
+        <v>28799.571050308918</v>
+      </c>
+      <c r="AP14" s="2">
+        <f t="shared" si="23"/>
+        <v>27960.748592532931</v>
+      </c>
+      <c r="AQ14" s="2">
+        <f t="shared" si="23"/>
+        <v>27146.35785682809</v>
+      </c>
+      <c r="AR14" s="2">
+        <f t="shared" si="23"/>
+        <v>26355.687239638923</v>
+      </c>
+      <c r="AS14" s="2">
+        <f t="shared" si="23"/>
+        <v>25588.045863727111</v>
+      </c>
+      <c r="AT14" s="2">
+        <f t="shared" si="23"/>
+        <v>24842.76297449234</v>
+      </c>
+      <c r="AU14" s="2">
+        <f t="shared" si="23"/>
+        <v>24119.187353876056</v>
+      </c>
+      <c r="AV14" s="2">
+        <f t="shared" si="23"/>
+        <v>23416.686751335976</v>
+      </c>
+      <c r="AW14" s="2">
+        <f t="shared" si="23"/>
+        <v>22734.647331394153</v>
+      </c>
+      <c r="AX14" s="15">
+        <f t="shared" si="20"/>
+        <v>260627.25319595268</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="21"/>
+        <v>90.226911628262243</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="4"/>
+        <v>230.68559124854627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>43650</v>
+      </c>
+      <c r="C15">
+        <v>4769</v>
+      </c>
+      <c r="D15">
+        <v>2431</v>
+      </c>
+      <c r="E15">
+        <v>1359</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="5"/>
+        <v>27180</v>
+      </c>
+      <c r="H15">
+        <v>852</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="6"/>
+        <v>2071212</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="8"/>
+        <v>4291911</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="9"/>
+        <v>413.27000000000004</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="10"/>
+        <v>706691.70000000007</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="11"/>
+        <v>7069814.7000000002</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="22"/>
+        <v>706981.47</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="22"/>
+        <v>686389.77669902914</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="22"/>
+        <v>666397.84145536809</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="22"/>
+        <v>646988.19558773597</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="22"/>
+        <v>628143.87921139423</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="22"/>
+        <v>609848.42641882936</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="22"/>
+        <v>592085.8508920673</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="22"/>
+        <v>574840.63193404593</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="22"/>
+        <v>558097.70090684074</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="22"/>
+        <v>541842.42806489393</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" si="12"/>
+        <v>6211616.2011702042</v>
+      </c>
+      <c r="AB15">
+        <v>47</v>
+      </c>
+      <c r="AC15">
+        <v>20</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="13"/>
+        <v>940</v>
+      </c>
+      <c r="AE15">
+        <v>852</v>
+      </c>
+      <c r="AF15" s="10">
+        <f t="shared" si="14"/>
+        <v>40044</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH15" s="11">
+        <f t="shared" si="16"/>
+        <v>82978.122994652411</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ15" s="7">
+        <f t="shared" si="17"/>
+        <v>7.99</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL15" s="10">
+        <f t="shared" si="18"/>
+        <v>13662.9</v>
+      </c>
+      <c r="AM15" s="13">
+        <f t="shared" si="19"/>
+        <v>136685.02299465242</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="23"/>
+        <v>13668.502299465243</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="23"/>
+        <v>13270.39058200509</v>
+      </c>
+      <c r="AP15" s="2">
+        <f t="shared" si="23"/>
+        <v>12883.874351461252</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f t="shared" si="23"/>
+        <v>12508.6158752051</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" si="23"/>
+        <v>12144.287257480681</v>
+      </c>
+      <c r="AS15" s="2">
+        <f t="shared" si="23"/>
+        <v>11790.570152893864</v>
+      </c>
+      <c r="AT15" s="2">
+        <f t="shared" si="23"/>
+        <v>11447.15548824647</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" si="23"/>
+        <v>11113.743192472301</v>
+      </c>
+      <c r="AV15" s="2">
+        <f t="shared" si="23"/>
+        <v>10790.041934439127</v>
+      </c>
+      <c r="AW15" s="2">
+        <f t="shared" si="23"/>
+        <v>10475.768868387502</v>
+      </c>
+      <c r="AX15" s="15">
+        <f t="shared" si="20"/>
+        <v>120092.95000205663</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="21"/>
+        <v>42.177577084477903</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="4"/>
+        <v>228.53628407543061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>109750</v>
+      </c>
+      <c r="C16">
+        <v>11473</v>
+      </c>
+      <c r="D16">
+        <v>5262</v>
+      </c>
+      <c r="E16">
+        <v>2899</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="5"/>
+        <v>57980</v>
+      </c>
+      <c r="H16">
+        <v>853</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="6"/>
+        <v>4488486</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="8"/>
+        <v>9290018.7914438508</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="9"/>
+        <v>894.54000000000008</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="10"/>
+        <v>1529663.4000000001</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="11"/>
+        <v>15308168.191443851</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="22"/>
+        <v>1530816.8191443852</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="22"/>
+        <v>1486229.9214994032</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="22"/>
+        <v>1442941.6713586438</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="22"/>
+        <v>1400914.2440375183</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="22"/>
+        <v>1360110.91654128</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="22"/>
+        <v>1320496.035476971</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="22"/>
+        <v>1282034.9858999718</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="22"/>
+        <v>1244694.1610679335</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="22"/>
+        <v>1208440.9330756636</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="22"/>
+        <v>1173243.6243453047</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" si="12"/>
+        <v>13449923.312447073</v>
+      </c>
+      <c r="AB16">
+        <v>68</v>
+      </c>
+      <c r="AC16">
+        <v>20</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="13"/>
+        <v>1360</v>
+      </c>
+      <c r="AE16">
+        <v>852</v>
+      </c>
+      <c r="AF16" s="10">
+        <f t="shared" si="14"/>
+        <v>57936</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" si="16"/>
+        <v>120053.45454545454</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ16" s="7">
+        <f t="shared" si="17"/>
+        <v>11.56</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL16" s="10">
+        <f t="shared" si="18"/>
+        <v>19767.600000000002</v>
+      </c>
+      <c r="AM16" s="13">
+        <f t="shared" si="19"/>
+        <v>197757.05454545454</v>
+      </c>
+      <c r="AN16" s="2">
+        <f t="shared" si="23"/>
+        <v>19775.705454545452</v>
+      </c>
+      <c r="AO16" s="2">
+        <f t="shared" si="23"/>
+        <v>19199.714033539272</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="23"/>
+        <v>18640.499061688613</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="23"/>
+        <v>18097.571904552053</v>
+      </c>
+      <c r="AR16" s="2">
+        <f t="shared" si="23"/>
+        <v>17570.458159759277</v>
+      </c>
+      <c r="AS16" s="2">
+        <f t="shared" si="23"/>
+        <v>17058.697242484737</v>
+      </c>
+      <c r="AT16" s="2">
+        <f t="shared" si="23"/>
+        <v>16561.841982994887</v>
+      </c>
+      <c r="AU16" s="2">
+        <f t="shared" si="23"/>
+        <v>16079.458235917367</v>
+      </c>
+      <c r="AV16" s="2">
+        <f t="shared" si="23"/>
+        <v>15611.124500890648</v>
+      </c>
+      <c r="AW16" s="2">
+        <f t="shared" si="23"/>
+        <v>15156.431554262765</v>
+      </c>
+      <c r="AX16" s="15">
+        <f t="shared" si="20"/>
+        <v>173751.50213063505</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="21"/>
+        <v>58.040979274647285</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="4"/>
+        <v>231.97522098046002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>359310</v>
+      </c>
+      <c r="C17">
+        <v>39402</v>
+      </c>
+      <c r="D17">
+        <v>20248</v>
+      </c>
+      <c r="E17">
+        <v>11331</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="5"/>
+        <v>226620</v>
+      </c>
+      <c r="H17">
+        <v>854</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="6"/>
+        <v>17291792</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="8"/>
+        <v>35747681.582887702</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="9"/>
+        <v>3442.1600000000003</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="10"/>
+        <v>5886093.6000000006</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="11"/>
+        <v>58925567.182887703</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="22"/>
+        <v>5892556.7182887699</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="22"/>
+        <v>5720928.8527075434</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="22"/>
+        <v>5554299.8569976147</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="22"/>
+        <v>5392524.1330073932</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="22"/>
+        <v>5235460.3233081494</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="22"/>
+        <v>5082971.1876778156</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="22"/>
+        <v>4934923.4831823446</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="22"/>
+        <v>4791187.8477498489</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="22"/>
+        <v>4651638.6871357756</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="22"/>
+        <v>4516154.065180365</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" si="12"/>
+        <v>51772645.155235618</v>
+      </c>
+      <c r="AB17">
+        <v>95</v>
+      </c>
+      <c r="AC17">
+        <v>20</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="13"/>
+        <v>1900</v>
+      </c>
+      <c r="AE17">
+        <v>852</v>
+      </c>
+      <c r="AF17" s="10">
+        <f t="shared" si="14"/>
+        <v>80940</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH17" s="11">
+        <f t="shared" si="16"/>
+        <v>167721.73796791444</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ17" s="7">
+        <f t="shared" si="17"/>
+        <v>16.150000000000002</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL17" s="10">
+        <f t="shared" si="18"/>
+        <v>27616.500000000004</v>
+      </c>
+      <c r="AM17" s="13">
+        <f t="shared" si="19"/>
+        <v>276278.23796791444</v>
+      </c>
+      <c r="AN17" s="2">
+        <f t="shared" si="23"/>
+        <v>27627.823796791443</v>
+      </c>
+      <c r="AO17" s="2">
+        <f t="shared" si="23"/>
+        <v>26823.129899797517</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" si="23"/>
+        <v>26041.873689123804</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="23"/>
+        <v>25283.372513712431</v>
+      </c>
+      <c r="AR17" s="2">
+        <f t="shared" si="23"/>
+        <v>24546.963605546051</v>
+      </c>
+      <c r="AS17" s="2">
+        <f t="shared" si="23"/>
+        <v>23832.003500530147</v>
+      </c>
+      <c r="AT17" s="2">
+        <f t="shared" si="23"/>
+        <v>23137.86747624286</v>
+      </c>
+      <c r="AU17" s="2">
+        <f t="shared" si="23"/>
+        <v>22463.94900606103</v>
+      </c>
+      <c r="AV17" s="2">
+        <f t="shared" si="23"/>
+        <v>21809.659229185465</v>
+      </c>
+      <c r="AW17" s="2">
+        <f t="shared" si="23"/>
+        <v>21174.426436102396</v>
+      </c>
+      <c r="AX17" s="15">
+        <f t="shared" si="20"/>
+        <v>242741.06915309315</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="21"/>
+        <v>110.30451513299403</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="4"/>
+        <v>228.45576363619989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>41112</v>
+      </c>
+      <c r="C18">
+        <v>3932</v>
+      </c>
+      <c r="D18">
+        <v>1346</v>
+      </c>
+      <c r="E18">
+        <v>720</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="H18">
+        <v>855</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="6"/>
+        <v>1150830</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="8"/>
+        <v>2376352.2032085559</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="9"/>
+        <v>228.82000000000002</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="10"/>
+        <v>391282.2</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="11"/>
+        <v>3918464.4032085561</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="22"/>
+        <v>391846.44032085559</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="22"/>
+        <v>380433.43720471417</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="22"/>
+        <v>369352.85165506229</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="22"/>
+        <v>358595.00160685659</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="22"/>
+        <v>348150.4869969482</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="22"/>
+        <v>338010.18155043514</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="22"/>
+        <v>328165.22480624769</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="22"/>
+        <v>318607.01437499776</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="22"/>
+        <v>309327.19842232793</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="22"/>
+        <v>300317.66837119218</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" si="12"/>
+        <v>3442805.5053096381</v>
+      </c>
+      <c r="AB18">
+        <v>59</v>
+      </c>
+      <c r="AC18">
+        <v>20</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="13"/>
+        <v>1180</v>
+      </c>
+      <c r="AE18">
+        <v>852</v>
+      </c>
+      <c r="AF18" s="10">
+        <f t="shared" si="14"/>
+        <v>50268</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" si="16"/>
+        <v>104164.02673796791</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f t="shared" si="17"/>
+        <v>10.030000000000001</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL18" s="10">
+        <f t="shared" si="18"/>
+        <v>17151.300000000003</v>
+      </c>
+      <c r="AM18" s="13">
+        <f t="shared" si="19"/>
+        <v>171583.3267379679</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" si="23"/>
+        <v>17158.332673796791</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="23"/>
+        <v>16658.575411453196</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" si="23"/>
+        <v>16173.374185876888</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f t="shared" si="23"/>
+        <v>15702.30503483193</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="23"/>
+        <v>15244.956344497021</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" si="23"/>
+        <v>14800.928489802935</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" si="23"/>
+        <v>14369.833485245566</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="23"/>
+        <v>13951.294645869481</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="23"/>
+        <v>13544.94625812571</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="23"/>
+        <v>13150.433260316224</v>
+      </c>
+      <c r="AX18" s="15">
+        <f t="shared" si="20"/>
+        <v>150754.97978981576</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="21"/>
+        <v>20.845907944714227</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="4"/>
+        <v>239.08371564650264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>525550</v>
+      </c>
+      <c r="C19">
+        <v>58350</v>
+      </c>
+      <c r="D19">
+        <v>30774</v>
+      </c>
+      <c r="E19">
+        <v>17291</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="5"/>
+        <v>345820</v>
+      </c>
+      <c r="H19">
+        <v>856</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="6"/>
+        <v>26342544</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="8"/>
+        <v>54331250.14973262</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="9"/>
+        <v>5231.58</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="10"/>
+        <v>8946001.8000000007</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="11"/>
+        <v>89619795.949732617</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="22"/>
+        <v>8961979.5949732624</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="22"/>
+        <v>8700951.063080838</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="22"/>
+        <v>8447525.3039619774</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="22"/>
+        <v>8201480.8776329886</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="22"/>
+        <v>7962602.7938184356</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="22"/>
+        <v>7730682.3240955696</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="22"/>
+        <v>7505516.8195102615</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="22"/>
+        <v>7286909.5335051073</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="22"/>
+        <v>7074669.4500049585</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="22"/>
+        <v>6868611.1165096695</v>
+      </c>
+      <c r="AA19" s="15">
+        <f t="shared" si="12"/>
+        <v>78740928.877093077</v>
+      </c>
+      <c r="AB19">
+        <v>70</v>
+      </c>
+      <c r="AC19">
+        <v>20</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="13"/>
+        <v>1400</v>
+      </c>
+      <c r="AE19">
+        <v>852</v>
+      </c>
+      <c r="AF19" s="10">
+        <f t="shared" si="14"/>
+        <v>59640</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH19" s="11">
+        <f t="shared" si="16"/>
+        <v>123584.4385026738</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f t="shared" si="17"/>
+        <v>11.9</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL19" s="10">
+        <f t="shared" si="18"/>
+        <v>20349</v>
+      </c>
+      <c r="AM19" s="13">
+        <f t="shared" si="19"/>
+        <v>203573.43850267382</v>
+      </c>
+      <c r="AN19" s="2">
+        <f t="shared" si="23"/>
+        <v>20357.343850267382</v>
+      </c>
+      <c r="AO19" s="2">
+        <f t="shared" si="23"/>
+        <v>19764.411505113963</v>
+      </c>
+      <c r="AP19" s="2">
+        <f t="shared" si="23"/>
+        <v>19188.749034091226</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f t="shared" si="23"/>
+        <v>18629.853431156531</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" si="23"/>
+        <v>18087.236340928674</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" si="23"/>
+        <v>17560.423631969585</v>
+      </c>
+      <c r="AT19" s="2">
+        <f t="shared" si="23"/>
+        <v>17048.954982494743</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" si="23"/>
+        <v>16552.383478150234</v>
+      </c>
+      <c r="AV19" s="2">
+        <f t="shared" si="23"/>
+        <v>16070.275221505082</v>
+      </c>
+      <c r="AW19" s="2">
+        <f t="shared" si="23"/>
+        <v>15602.208952917556</v>
+      </c>
+      <c r="AX19" s="15">
+        <f t="shared" si="20"/>
+        <v>178861.84042859497</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="21"/>
+        <v>150.07366905012807</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="4"/>
+        <v>227.69339216093076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>32151</v>
+      </c>
+      <c r="C20">
+        <v>3197</v>
+      </c>
+      <c r="D20">
+        <v>1265</v>
+      </c>
+      <c r="E20">
+        <v>685</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="5"/>
+        <v>13700</v>
+      </c>
+      <c r="H20">
+        <v>857</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="6"/>
+        <v>1084105</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="8"/>
+        <v>2233347.3529411764</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="9"/>
+        <v>215.05</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="10"/>
+        <v>367735.5</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="11"/>
+        <v>3685187.8529411764</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="22"/>
+        <v>368518.78529411764</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="22"/>
+        <v>357785.2284408909</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="22"/>
+        <v>347364.29945717566</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="22"/>
+        <v>337246.89267686958</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="22"/>
+        <v>327424.16764744621</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="22"/>
+        <v>317887.54140528757</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="22"/>
+        <v>308628.68097600737</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="22"/>
+        <v>299639.496093211</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="22"/>
+        <v>290912.13212933106</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="22"/>
+        <v>282438.96323236031</v>
+      </c>
+      <c r="AA20" s="15">
+        <f t="shared" si="12"/>
+        <v>3237846.1873526969</v>
+      </c>
+      <c r="AB20">
+        <v>50</v>
+      </c>
+      <c r="AC20">
+        <v>20</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="AE20">
+        <v>852</v>
+      </c>
+      <c r="AF20" s="10">
+        <f t="shared" si="14"/>
+        <v>42600</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH20" s="11">
+        <f t="shared" si="16"/>
+        <v>88274.598930481283</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f t="shared" si="17"/>
+        <v>8.5</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL20" s="10">
+        <f t="shared" si="18"/>
+        <v>14535</v>
+      </c>
+      <c r="AM20" s="13">
+        <f t="shared" si="19"/>
+        <v>145409.5989304813</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="23"/>
+        <v>14540.95989304813</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="23"/>
+        <v>14117.436789367117</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" si="23"/>
+        <v>13706.249310065161</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f t="shared" si="23"/>
+        <v>13307.038165111808</v>
+      </c>
+      <c r="AR20" s="2">
+        <f t="shared" si="23"/>
+        <v>12919.454529234765</v>
+      </c>
+      <c r="AS20" s="2">
+        <f t="shared" si="23"/>
+        <v>12543.159737121132</v>
+      </c>
+      <c r="AT20" s="2">
+        <f t="shared" si="23"/>
+        <v>12177.824987496244</v>
+      </c>
+      <c r="AU20" s="2">
+        <f t="shared" si="23"/>
+        <v>11823.131055821596</v>
+      </c>
+      <c r="AV20" s="2">
+        <f t="shared" si="23"/>
+        <v>11478.768015360773</v>
+      </c>
+      <c r="AW20" s="2">
+        <f t="shared" si="23"/>
+        <v>11144.434966369683</v>
+      </c>
+      <c r="AX20" s="15">
+        <f t="shared" si="20"/>
+        <v>127758.4574489964</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="21"/>
+        <v>22.889025129657728</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="4"/>
+        <v>236.33913776297058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>60120</v>
+      </c>
+      <c r="C21">
+        <v>6075</v>
+      </c>
+      <c r="D21">
+        <v>2530</v>
+      </c>
+      <c r="E21">
+        <v>1378</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8">
+        <f>F21*E21</f>
+        <v>27560</v>
+      </c>
+      <c r="H21">
+        <v>858</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="6"/>
+        <v>2170740</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="7"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="8"/>
+        <v>4466694.7058823528</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="9"/>
+        <v>430.1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="10"/>
+        <v>735471</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="11"/>
+        <v>7372905.7058823528</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="22"/>
+        <v>737290.57058823528</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="22"/>
+        <v>715816.08794974303</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="22"/>
+        <v>694967.07567936217</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="22"/>
+        <v>674725.31619355548</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="22"/>
+        <v>655073.12251801509</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="22"/>
+        <v>635993.32283302431</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="22"/>
+        <v>617469.24546895572</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="22"/>
+        <v>599484.7043387919</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="22"/>
+        <v>582023.98479494359</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="22"/>
+        <v>565071.82989800349</v>
+      </c>
+      <c r="AA21" s="15">
+        <f t="shared" si="12"/>
+        <v>6477915.2602626299</v>
+      </c>
+      <c r="AB21">
+        <v>58</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="13"/>
+        <v>1160</v>
+      </c>
+      <c r="AE21">
+        <v>852</v>
+      </c>
+      <c r="AF21" s="10">
+        <f t="shared" si="14"/>
+        <v>49416</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="15"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH21" s="11">
+        <f t="shared" si="16"/>
+        <v>102398.53475935828</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f t="shared" si="17"/>
+        <v>9.8600000000000012</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL21" s="10">
+        <f t="shared" si="18"/>
+        <v>16860.600000000002</v>
+      </c>
+      <c r="AM21" s="13">
+        <f t="shared" si="19"/>
+        <v>168675.13475935828</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="23"/>
+        <v>16867.513475935826</v>
+      </c>
+      <c r="AO21" s="2">
+        <f t="shared" si="23"/>
+        <v>16376.22667566585</v>
+      </c>
+      <c r="AP21" s="2">
+        <f t="shared" si="23"/>
+        <v>15899.249199675583</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f t="shared" si="23"/>
+        <v>15436.164271529693</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" si="23"/>
+        <v>14986.567253912324</v>
+      </c>
+      <c r="AS21" s="2">
+        <f t="shared" si="23"/>
+        <v>14550.065295060509</v>
+      </c>
+      <c r="AT21" s="2">
+        <f t="shared" si="23"/>
+        <v>14126.27698549564</v>
+      </c>
+      <c r="AU21" s="2">
+        <f t="shared" si="23"/>
+        <v>13714.832024753048</v>
+      </c>
+      <c r="AV21" s="2">
+        <f t="shared" si="23"/>
+        <v>13315.370897818493</v>
+      </c>
+      <c r="AW21" s="2">
+        <f t="shared" si="23"/>
+        <v>12927.544560988828</v>
+      </c>
+      <c r="AX21" s="15">
+        <f t="shared" si="20"/>
+        <v>148199.81064083581</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="21"/>
+        <v>36.856635408536107</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="4"/>
+        <v>235.04772352186612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AH22" s="11"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="15"/>
+    </row>
+    <row r="23" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>436350</v>
+      </c>
+      <c r="C24">
+        <v>52010</v>
+      </c>
+      <c r="D24">
+        <v>31159</v>
+      </c>
+      <c r="E24">
+        <v>17920</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" s="8">
+        <f>F24*E24</f>
+        <v>896000</v>
+      </c>
+      <c r="H24">
+        <v>852</v>
+      </c>
+      <c r="I24" s="10">
+        <f>H24*D24</f>
+        <v>26547468</v>
+      </c>
+      <c r="J24" s="7">
+        <f>330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K24" s="11">
+        <f>J24*D24</f>
+        <v>55010964.561497323</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24:L43" si="24">0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="M24" s="7">
+        <f>L24*D24</f>
+        <v>5297.0300000000007</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O24" s="10">
+        <f>N24*M24</f>
+        <v>9057921.3000000007</v>
+      </c>
+      <c r="P24" s="13">
+        <f>I24+K24+O24</f>
+        <v>90616353.861497328</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" ref="Q24:Z33" si="25">($P24/10)*(1/(1+discount_rate)^Q$1)</f>
+        <v>9061635.3861497324</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="25"/>
+        <v>8797704.258397799</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="25"/>
+        <v>8541460.4450464062</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="25"/>
+        <v>8292680.0437343754</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="25"/>
+        <v>8051145.6735285204</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="25"/>
+        <v>7816646.284979146</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="25"/>
+        <v>7588976.9757079091</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="25"/>
+        <v>7367938.8113669008</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="25"/>
+        <v>7153338.6518125255</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="25"/>
+        <v>6944988.9823422581</v>
+      </c>
+      <c r="AA24" s="15">
+        <f t="shared" si="12"/>
+        <v>79616515.513065577</v>
+      </c>
+      <c r="AB24">
+        <v>82</v>
+      </c>
+      <c r="AC24">
+        <v>50</v>
+      </c>
+      <c r="AD24" s="8">
+        <f>AC24*AB24</f>
+        <v>4100</v>
+      </c>
+      <c r="AE24">
+        <v>852</v>
+      </c>
+      <c r="AF24" s="10">
+        <f t="shared" ref="AF24:AF43" si="26">AE24*AB24</f>
+        <v>69864</v>
+      </c>
+      <c r="AG24" s="7">
+        <f>330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH24" s="11">
+        <f t="shared" si="16"/>
+        <v>144770.3422459893</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" ref="AI24:AI43" si="27">0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ24" s="7">
+        <f>AI24*AB24</f>
+        <v>13.940000000000001</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL24" s="10">
+        <f>AK24*AJ24</f>
+        <v>23837.4</v>
+      </c>
+      <c r="AM24" s="13">
+        <f>AF24+AH24+AL24</f>
+        <v>238471.7422459893</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" ref="AN24:AW33" si="28">($AM24/10)*(1/(1+discount_rate)^AN$1)</f>
+        <v>23847.17422459893</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="28"/>
+        <v>23152.596334562069</v>
+      </c>
+      <c r="AP24" s="2">
+        <f t="shared" si="28"/>
+        <v>22478.24886850686</v>
+      </c>
+      <c r="AQ24" s="2">
+        <f t="shared" si="28"/>
+        <v>21823.542590783363</v>
+      </c>
+      <c r="AR24" s="2">
+        <f t="shared" si="28"/>
+        <v>21187.905427945014</v>
+      </c>
+      <c r="AS24" s="2">
+        <f t="shared" si="28"/>
+        <v>20570.781968878655</v>
+      </c>
+      <c r="AT24" s="2">
+        <f t="shared" si="28"/>
+        <v>19971.632979493839</v>
+      </c>
+      <c r="AU24" s="2">
+        <f t="shared" si="28"/>
+        <v>19389.934931547414</v>
+      </c>
+      <c r="AV24" s="2">
+        <f t="shared" si="28"/>
+        <v>18825.179545191666</v>
+      </c>
+      <c r="AW24" s="2">
+        <f t="shared" si="28"/>
+        <v>18276.873344846277</v>
+      </c>
+      <c r="AX24" s="15">
+        <f t="shared" ref="AX24:AX43" si="29">SUM(AN24:AW24)</f>
+        <v>209523.87021635409</v>
+      </c>
+      <c r="AY24">
+        <f>AA24/(G24+AX24)</f>
+        <v>72.017002669950855</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" ref="AZ24:AZ43" si="30">AA24/G24</f>
+        <v>88.857718206546409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>206000</v>
+      </c>
+      <c r="C25">
+        <v>20679</v>
+      </c>
+      <c r="D25">
+        <v>8437</v>
+      </c>
+      <c r="E25">
+        <v>4585</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" ref="G25:G42" si="31">F25*E25</f>
+        <v>229250</v>
+      </c>
+      <c r="H25">
+        <v>852</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" ref="I25:I43" si="32">H25*D25</f>
+        <v>7188324</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" ref="J25:J43" si="33">330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" ref="K25:K43" si="34">J25*D25</f>
+        <v>14895455.823529411</v>
+      </c>
+      <c r="L25" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" ref="M25:M43" si="35">L25*D25</f>
+        <v>1434.2900000000002</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" ref="O25:O43" si="36">N25*M25</f>
+        <v>2452635.9000000004</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" ref="P25:P43" si="37">I25+K25+O25</f>
+        <v>24536415.723529413</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="25"/>
+        <v>2453641.5723529411</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="25"/>
+        <v>2382176.2838378069</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="25"/>
+        <v>2312792.508580395</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="25"/>
+        <v>2245429.6199809662</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="25"/>
+        <v>2180028.7572630742</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="25"/>
+        <v>2116532.7740418194</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="25"/>
+        <v>2054886.188390116</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="25"/>
+        <v>1995035.1343593358</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="25"/>
+        <v>1936927.3149119767</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="25"/>
+        <v>1880511.9562252201</v>
+      </c>
+      <c r="AA25" s="15">
+        <f t="shared" si="12"/>
+        <v>21557962.109943651</v>
+      </c>
+      <c r="AB25">
+        <v>71</v>
+      </c>
+      <c r="AC25">
+        <v>50</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" ref="AD25:AD43" si="38">AC25*AB25</f>
+        <v>3550</v>
+      </c>
+      <c r="AE25">
+        <v>852</v>
+      </c>
+      <c r="AF25" s="10">
+        <f t="shared" si="26"/>
+        <v>60492</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" ref="AG25:AG43" si="39">330147/187</f>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH25" s="11">
+        <f t="shared" si="16"/>
+        <v>125349.93048128342</v>
+      </c>
+      <c r="AI25" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f t="shared" ref="AJ25:AJ43" si="40">AI25*AB25</f>
+        <v>12.07</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL25" s="10">
+        <f t="shared" ref="AL25:AL43" si="41">AK25*AJ25</f>
+        <v>20639.7</v>
+      </c>
+      <c r="AM25" s="13">
+        <f t="shared" ref="AM25:AM43" si="42">AF25+AH25+AL25</f>
+        <v>206481.63048128341</v>
+      </c>
+      <c r="AN25" s="2">
+        <f t="shared" si="28"/>
+        <v>20648.163048128343</v>
+      </c>
+      <c r="AO25" s="2">
+        <f t="shared" si="28"/>
+        <v>20046.760240901305</v>
+      </c>
+      <c r="AP25" s="2">
+        <f t="shared" si="28"/>
+        <v>19462.874020292529</v>
+      </c>
+      <c r="AQ25" s="2">
+        <f t="shared" si="28"/>
+        <v>18895.994194458766</v>
+      </c>
+      <c r="AR25" s="2">
+        <f t="shared" si="28"/>
+        <v>18345.625431513366</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="28"/>
+        <v>17811.286826712007</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" si="28"/>
+        <v>17292.511482244667</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" si="28"/>
+        <v>16788.846099266666</v>
+      </c>
+      <c r="AV25" s="2">
+        <f t="shared" si="28"/>
+        <v>16299.850581812296</v>
+      </c>
+      <c r="AW25" s="2">
+        <f t="shared" si="28"/>
+        <v>15825.097652244949</v>
+      </c>
+      <c r="AX25" s="15">
+        <f t="shared" si="29"/>
+        <v>181417.00957757491</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" ref="AY25:AY43" si="43">AA25/(G25+AX25)</f>
+        <v>52.494993771520271</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="30"/>
+        <v>94.036912148063905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>482180</v>
+      </c>
+      <c r="C26">
+        <v>51357</v>
+      </c>
+      <c r="D26">
+        <v>24695</v>
+      </c>
+      <c r="E26">
+        <v>13687</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="31"/>
+        <v>684350</v>
+      </c>
+      <c r="H26">
+        <v>852</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="32"/>
+        <v>21040140</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="34"/>
+        <v>43598824.411764704</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="35"/>
+        <v>4198.1500000000005</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="36"/>
+        <v>7178836.5000000009</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" si="37"/>
+        <v>71817800.911764711</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="25"/>
+        <v>7181780.0911764707</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="25"/>
+        <v>6972602.0302684186</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="25"/>
+        <v>6769516.5342411827</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="25"/>
+        <v>6572346.1497487212</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="25"/>
+        <v>6380918.5919890506</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="25"/>
+        <v>6195066.5941641266</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="25"/>
+        <v>6014627.7613243945</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="25"/>
+        <v>5839444.4284702856</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="25"/>
+        <v>5669363.5227866853</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="25"/>
+        <v>5504236.4298899863</v>
+      </c>
+      <c r="AA26" s="15">
+        <f t="shared" si="12"/>
+        <v>63099902.13405931</v>
+      </c>
+      <c r="AB26">
+        <v>62</v>
+      </c>
+      <c r="AC26">
+        <v>50</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="38"/>
+        <v>3100</v>
+      </c>
+      <c r="AE26">
+        <v>852</v>
+      </c>
+      <c r="AF26" s="10">
+        <f t="shared" si="26"/>
+        <v>52824</v>
+      </c>
+      <c r="AG26" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH26" s="11">
+        <f t="shared" si="16"/>
+        <v>109460.50267379679</v>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f t="shared" si="40"/>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL26" s="10">
+        <f t="shared" si="41"/>
+        <v>18023.400000000001</v>
+      </c>
+      <c r="AM26" s="13">
+        <f t="shared" si="42"/>
+        <v>180307.90267379678</v>
+      </c>
+      <c r="AN26" s="2">
+        <f t="shared" si="28"/>
+        <v>18030.790267379678</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" si="28"/>
+        <v>17505.621618815221</v>
+      </c>
+      <c r="AP26" s="2">
+        <f t="shared" si="28"/>
+        <v>16995.749144480797</v>
+      </c>
+      <c r="AQ26" s="2">
+        <f t="shared" si="28"/>
+        <v>16500.72732473864</v>
+      </c>
+      <c r="AR26" s="2">
+        <f t="shared" si="28"/>
+        <v>16020.123616251107</v>
+      </c>
+      <c r="AS26" s="2">
+        <f t="shared" si="28"/>
+        <v>15553.518074030202</v>
+      </c>
+      <c r="AT26" s="2">
+        <f t="shared" si="28"/>
+        <v>15100.502984495341</v>
+      </c>
+      <c r="AU26" s="2">
+        <f t="shared" si="28"/>
+        <v>14660.682509218776</v>
+      </c>
+      <c r="AV26" s="2">
+        <f t="shared" si="28"/>
+        <v>14233.672339047356</v>
+      </c>
+      <c r="AW26" s="2">
+        <f t="shared" si="28"/>
+        <v>13819.099358298405</v>
+      </c>
+      <c r="AX26" s="15">
+        <f t="shared" si="29"/>
+        <v>158420.48723675552</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="43"/>
+        <v>74.871988387904892</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="30"/>
+        <v>92.204138429253035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>283700</v>
+      </c>
+      <c r="C27">
+        <v>32625</v>
+      </c>
+      <c r="D27">
+        <v>18403</v>
+      </c>
+      <c r="E27">
+        <v>10461</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="31"/>
+        <v>523050</v>
+      </c>
+      <c r="H27">
+        <v>852</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="32"/>
+        <v>15679356</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="34"/>
+        <v>32490348.882352941</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="35"/>
+        <v>3128.51</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="36"/>
+        <v>5349752.1000000006</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="37"/>
+        <v>53519456.982352942</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="25"/>
+        <v>5351945.6982352939</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="25"/>
+        <v>5196063.7846944602</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="25"/>
+        <v>5044722.1210625824</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="25"/>
+        <v>4897788.4670510516</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="25"/>
+        <v>4755134.4340301473</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="25"/>
+        <v>4616635.3728448031</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="25"/>
+        <v>4482170.2648978671</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="25"/>
+        <v>4351621.6164056957</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="25"/>
+        <v>4224875.3557336852</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="25"/>
+        <v>4101820.7337220251</v>
+      </c>
+      <c r="AA27" s="15">
+        <f t="shared" si="12"/>
+        <v>47022777.848677605</v>
+      </c>
+      <c r="AB27">
+        <v>96</v>
+      </c>
+      <c r="AC27">
+        <v>50</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="38"/>
+        <v>4800</v>
+      </c>
+      <c r="AE27">
+        <v>852</v>
+      </c>
+      <c r="AF27" s="10">
+        <f t="shared" si="26"/>
+        <v>81792</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH27" s="11">
+        <f t="shared" si="16"/>
+        <v>169487.22994652408</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ27" s="7">
+        <f t="shared" si="40"/>
+        <v>16.32</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL27" s="10">
+        <f t="shared" si="41"/>
+        <v>27907.200000000001</v>
+      </c>
+      <c r="AM27" s="13">
+        <f t="shared" si="42"/>
+        <v>279186.42994652409</v>
+      </c>
+      <c r="AN27" s="2">
+        <f t="shared" si="28"/>
+        <v>27918.642994652408</v>
+      </c>
+      <c r="AO27" s="2">
+        <f t="shared" si="28"/>
+        <v>27105.478635584863</v>
+      </c>
+      <c r="AP27" s="2">
+        <f t="shared" si="28"/>
+        <v>26315.998675325107</v>
+      </c>
+      <c r="AQ27" s="2">
+        <f t="shared" si="28"/>
+        <v>25549.51327701467</v>
+      </c>
+      <c r="AR27" s="2">
+        <f t="shared" si="28"/>
+        <v>24805.352696130747</v>
+      </c>
+      <c r="AS27" s="2">
+        <f t="shared" si="28"/>
+        <v>24082.866695272573</v>
+      </c>
+      <c r="AT27" s="2">
+        <f t="shared" si="28"/>
+        <v>23381.423975992788</v>
+      </c>
+      <c r="AU27" s="2">
+        <f t="shared" si="28"/>
+        <v>22700.411627177462</v>
+      </c>
+      <c r="AV27" s="2">
+        <f t="shared" si="28"/>
+        <v>22039.234589492684</v>
+      </c>
+      <c r="AW27" s="2">
+        <f t="shared" si="28"/>
+        <v>21397.315135429792</v>
+      </c>
+      <c r="AX27" s="15">
+        <f t="shared" si="29"/>
+        <v>245296.23830207309</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="43"/>
+        <v>61.199984466105676</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="30"/>
+        <v>89.901114326885775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>469300</v>
+      </c>
+      <c r="C28">
+        <v>55544</v>
+      </c>
+      <c r="D28">
+        <v>32903</v>
+      </c>
+      <c r="E28">
+        <v>18880</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="31"/>
+        <v>944000</v>
+      </c>
+      <c r="H28">
+        <v>852</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="32"/>
+        <v>28033356</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="34"/>
+        <v>58089982.572192512</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="35"/>
+        <v>5593.51</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="36"/>
+        <v>9564902.0999999996</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="37"/>
+        <v>95688240.672192514</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="25"/>
+        <v>9568824.0672192518</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="25"/>
+        <v>9290120.453610925</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="25"/>
+        <v>9019534.4209814798</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="25"/>
+        <v>8756829.5349334758</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="25"/>
+        <v>8501776.2475082297</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="25"/>
+        <v>8254151.696609932</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="25"/>
+        <v>8013739.5112717785</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="25"/>
+        <v>7780329.6225939589</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="25"/>
+        <v>7553718.0801883098</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="25"/>
+        <v>7333706.8739692327</v>
+      </c>
+      <c r="AA28" s="15">
+        <f t="shared" si="12"/>
+        <v>84072730.508886561</v>
+      </c>
+      <c r="AB28">
+        <v>50</v>
+      </c>
+      <c r="AC28">
+        <v>50</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="38"/>
+        <v>2500</v>
+      </c>
+      <c r="AE28">
+        <v>852</v>
+      </c>
+      <c r="AF28" s="10">
+        <f t="shared" si="26"/>
+        <v>42600</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH28" s="11">
+        <f t="shared" si="16"/>
+        <v>88274.598930481283</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f t="shared" si="40"/>
+        <v>8.5</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL28" s="10">
+        <f t="shared" si="41"/>
+        <v>14535</v>
+      </c>
+      <c r="AM28" s="13">
+        <f t="shared" si="42"/>
+        <v>145409.5989304813</v>
+      </c>
+      <c r="AN28" s="2">
+        <f t="shared" si="28"/>
+        <v>14540.95989304813</v>
+      </c>
+      <c r="AO28" s="2">
+        <f t="shared" si="28"/>
+        <v>14117.436789367117</v>
+      </c>
+      <c r="AP28" s="2">
+        <f t="shared" si="28"/>
+        <v>13706.249310065161</v>
+      </c>
+      <c r="AQ28" s="2">
+        <f t="shared" si="28"/>
+        <v>13307.038165111808</v>
+      </c>
+      <c r="AR28" s="2">
+        <f t="shared" si="28"/>
+        <v>12919.454529234765</v>
+      </c>
+      <c r="AS28" s="2">
+        <f t="shared" si="28"/>
+        <v>12543.159737121132</v>
+      </c>
+      <c r="AT28" s="2">
+        <f t="shared" si="28"/>
+        <v>12177.824987496244</v>
+      </c>
+      <c r="AU28" s="2">
+        <f t="shared" si="28"/>
+        <v>11823.131055821596</v>
+      </c>
+      <c r="AV28" s="2">
+        <f t="shared" si="28"/>
+        <v>11478.768015360773</v>
+      </c>
+      <c r="AW28" s="2">
+        <f t="shared" si="28"/>
+        <v>11144.434966369683</v>
+      </c>
+      <c r="AX28" s="15">
+        <f t="shared" si="29"/>
+        <v>127758.4574489964</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="43"/>
+        <v>78.443729484530309</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="30"/>
+        <v>89.060095878057794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>151700</v>
+      </c>
+      <c r="C29">
+        <v>15602</v>
+      </c>
+      <c r="D29">
+        <v>6846</v>
+      </c>
+      <c r="E29">
+        <v>3751</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="31"/>
+        <v>187550</v>
+      </c>
+      <c r="H29">
+        <v>852</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="32"/>
+        <v>5832792</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="34"/>
+        <v>12086558.085561497</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="35"/>
+        <v>1163.8200000000002</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="36"/>
+        <v>1990132.2000000002</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="37"/>
+        <v>19909482.285561498</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="25"/>
+        <v>1990948.2285561499</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="25"/>
+        <v>1932959.4452001455</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="25"/>
+        <v>1876659.6555341219</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="25"/>
+        <v>1821999.6655671087</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="25"/>
+        <v>1768931.7141428241</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="25"/>
+        <v>1717409.4312066254</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="25"/>
+        <v>1667387.7972879857</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="25"/>
+        <v>1618823.1041630928</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="25"/>
+        <v>1571672.9166631969</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="25"/>
+        <v>1525896.0355953369</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" si="12"/>
+        <v>17492687.993916586</v>
+      </c>
+      <c r="AB29">
+        <v>56</v>
+      </c>
+      <c r="AC29">
+        <v>50</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="38"/>
+        <v>2800</v>
+      </c>
+      <c r="AE29">
+        <v>852</v>
+      </c>
+      <c r="AF29" s="10">
+        <f t="shared" si="26"/>
+        <v>47712</v>
+      </c>
+      <c r="AG29" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH29" s="11">
+        <f t="shared" si="16"/>
+        <v>98867.550802139041</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ29" s="7">
+        <f t="shared" si="40"/>
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL29" s="10">
+        <f t="shared" si="41"/>
+        <v>16279.200000000003</v>
+      </c>
+      <c r="AM29" s="13">
+        <f t="shared" si="42"/>
+        <v>162858.75080213905</v>
+      </c>
+      <c r="AN29" s="2">
+        <f t="shared" si="28"/>
+        <v>16285.875080213906</v>
+      </c>
+      <c r="AO29" s="2">
+        <f t="shared" si="28"/>
+        <v>15811.52920409117</v>
+      </c>
+      <c r="AP29" s="2">
+        <f t="shared" si="28"/>
+        <v>15350.999227272981</v>
+      </c>
+      <c r="AQ29" s="2">
+        <f t="shared" si="28"/>
+        <v>14903.882744925226</v>
+      </c>
+      <c r="AR29" s="2">
+        <f t="shared" si="28"/>
+        <v>14469.789072742939</v>
+      </c>
+      <c r="AS29" s="2">
+        <f t="shared" si="28"/>
+        <v>14048.338905575669</v>
+      </c>
+      <c r="AT29" s="2">
+        <f t="shared" si="28"/>
+        <v>13639.163985995794</v>
+      </c>
+      <c r="AU29" s="2">
+        <f t="shared" si="28"/>
+        <v>13241.906782520187</v>
+      </c>
+      <c r="AV29" s="2">
+        <f t="shared" si="28"/>
+        <v>12856.220177204066</v>
+      </c>
+      <c r="AW29" s="2">
+        <f t="shared" si="28"/>
+        <v>12481.767162334045</v>
+      </c>
+      <c r="AX29" s="15">
+        <f t="shared" si="29"/>
+        <v>143089.47234287599</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="43"/>
+        <v>52.905625181304778</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="30"/>
+        <v>93.269464110458998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>138380</v>
+      </c>
+      <c r="C30">
+        <v>15198</v>
+      </c>
+      <c r="D30">
+        <v>7836</v>
+      </c>
+      <c r="E30">
+        <v>4388</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="31"/>
+        <v>219400</v>
+      </c>
+      <c r="H30">
+        <v>852</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="32"/>
+        <v>6676272</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="34"/>
+        <v>13834395.144385027</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="35"/>
+        <v>1332.1200000000001</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="36"/>
+        <v>2277925.2000000002</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="37"/>
+        <v>22788592.344385024</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="25"/>
+        <v>2278859.2344385022</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="25"/>
+        <v>2212484.6936296141</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="25"/>
+        <v>2148043.3918734114</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="25"/>
+        <v>2085479.0212363219</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="25"/>
+        <v>2024736.9138216719</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="25"/>
+        <v>1965763.9940016232</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="25"/>
+        <v>1908508.7320404109</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="25"/>
+        <v>1852921.0990683599</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="25"/>
+        <v>1798952.5233673397</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="25"/>
+        <v>1746555.8479294563</v>
+      </c>
+      <c r="AA30" s="15">
+        <f t="shared" si="12"/>
+        <v>20022305.45140671</v>
+      </c>
+      <c r="AB30">
+        <v>86</v>
+      </c>
+      <c r="AC30">
+        <v>50</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="38"/>
+        <v>4300</v>
+      </c>
+      <c r="AE30">
+        <v>852</v>
+      </c>
+      <c r="AF30" s="10">
+        <f t="shared" si="26"/>
+        <v>73272</v>
+      </c>
+      <c r="AG30" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH30" s="11">
+        <f t="shared" si="16"/>
+        <v>151832.31016042782</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ30" s="7">
+        <f t="shared" si="40"/>
+        <v>14.620000000000001</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL30" s="10">
+        <f t="shared" si="41"/>
+        <v>25000.2</v>
+      </c>
+      <c r="AM30" s="13">
+        <f t="shared" si="42"/>
+        <v>250104.51016042783</v>
+      </c>
+      <c r="AN30" s="2">
+        <f t="shared" si="28"/>
+        <v>25010.451016042782</v>
+      </c>
+      <c r="AO30" s="2">
+        <f t="shared" si="28"/>
+        <v>24281.99127771144</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" si="28"/>
+        <v>23574.748813312075</v>
+      </c>
+      <c r="AQ30" s="2">
+        <f t="shared" si="28"/>
+        <v>22888.105643992309</v>
+      </c>
+      <c r="AR30" s="2">
+        <f t="shared" si="28"/>
+        <v>22221.461790283796</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" si="28"/>
+        <v>21574.234747848346</v>
+      </c>
+      <c r="AT30" s="2">
+        <f t="shared" si="28"/>
+        <v>20945.858978493539</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" si="28"/>
+        <v>20335.785416013143</v>
+      </c>
+      <c r="AV30" s="2">
+        <f t="shared" si="28"/>
+        <v>19743.480986420527</v>
+      </c>
+      <c r="AW30" s="2">
+        <f t="shared" si="28"/>
+        <v>19168.428142155852</v>
+      </c>
+      <c r="AX30" s="15">
+        <f t="shared" si="29"/>
+        <v>219744.54681227382</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="43"/>
+        <v>45.593883828792883</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="30"/>
+        <v>91.259368511425293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>98196</v>
+      </c>
+      <c r="C31">
+        <v>10558</v>
+      </c>
+      <c r="D31">
+        <v>5192</v>
+      </c>
+      <c r="E31">
+        <v>2886</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="31"/>
+        <v>144300</v>
+      </c>
+      <c r="H31">
+        <v>852</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="32"/>
+        <v>4423584</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="34"/>
+        <v>9166434.3529411759</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="35"/>
+        <v>882.6400000000001</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="36"/>
+        <v>1509314.4000000001</v>
+      </c>
+      <c r="P31" s="13">
+        <f t="shared" si="37"/>
+        <v>15099332.752941176</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="25"/>
+        <v>1509933.2752941176</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="25"/>
+        <v>1465954.6362078812</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="25"/>
+        <v>1423256.9283571662</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="25"/>
+        <v>1381802.8430652099</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="25"/>
+        <v>1341556.158315738</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="25"/>
+        <v>1302481.7071026582</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="25"/>
+        <v>1264545.3467016099</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="25"/>
+        <v>1227713.9288365145</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="25"/>
+        <v>1191955.2707150625</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="25"/>
+        <v>1157238.1269078278</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" si="12"/>
+        <v>13266438.221503789</v>
+      </c>
+      <c r="AB31">
+        <v>62</v>
+      </c>
+      <c r="AC31">
+        <v>50</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="38"/>
+        <v>3100</v>
+      </c>
+      <c r="AE31">
+        <v>852</v>
+      </c>
+      <c r="AF31" s="10">
+        <f t="shared" si="26"/>
+        <v>52824</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH31" s="11">
+        <f t="shared" si="16"/>
+        <v>109460.50267379679</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ31" s="7">
+        <f t="shared" si="40"/>
+        <v>10.540000000000001</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL31" s="10">
+        <f t="shared" si="41"/>
+        <v>18023.400000000001</v>
+      </c>
+      <c r="AM31" s="13">
+        <f t="shared" si="42"/>
+        <v>180307.90267379678</v>
+      </c>
+      <c r="AN31" s="2">
+        <f t="shared" si="28"/>
+        <v>18030.790267379678</v>
+      </c>
+      <c r="AO31" s="2">
+        <f t="shared" si="28"/>
+        <v>17505.621618815221</v>
+      </c>
+      <c r="AP31" s="2">
+        <f t="shared" si="28"/>
+        <v>16995.749144480797</v>
+      </c>
+      <c r="AQ31" s="2">
+        <f t="shared" si="28"/>
+        <v>16500.72732473864</v>
+      </c>
+      <c r="AR31" s="2">
+        <f t="shared" si="28"/>
+        <v>16020.123616251107</v>
+      </c>
+      <c r="AS31" s="2">
+        <f t="shared" si="28"/>
+        <v>15553.518074030202</v>
+      </c>
+      <c r="AT31" s="2">
+        <f t="shared" si="28"/>
+        <v>15100.502984495341</v>
+      </c>
+      <c r="AU31" s="2">
+        <f t="shared" si="28"/>
+        <v>14660.682509218776</v>
+      </c>
+      <c r="AV31" s="2">
+        <f t="shared" si="28"/>
+        <v>14233.672339047356</v>
+      </c>
+      <c r="AW31" s="2">
+        <f t="shared" si="28"/>
+        <v>13819.099358298405</v>
+      </c>
+      <c r="AX31" s="15">
+        <f t="shared" si="29"/>
+        <v>158420.48723675552</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="43"/>
+        <v>43.824051495821628</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="30"/>
+        <v>91.936508811530061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>162560</v>
+      </c>
+      <c r="C32">
+        <v>17328</v>
+      </c>
+      <c r="D32">
+        <v>8348</v>
+      </c>
+      <c r="E32">
+        <v>4628</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="31"/>
+        <v>231400</v>
+      </c>
+      <c r="H32">
+        <v>852</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="32"/>
+        <v>7112496</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="34"/>
+        <v>14738327.037433155</v>
+      </c>
+      <c r="L32" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="35"/>
+        <v>1419.16</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="36"/>
+        <v>2426763.6</v>
+      </c>
+      <c r="P32" s="13">
+        <f t="shared" si="37"/>
+        <v>24277586.637433156</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="25"/>
+        <v>2427758.6637433157</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="25"/>
+        <v>2357047.2463527336</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="25"/>
+        <v>2288395.3848084793</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="25"/>
+        <v>2221743.0920470674</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="25"/>
+        <v>2157032.1282010362</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="25"/>
+        <v>2094205.9497097442</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="25"/>
+        <v>2033209.6599123729</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="25"/>
+        <v>1973989.9610799737</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="25"/>
+        <v>1916495.1078446347</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="25"/>
+        <v>1860674.8619850823</v>
+      </c>
+      <c r="AA32" s="15">
+        <f t="shared" si="12"/>
+        <v>21330552.055684444</v>
+      </c>
+      <c r="AB32">
+        <v>75</v>
+      </c>
+      <c r="AC32">
+        <v>50</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="38"/>
+        <v>3750</v>
+      </c>
+      <c r="AE32">
+        <v>852</v>
+      </c>
+      <c r="AF32" s="10">
+        <f t="shared" si="26"/>
+        <v>63900</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH32" s="11">
+        <f t="shared" si="16"/>
+        <v>132411.89839572192</v>
+      </c>
+      <c r="AI32" s="1">
+        <f>0.17</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ32" s="7">
+        <f t="shared" si="40"/>
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL32" s="10">
+        <f t="shared" si="41"/>
+        <v>21802.500000000004</v>
+      </c>
+      <c r="AM32" s="13">
+        <f t="shared" si="42"/>
+        <v>218114.39839572192</v>
+      </c>
+      <c r="AN32" s="2">
+        <f t="shared" si="28"/>
+        <v>21811.439839572191</v>
+      </c>
+      <c r="AO32" s="2">
+        <f t="shared" si="28"/>
+        <v>21176.155184050673</v>
+      </c>
+      <c r="AP32" s="2">
+        <f t="shared" si="28"/>
+        <v>20559.373965097737</v>
+      </c>
+      <c r="AQ32" s="2">
+        <f t="shared" si="28"/>
+        <v>19960.557247667708</v>
+      </c>
+      <c r="AR32" s="2">
+        <f t="shared" si="28"/>
+        <v>19379.181793852145</v>
+      </c>
+      <c r="AS32" s="2">
+        <f t="shared" si="28"/>
+        <v>18814.739605681694</v>
+      </c>
+      <c r="AT32" s="2">
+        <f t="shared" si="28"/>
+        <v>18266.737481244363</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" si="28"/>
+        <v>17734.696583732391</v>
+      </c>
+      <c r="AV32" s="2">
+        <f t="shared" si="28"/>
+        <v>17218.152023041155</v>
+      </c>
+      <c r="AW32" s="2">
+        <f t="shared" si="28"/>
+        <v>16716.65244955452</v>
+      </c>
+      <c r="AX32" s="15">
+        <f t="shared" si="29"/>
+        <v>191637.68617349459</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="43"/>
+        <v>50.422344752841809</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="30"/>
+        <v>92.180432392759045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>137000</v>
+      </c>
+      <c r="C33">
+        <v>13059</v>
+      </c>
+      <c r="D33">
+        <v>4411</v>
+      </c>
+      <c r="E33">
+        <v>2356</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="31"/>
+        <v>117800</v>
+      </c>
+      <c r="H33">
+        <v>852</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="32"/>
+        <v>3758172</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="34"/>
+        <v>7787585.1176470593</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="35"/>
+        <v>749.87</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="36"/>
+        <v>1282277.7</v>
+      </c>
+      <c r="P33" s="13">
+        <f t="shared" si="37"/>
+        <v>12828034.817647059</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="25"/>
+        <v>1282803.4817647059</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="25"/>
+        <v>1245440.2735579668</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="25"/>
+        <v>1209165.3141339484</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="25"/>
+        <v>1173946.9069261635</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="25"/>
+        <v>1139754.2785690909</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="25"/>
+        <v>1106557.5520088261</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="25"/>
+        <v>1074327.7203969185</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="25"/>
+        <v>1043036.621744581</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="25"/>
+        <v>1012656.9143151273</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="25"/>
+        <v>983162.05273313331</v>
+      </c>
+      <c r="AA33" s="15">
+        <f t="shared" si="12"/>
+        <v>11270851.116150461</v>
+      </c>
+      <c r="AB33">
+        <v>90</v>
+      </c>
+      <c r="AC33">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="38"/>
+        <v>4500</v>
+      </c>
+      <c r="AE33">
+        <v>852</v>
+      </c>
+      <c r="AF33" s="10">
+        <f t="shared" si="26"/>
+        <v>76680</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH33" s="11">
+        <f t="shared" si="16"/>
+        <v>158894.27807486631</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ33" s="7">
+        <f t="shared" si="40"/>
+        <v>15.3</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL33" s="10">
+        <f t="shared" si="41"/>
+        <v>26163</v>
+      </c>
+      <c r="AM33" s="13">
+        <f t="shared" si="42"/>
+        <v>261737.27807486631</v>
+      </c>
+      <c r="AN33" s="2">
+        <f t="shared" si="28"/>
+        <v>26173.72780748663</v>
+      </c>
+      <c r="AO33" s="2">
+        <f t="shared" si="28"/>
+        <v>25411.386220860804</v>
+      </c>
+      <c r="AP33" s="2">
+        <f t="shared" si="28"/>
+        <v>24671.248758117286</v>
+      </c>
+      <c r="AQ33" s="2">
+        <f t="shared" si="28"/>
+        <v>23952.66869720125</v>
+      </c>
+      <c r="AR33" s="2">
+        <f t="shared" si="28"/>
+        <v>23255.018152622575</v>
+      </c>
+      <c r="AS33" s="2">
+        <f t="shared" si="28"/>
+        <v>22577.687526818034</v>
+      </c>
+      <c r="AT33" s="2">
+        <f t="shared" si="28"/>
+        <v>21920.084977493236</v>
+      </c>
+      <c r="AU33" s="2">
+        <f t="shared" si="28"/>
+        <v>21281.635900478868</v>
+      </c>
+      <c r="AV33" s="2">
+        <f t="shared" si="28"/>
+        <v>20661.782427649388</v>
+      </c>
+      <c r="AW33" s="2">
+        <f t="shared" si="28"/>
+        <v>20059.982939465426</v>
+      </c>
+      <c r="AX33" s="15">
+        <f t="shared" si="29"/>
+        <v>229965.22340819353</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="43"/>
+        <v>32.409368037703892</v>
+      </c>
+      <c r="AZ33">
+        <f t="shared" si="30"/>
+        <v>95.677853278017494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>151690</v>
+      </c>
+      <c r="C34">
+        <v>14921</v>
+      </c>
+      <c r="D34">
+        <v>5688</v>
+      </c>
+      <c r="E34">
+        <v>3071</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="31"/>
+        <v>153550</v>
+      </c>
+      <c r="H34">
+        <v>852</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="32"/>
+        <v>4846176</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="34"/>
+        <v>10042118.374331551</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="35"/>
+        <v>966.96</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="36"/>
+        <v>1653501.6</v>
+      </c>
+      <c r="P34" s="13">
+        <f t="shared" si="37"/>
+        <v>16541795.97433155</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" ref="Q34:Z43" si="44">($P34/10)*(1/(1+discount_rate)^Q$1)</f>
+        <v>1654179.5974331549</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="44"/>
+        <v>1605999.6091584028</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="44"/>
+        <v>1559222.9215130124</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="44"/>
+        <v>1513808.661663119</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="44"/>
+        <v>1469717.1472457466</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="44"/>
+        <v>1426909.8516948998</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="44"/>
+        <v>1385349.3705775726</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="44"/>
+        <v>1344999.3889102645</v>
+      </c>
+      <c r="Y34" s="2">
+        <f t="shared" si="44"/>
+        <v>1305824.6494274412</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="44"/>
+        <v>1267790.9217742148</v>
+      </c>
+      <c r="AA34" s="15">
+        <f t="shared" si="12"/>
+        <v>14533802.119397828</v>
+      </c>
+      <c r="AB34">
+        <v>70</v>
+      </c>
+      <c r="AC34">
+        <v>50</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="38"/>
+        <v>3500</v>
+      </c>
+      <c r="AE34">
+        <v>852</v>
+      </c>
+      <c r="AF34" s="10">
+        <f t="shared" si="26"/>
+        <v>59640</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH34" s="11">
+        <f t="shared" si="16"/>
+        <v>123584.4385026738</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ34" s="7">
+        <f t="shared" si="40"/>
+        <v>11.9</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL34" s="10">
+        <f t="shared" si="41"/>
+        <v>20349</v>
+      </c>
+      <c r="AM34" s="13">
+        <f t="shared" si="42"/>
+        <v>203573.43850267382</v>
+      </c>
+      <c r="AN34" s="2">
+        <f t="shared" ref="AN34:AW43" si="45">($AM34/10)*(1/(1+discount_rate)^AN$1)</f>
+        <v>20357.343850267382</v>
+      </c>
+      <c r="AO34" s="2">
+        <f t="shared" si="45"/>
+        <v>19764.411505113963</v>
+      </c>
+      <c r="AP34" s="2">
+        <f t="shared" si="45"/>
+        <v>19188.749034091226</v>
+      </c>
+      <c r="AQ34" s="2">
+        <f t="shared" si="45"/>
+        <v>18629.853431156531</v>
+      </c>
+      <c r="AR34" s="2">
+        <f t="shared" si="45"/>
+        <v>18087.236340928674</v>
+      </c>
+      <c r="AS34" s="2">
+        <f t="shared" si="45"/>
+        <v>17560.423631969585</v>
+      </c>
+      <c r="AT34" s="2">
+        <f t="shared" si="45"/>
+        <v>17048.954982494743</v>
+      </c>
+      <c r="AU34" s="2">
+        <f t="shared" si="45"/>
+        <v>16552.383478150234</v>
+      </c>
+      <c r="AV34" s="2">
+        <f t="shared" si="45"/>
+        <v>16070.275221505082</v>
+      </c>
+      <c r="AW34" s="2">
+        <f t="shared" si="45"/>
+        <v>15602.208952917556</v>
+      </c>
+      <c r="AX34" s="15">
+        <f t="shared" si="29"/>
+        <v>178861.84042859497</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="43"/>
+        <v>43.7222756585887</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="30"/>
+        <v>94.65191871962115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>55620</v>
+      </c>
+      <c r="C35">
+        <v>5238</v>
+      </c>
+      <c r="D35">
+        <v>1678</v>
+      </c>
+      <c r="E35">
+        <v>893</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="31"/>
+        <v>44650</v>
+      </c>
+      <c r="H35">
+        <v>852</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="32"/>
+        <v>1429656</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="34"/>
+        <v>2962495.5401069517</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="35"/>
+        <v>285.26000000000005</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="36"/>
+        <v>487794.60000000009</v>
+      </c>
+      <c r="P35" s="13">
+        <f t="shared" si="37"/>
+        <v>4879946.1401069518</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="44"/>
+        <v>487994.61401069519</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="44"/>
+        <v>473781.17865116039</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="44"/>
+        <v>459981.72684578679</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="44"/>
+        <v>446584.20082115225</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="44"/>
+        <v>433576.89400111872</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="44"/>
+        <v>420948.44077778514</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="44"/>
+        <v>408687.8065803739</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="44"/>
+        <v>396784.27823337272</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" si="44"/>
+        <v>385227.45459550753</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="44"/>
+        <v>374007.23747136653</v>
+      </c>
+      <c r="AA35" s="15">
+        <f t="shared" si="12"/>
+        <v>4287573.8319883188</v>
+      </c>
+      <c r="AB35">
+        <v>72</v>
+      </c>
+      <c r="AC35">
+        <v>50</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="38"/>
+        <v>3600</v>
+      </c>
+      <c r="AE35">
+        <v>852</v>
+      </c>
+      <c r="AF35" s="10">
+        <f t="shared" si="26"/>
+        <v>61344</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH35" s="11">
+        <f t="shared" si="16"/>
+        <v>127115.42245989305</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ35" s="7">
+        <f t="shared" si="40"/>
+        <v>12.24</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL35" s="10">
+        <f t="shared" si="41"/>
+        <v>20930.400000000001</v>
+      </c>
+      <c r="AM35" s="13">
+        <f t="shared" si="42"/>
+        <v>209389.82245989304</v>
+      </c>
+      <c r="AN35" s="2">
+        <f t="shared" si="45"/>
+        <v>20938.982245989304</v>
+      </c>
+      <c r="AO35" s="2">
+        <f t="shared" si="45"/>
+        <v>20329.108976688643</v>
+      </c>
+      <c r="AP35" s="2">
+        <f t="shared" si="45"/>
+        <v>19736.999006493828</v>
+      </c>
+      <c r="AQ35" s="2">
+        <f t="shared" si="45"/>
+        <v>19162.134957761002</v>
+      </c>
+      <c r="AR35" s="2">
+        <f t="shared" si="45"/>
+        <v>18604.014522098059</v>
+      </c>
+      <c r="AS35" s="2">
+        <f t="shared" si="45"/>
+        <v>18062.150021454428</v>
+      </c>
+      <c r="AT35" s="2">
+        <f t="shared" si="45"/>
+        <v>17536.067981994591</v>
+      </c>
+      <c r="AU35" s="2">
+        <f t="shared" si="45"/>
+        <v>17025.308720383095</v>
+      </c>
+      <c r="AV35" s="2">
+        <f t="shared" si="45"/>
+        <v>16529.425942119509</v>
+      </c>
+      <c r="AW35" s="2">
+        <f t="shared" si="45"/>
+        <v>16047.986351572341</v>
+      </c>
+      <c r="AX35" s="15">
+        <f t="shared" si="29"/>
+        <v>183972.17872655479</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="43"/>
+        <v>18.753971534478737</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" si="30"/>
+        <v>96.02628963019751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>297420</v>
+      </c>
+      <c r="C36">
+        <v>31607</v>
+      </c>
+      <c r="D36">
+        <v>15115</v>
+      </c>
+      <c r="E36">
+        <v>8371</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="31"/>
+        <v>418550</v>
+      </c>
+      <c r="H36">
+        <v>852</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="32"/>
+        <v>12877980</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="34"/>
+        <v>26685411.256684493</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="35"/>
+        <v>2569.5500000000002</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="36"/>
+        <v>4393930.5</v>
+      </c>
+      <c r="P36" s="13">
+        <f t="shared" si="37"/>
+        <v>43957321.756684497</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="44"/>
+        <v>4395732.1756684501</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="44"/>
+        <v>4267701.1414256794</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="44"/>
+        <v>4143399.1664326987</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="44"/>
+        <v>4022717.6373132998</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="44"/>
+        <v>3905551.1041876702</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="44"/>
+        <v>3791797.1885317187</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="44"/>
+        <v>3681356.4937201152</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="44"/>
+        <v>3574132.5181748685</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="44"/>
+        <v>3470031.5710435621</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="44"/>
+        <v>3368962.6903335555</v>
+      </c>
+      <c r="AA36" s="15">
+        <f t="shared" si="12"/>
+        <v>38621381.686831616</v>
+      </c>
+      <c r="AB36">
+        <v>102</v>
+      </c>
+      <c r="AC36">
+        <v>50</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="38"/>
+        <v>5100</v>
+      </c>
+      <c r="AE36">
+        <v>852</v>
+      </c>
+      <c r="AF36" s="10">
+        <f t="shared" si="26"/>
+        <v>86904</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH36" s="11">
+        <f t="shared" si="16"/>
+        <v>180080.18181818182</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ36" s="7">
+        <f t="shared" si="40"/>
+        <v>17.34</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL36" s="10">
+        <f t="shared" si="41"/>
+        <v>29651.4</v>
+      </c>
+      <c r="AM36" s="13">
+        <f t="shared" si="42"/>
+        <v>296635.58181818185</v>
+      </c>
+      <c r="AN36" s="2">
+        <f t="shared" si="45"/>
+        <v>29663.558181818185</v>
+      </c>
+      <c r="AO36" s="2">
+        <f t="shared" si="45"/>
+        <v>28799.571050308918</v>
+      </c>
+      <c r="AP36" s="2">
+        <f t="shared" si="45"/>
+        <v>27960.748592532931</v>
+      </c>
+      <c r="AQ36" s="2">
+        <f t="shared" si="45"/>
+        <v>27146.35785682809</v>
+      </c>
+      <c r="AR36" s="2">
+        <f t="shared" si="45"/>
+        <v>26355.687239638923</v>
+      </c>
+      <c r="AS36" s="2">
+        <f t="shared" si="45"/>
+        <v>25588.045863727111</v>
+      </c>
+      <c r="AT36" s="2">
+        <f t="shared" si="45"/>
+        <v>24842.76297449234</v>
+      </c>
+      <c r="AU36" s="2">
+        <f t="shared" si="45"/>
+        <v>24119.187353876056</v>
+      </c>
+      <c r="AV36" s="2">
+        <f t="shared" si="45"/>
+        <v>23416.686751335976</v>
+      </c>
+      <c r="AW36" s="2">
+        <f t="shared" si="45"/>
+        <v>22734.647331394153</v>
+      </c>
+      <c r="AX36" s="15">
+        <f t="shared" si="29"/>
+        <v>260627.25319595268</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="43"/>
+        <v>56.864951682486307</v>
+      </c>
+      <c r="AZ36">
+        <f t="shared" si="30"/>
+        <v>92.274236499418507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>43650</v>
+      </c>
+      <c r="C37">
+        <v>4769</v>
+      </c>
+      <c r="D37">
+        <v>2431</v>
+      </c>
+      <c r="E37">
+        <v>1359</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="31"/>
+        <v>67950</v>
+      </c>
+      <c r="H37">
+        <v>852</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="32"/>
+        <v>2071212</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="34"/>
+        <v>4291911</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="35"/>
+        <v>413.27000000000004</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="36"/>
+        <v>706691.70000000007</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="37"/>
+        <v>7069814.7000000002</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="44"/>
+        <v>706981.47</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="44"/>
+        <v>686389.77669902914</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="44"/>
+        <v>666397.84145536809</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="44"/>
+        <v>646988.19558773597</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="44"/>
+        <v>628143.87921139423</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="44"/>
+        <v>609848.42641882936</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="44"/>
+        <v>592085.8508920673</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" si="44"/>
+        <v>574840.63193404593</v>
+      </c>
+      <c r="Y37" s="2">
+        <f t="shared" si="44"/>
+        <v>558097.70090684074</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="44"/>
+        <v>541842.42806489393</v>
+      </c>
+      <c r="AA37" s="15">
+        <f t="shared" si="12"/>
+        <v>6211616.2011702042</v>
+      </c>
+      <c r="AB37">
+        <v>47</v>
+      </c>
+      <c r="AC37">
+        <v>50</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="38"/>
+        <v>2350</v>
+      </c>
+      <c r="AE37">
+        <v>852</v>
+      </c>
+      <c r="AF37" s="10">
+        <f t="shared" si="26"/>
+        <v>40044</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH37" s="11">
+        <f t="shared" si="16"/>
+        <v>82978.122994652411</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ37" s="7">
+        <f t="shared" si="40"/>
+        <v>7.99</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL37" s="10">
+        <f t="shared" si="41"/>
+        <v>13662.9</v>
+      </c>
+      <c r="AM37" s="13">
+        <f t="shared" si="42"/>
+        <v>136685.02299465242</v>
+      </c>
+      <c r="AN37" s="2">
+        <f t="shared" si="45"/>
+        <v>13668.502299465243</v>
+      </c>
+      <c r="AO37" s="2">
+        <f t="shared" si="45"/>
+        <v>13270.39058200509</v>
+      </c>
+      <c r="AP37" s="2">
+        <f t="shared" si="45"/>
+        <v>12883.874351461252</v>
+      </c>
+      <c r="AQ37" s="2">
+        <f t="shared" si="45"/>
+        <v>12508.6158752051</v>
+      </c>
+      <c r="AR37" s="2">
+        <f t="shared" si="45"/>
+        <v>12144.287257480681</v>
+      </c>
+      <c r="AS37" s="2">
+        <f t="shared" si="45"/>
+        <v>11790.570152893864</v>
+      </c>
+      <c r="AT37" s="2">
+        <f t="shared" si="45"/>
+        <v>11447.15548824647</v>
+      </c>
+      <c r="AU37" s="2">
+        <f t="shared" si="45"/>
+        <v>11113.743192472301</v>
+      </c>
+      <c r="AV37" s="2">
+        <f t="shared" si="45"/>
+        <v>10790.041934439127</v>
+      </c>
+      <c r="AW37" s="2">
+        <f t="shared" si="45"/>
+        <v>10475.768868387502</v>
+      </c>
+      <c r="AX37" s="15">
+        <f t="shared" si="29"/>
+        <v>120092.95000205663</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="43"/>
+        <v>33.032965081127834</v>
+      </c>
+      <c r="AZ37">
+        <f t="shared" si="30"/>
+        <v>91.414513630172252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>109750</v>
+      </c>
+      <c r="C38">
+        <v>11473</v>
+      </c>
+      <c r="D38">
+        <v>5262</v>
+      </c>
+      <c r="E38">
+        <v>2899</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="31"/>
+        <v>144950</v>
+      </c>
+      <c r="H38">
+        <v>853</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="32"/>
+        <v>4488486</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="34"/>
+        <v>9290018.7914438508</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="35"/>
+        <v>894.54000000000008</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="36"/>
+        <v>1529663.4000000001</v>
+      </c>
+      <c r="P38" s="13">
+        <f t="shared" si="37"/>
+        <v>15308168.191443851</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="44"/>
+        <v>1530816.8191443852</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="44"/>
+        <v>1486229.9214994032</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="44"/>
+        <v>1442941.6713586438</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="44"/>
+        <v>1400914.2440375183</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="44"/>
+        <v>1360110.91654128</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="44"/>
+        <v>1320496.035476971</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="44"/>
+        <v>1282034.9858999718</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="44"/>
+        <v>1244694.1610679335</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" si="44"/>
+        <v>1208440.9330756636</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="44"/>
+        <v>1173243.6243453047</v>
+      </c>
+      <c r="AA38" s="15">
+        <f t="shared" si="12"/>
+        <v>13449923.312447073</v>
+      </c>
+      <c r="AB38">
+        <v>68</v>
+      </c>
+      <c r="AC38">
+        <v>50</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="38"/>
+        <v>3400</v>
+      </c>
+      <c r="AE38">
+        <v>852</v>
+      </c>
+      <c r="AF38" s="10">
+        <f t="shared" si="26"/>
+        <v>57936</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH38" s="11">
+        <f t="shared" si="16"/>
+        <v>120053.45454545454</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ38" s="7">
+        <f t="shared" si="40"/>
+        <v>11.56</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL38" s="10">
+        <f t="shared" si="41"/>
+        <v>19767.600000000002</v>
+      </c>
+      <c r="AM38" s="13">
+        <f t="shared" si="42"/>
+        <v>197757.05454545454</v>
+      </c>
+      <c r="AN38" s="2">
+        <f t="shared" si="45"/>
+        <v>19775.705454545452</v>
+      </c>
+      <c r="AO38" s="2">
+        <f t="shared" si="45"/>
+        <v>19199.714033539272</v>
+      </c>
+      <c r="AP38" s="2">
+        <f t="shared" si="45"/>
+        <v>18640.499061688613</v>
+      </c>
+      <c r="AQ38" s="2">
+        <f t="shared" si="45"/>
+        <v>18097.571904552053</v>
+      </c>
+      <c r="AR38" s="2">
+        <f t="shared" si="45"/>
+        <v>17570.458159759277</v>
+      </c>
+      <c r="AS38" s="2">
+        <f t="shared" si="45"/>
+        <v>17058.697242484737</v>
+      </c>
+      <c r="AT38" s="2">
+        <f t="shared" si="45"/>
+        <v>16561.841982994887</v>
+      </c>
+      <c r="AU38" s="2">
+        <f t="shared" si="45"/>
+        <v>16079.458235917367</v>
+      </c>
+      <c r="AV38" s="2">
+        <f t="shared" si="45"/>
+        <v>15611.124500890648</v>
+      </c>
+      <c r="AW38" s="2">
+        <f t="shared" si="45"/>
+        <v>15156.431554262765</v>
+      </c>
+      <c r="AX38" s="15">
+        <f t="shared" si="29"/>
+        <v>173751.50213063505</v>
+      </c>
+      <c r="AY38">
+        <f t="shared" si="43"/>
+        <v>42.202258924195398</v>
+      </c>
+      <c r="AZ38">
+        <f t="shared" si="30"/>
+        <v>92.790088392184018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>359310</v>
+      </c>
+      <c r="C39">
+        <v>39402</v>
+      </c>
+      <c r="D39">
+        <v>20248</v>
+      </c>
+      <c r="E39">
+        <v>11331</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="31"/>
+        <v>566550</v>
+      </c>
+      <c r="H39">
+        <v>854</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="32"/>
+        <v>17291792</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="34"/>
+        <v>35747681.582887702</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="35"/>
+        <v>3442.1600000000003</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="36"/>
+        <v>5886093.6000000006</v>
+      </c>
+      <c r="P39" s="13">
+        <f t="shared" si="37"/>
+        <v>58925567.182887703</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="44"/>
+        <v>5892556.7182887699</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="44"/>
+        <v>5720928.8527075434</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="44"/>
+        <v>5554299.8569976147</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="44"/>
+        <v>5392524.1330073932</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="44"/>
+        <v>5235460.3233081494</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="44"/>
+        <v>5082971.1876778156</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="44"/>
+        <v>4934923.4831823446</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="44"/>
+        <v>4791187.8477498489</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="44"/>
+        <v>4651638.6871357756</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="44"/>
+        <v>4516154.065180365</v>
+      </c>
+      <c r="AA39" s="15">
+        <f t="shared" si="12"/>
+        <v>51772645.155235618</v>
+      </c>
+      <c r="AB39">
+        <v>95</v>
+      </c>
+      <c r="AC39">
+        <v>50</v>
+      </c>
+      <c r="AD39" s="8">
+        <f t="shared" si="38"/>
+        <v>4750</v>
+      </c>
+      <c r="AE39">
+        <v>852</v>
+      </c>
+      <c r="AF39" s="10">
+        <f t="shared" si="26"/>
+        <v>80940</v>
+      </c>
+      <c r="AG39" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH39" s="11">
+        <f t="shared" si="16"/>
+        <v>167721.73796791444</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ39" s="7">
+        <f t="shared" si="40"/>
+        <v>16.150000000000002</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL39" s="10">
+        <f t="shared" si="41"/>
+        <v>27616.500000000004</v>
+      </c>
+      <c r="AM39" s="13">
+        <f t="shared" si="42"/>
+        <v>276278.23796791444</v>
+      </c>
+      <c r="AN39" s="2">
+        <f t="shared" si="45"/>
+        <v>27627.823796791443</v>
+      </c>
+      <c r="AO39" s="2">
+        <f t="shared" si="45"/>
+        <v>26823.129899797517</v>
+      </c>
+      <c r="AP39" s="2">
+        <f t="shared" si="45"/>
+        <v>26041.873689123804</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f t="shared" si="45"/>
+        <v>25283.372513712431</v>
+      </c>
+      <c r="AR39" s="2">
+        <f t="shared" si="45"/>
+        <v>24546.963605546051</v>
+      </c>
+      <c r="AS39" s="2">
+        <f t="shared" si="45"/>
+        <v>23832.003500530147</v>
+      </c>
+      <c r="AT39" s="2">
+        <f t="shared" si="45"/>
+        <v>23137.86747624286</v>
+      </c>
+      <c r="AU39" s="2">
+        <f t="shared" si="45"/>
+        <v>22463.94900606103</v>
+      </c>
+      <c r="AV39" s="2">
+        <f t="shared" si="45"/>
+        <v>21809.659229185465</v>
+      </c>
+      <c r="AW39" s="2">
+        <f t="shared" si="45"/>
+        <v>21174.426436102396</v>
+      </c>
+      <c r="AX39" s="15">
+        <f t="shared" si="29"/>
+        <v>242741.06915309315</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="43"/>
+        <v>63.972836385572194</v>
+      </c>
+      <c r="AZ39">
+        <f t="shared" si="30"/>
+        <v>91.382305454479962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>41112</v>
+      </c>
+      <c r="C40">
+        <v>3932</v>
+      </c>
+      <c r="D40">
+        <v>1346</v>
+      </c>
+      <c r="E40">
+        <v>720</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="31"/>
+        <v>36000</v>
+      </c>
+      <c r="H40">
+        <v>855</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="32"/>
+        <v>1150830</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" si="34"/>
+        <v>2376352.2032085559</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="35"/>
+        <v>228.82000000000002</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="36"/>
+        <v>391282.2</v>
+      </c>
+      <c r="P40" s="13">
+        <f t="shared" si="37"/>
+        <v>3918464.4032085561</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="44"/>
+        <v>391846.44032085559</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="44"/>
+        <v>380433.43720471417</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="44"/>
+        <v>369352.85165506229</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="44"/>
+        <v>358595.00160685659</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="44"/>
+        <v>348150.4869969482</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="44"/>
+        <v>338010.18155043514</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="44"/>
+        <v>328165.22480624769</v>
+      </c>
+      <c r="X40" s="2">
+        <f t="shared" si="44"/>
+        <v>318607.01437499776</v>
+      </c>
+      <c r="Y40" s="2">
+        <f t="shared" si="44"/>
+        <v>309327.19842232793</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="44"/>
+        <v>300317.66837119218</v>
+      </c>
+      <c r="AA40" s="15">
+        <f t="shared" si="12"/>
+        <v>3442805.5053096381</v>
+      </c>
+      <c r="AB40">
+        <v>59</v>
+      </c>
+      <c r="AC40">
+        <v>50</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" si="38"/>
+        <v>2950</v>
+      </c>
+      <c r="AE40">
+        <v>852</v>
+      </c>
+      <c r="AF40" s="10">
+        <f t="shared" si="26"/>
+        <v>50268</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH40" s="11">
+        <f t="shared" si="16"/>
+        <v>104164.02673796791</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ40" s="7">
+        <f t="shared" si="40"/>
+        <v>10.030000000000001</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL40" s="10">
+        <f t="shared" si="41"/>
+        <v>17151.300000000003</v>
+      </c>
+      <c r="AM40" s="13">
+        <f t="shared" si="42"/>
+        <v>171583.3267379679</v>
+      </c>
+      <c r="AN40" s="2">
+        <f t="shared" si="45"/>
+        <v>17158.332673796791</v>
+      </c>
+      <c r="AO40" s="2">
+        <f t="shared" si="45"/>
+        <v>16658.575411453196</v>
+      </c>
+      <c r="AP40" s="2">
+        <f t="shared" si="45"/>
+        <v>16173.374185876888</v>
+      </c>
+      <c r="AQ40" s="2">
+        <f t="shared" si="45"/>
+        <v>15702.30503483193</v>
+      </c>
+      <c r="AR40" s="2">
+        <f t="shared" si="45"/>
+        <v>15244.956344497021</v>
+      </c>
+      <c r="AS40" s="2">
+        <f t="shared" si="45"/>
+        <v>14800.928489802935</v>
+      </c>
+      <c r="AT40" s="2">
+        <f t="shared" si="45"/>
+        <v>14369.833485245566</v>
+      </c>
+      <c r="AU40" s="2">
+        <f t="shared" si="45"/>
+        <v>13951.294645869481</v>
+      </c>
+      <c r="AV40" s="2">
+        <f t="shared" si="45"/>
+        <v>13544.94625812571</v>
+      </c>
+      <c r="AW40" s="2">
+        <f t="shared" si="45"/>
+        <v>13150.433260316224</v>
+      </c>
+      <c r="AX40" s="15">
+        <f t="shared" si="29"/>
+        <v>150754.97978981576</v>
+      </c>
+      <c r="AY40">
+        <f t="shared" si="43"/>
+        <v>18.434879268999193</v>
+      </c>
+      <c r="AZ40">
+        <f t="shared" si="30"/>
+        <v>95.633486258601053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>525550</v>
+      </c>
+      <c r="C41">
+        <v>58350</v>
+      </c>
+      <c r="D41">
+        <v>30774</v>
+      </c>
+      <c r="E41">
+        <v>17291</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="31"/>
+        <v>864550</v>
+      </c>
+      <c r="H41">
+        <v>856</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="32"/>
+        <v>26342544</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="34"/>
+        <v>54331250.14973262</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="35"/>
+        <v>5231.58</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="36"/>
+        <v>8946001.8000000007</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="37"/>
+        <v>89619795.949732617</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="44"/>
+        <v>8961979.5949732624</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="44"/>
+        <v>8700951.063080838</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="44"/>
+        <v>8447525.3039619774</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="44"/>
+        <v>8201480.8776329886</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="44"/>
+        <v>7962602.7938184356</v>
+      </c>
+      <c r="V41" s="2">
+        <f t="shared" si="44"/>
+        <v>7730682.3240955696</v>
+      </c>
+      <c r="W41" s="2">
+        <f t="shared" si="44"/>
+        <v>7505516.8195102615</v>
+      </c>
+      <c r="X41" s="2">
+        <f t="shared" si="44"/>
+        <v>7286909.5335051073</v>
+      </c>
+      <c r="Y41" s="2">
+        <f t="shared" si="44"/>
+        <v>7074669.4500049585</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="44"/>
+        <v>6868611.1165096695</v>
+      </c>
+      <c r="AA41" s="15">
+        <f t="shared" si="12"/>
+        <v>78740928.877093077</v>
+      </c>
+      <c r="AB41">
+        <v>70</v>
+      </c>
+      <c r="AC41">
+        <v>50</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="38"/>
+        <v>3500</v>
+      </c>
+      <c r="AE41">
+        <v>852</v>
+      </c>
+      <c r="AF41" s="10">
+        <f t="shared" si="26"/>
+        <v>59640</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH41" s="11">
+        <f t="shared" si="16"/>
+        <v>123584.4385026738</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ41" s="7">
+        <f t="shared" si="40"/>
+        <v>11.9</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL41" s="10">
+        <f t="shared" si="41"/>
+        <v>20349</v>
+      </c>
+      <c r="AM41" s="13">
+        <f t="shared" si="42"/>
+        <v>203573.43850267382</v>
+      </c>
+      <c r="AN41" s="2">
+        <f t="shared" si="45"/>
+        <v>20357.343850267382</v>
+      </c>
+      <c r="AO41" s="2">
+        <f t="shared" si="45"/>
+        <v>19764.411505113963</v>
+      </c>
+      <c r="AP41" s="2">
+        <f t="shared" si="45"/>
+        <v>19188.749034091226</v>
+      </c>
+      <c r="AQ41" s="2">
+        <f t="shared" si="45"/>
+        <v>18629.853431156531</v>
+      </c>
+      <c r="AR41" s="2">
+        <f t="shared" si="45"/>
+        <v>18087.236340928674</v>
+      </c>
+      <c r="AS41" s="2">
+        <f t="shared" si="45"/>
+        <v>17560.423631969585</v>
+      </c>
+      <c r="AT41" s="2">
+        <f t="shared" si="45"/>
+        <v>17048.954982494743</v>
+      </c>
+      <c r="AU41" s="2">
+        <f t="shared" si="45"/>
+        <v>16552.383478150234</v>
+      </c>
+      <c r="AV41" s="2">
+        <f t="shared" si="45"/>
+        <v>16070.275221505082</v>
+      </c>
+      <c r="AW41" s="2">
+        <f t="shared" si="45"/>
+        <v>15602.208952917556</v>
+      </c>
+      <c r="AX41" s="15">
+        <f t="shared" si="29"/>
+        <v>178861.84042859497</v>
+      </c>
+      <c r="AY41">
+        <f t="shared" si="43"/>
+        <v>75.464860399465294</v>
+      </c>
+      <c r="AZ41">
+        <f t="shared" si="30"/>
+        <v>91.077356864372305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>32151</v>
+      </c>
+      <c r="C42">
+        <v>3197</v>
+      </c>
+      <c r="D42">
+        <v>1265</v>
+      </c>
+      <c r="E42">
+        <v>685</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="31"/>
+        <v>34250</v>
+      </c>
+      <c r="H42">
+        <v>857</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="32"/>
+        <v>1084105</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="34"/>
+        <v>2233347.3529411764</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="35"/>
+        <v>215.05</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="36"/>
+        <v>367735.5</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="37"/>
+        <v>3685187.8529411764</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="44"/>
+        <v>368518.78529411764</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="44"/>
+        <v>357785.2284408909</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="44"/>
+        <v>347364.29945717566</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="44"/>
+        <v>337246.89267686958</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="44"/>
+        <v>327424.16764744621</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="44"/>
+        <v>317887.54140528757</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="44"/>
+        <v>308628.68097600737</v>
+      </c>
+      <c r="X42" s="2">
+        <f t="shared" si="44"/>
+        <v>299639.496093211</v>
+      </c>
+      <c r="Y42" s="2">
+        <f t="shared" si="44"/>
+        <v>290912.13212933106</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="44"/>
+        <v>282438.96323236031</v>
+      </c>
+      <c r="AA42" s="15">
+        <f t="shared" si="12"/>
+        <v>3237846.1873526969</v>
+      </c>
+      <c r="AB42">
+        <v>50</v>
+      </c>
+      <c r="AC42">
+        <v>50</v>
+      </c>
+      <c r="AD42" s="8">
+        <f t="shared" si="38"/>
+        <v>2500</v>
+      </c>
+      <c r="AE42">
+        <v>852</v>
+      </c>
+      <c r="AF42" s="10">
+        <f t="shared" si="26"/>
+        <v>42600</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH42" s="11">
+        <f t="shared" si="16"/>
+        <v>88274.598930481283</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ42" s="7">
+        <f t="shared" si="40"/>
+        <v>8.5</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL42" s="10">
+        <f t="shared" si="41"/>
+        <v>14535</v>
+      </c>
+      <c r="AM42" s="13">
+        <f t="shared" si="42"/>
+        <v>145409.5989304813</v>
+      </c>
+      <c r="AN42" s="2">
+        <f t="shared" si="45"/>
+        <v>14540.95989304813</v>
+      </c>
+      <c r="AO42" s="2">
+        <f t="shared" si="45"/>
+        <v>14117.436789367117</v>
+      </c>
+      <c r="AP42" s="2">
+        <f t="shared" si="45"/>
+        <v>13706.249310065161</v>
+      </c>
+      <c r="AQ42" s="2">
+        <f t="shared" si="45"/>
+        <v>13307.038165111808</v>
+      </c>
+      <c r="AR42" s="2">
+        <f t="shared" si="45"/>
+        <v>12919.454529234765</v>
+      </c>
+      <c r="AS42" s="2">
+        <f t="shared" si="45"/>
+        <v>12543.159737121132</v>
+      </c>
+      <c r="AT42" s="2">
+        <f t="shared" si="45"/>
+        <v>12177.824987496244</v>
+      </c>
+      <c r="AU42" s="2">
+        <f t="shared" si="45"/>
+        <v>11823.131055821596</v>
+      </c>
+      <c r="AV42" s="2">
+        <f t="shared" si="45"/>
+        <v>11478.768015360773</v>
+      </c>
+      <c r="AW42" s="2">
+        <f t="shared" si="45"/>
+        <v>11144.434966369683</v>
+      </c>
+      <c r="AX42" s="15">
+        <f t="shared" si="29"/>
+        <v>127758.4574489964</v>
+      </c>
+      <c r="AY42">
+        <f t="shared" si="43"/>
+        <v>19.985661479259733</v>
+      </c>
+      <c r="AZ42">
+        <f t="shared" si="30"/>
+        <v>94.535655105188226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>60120</v>
+      </c>
+      <c r="C43">
+        <v>6075</v>
+      </c>
+      <c r="D43">
+        <v>2530</v>
+      </c>
+      <c r="E43">
+        <v>1378</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43" s="8">
+        <f>F43*E43</f>
+        <v>68900</v>
+      </c>
+      <c r="H43">
+        <v>858</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="32"/>
+        <v>2170740</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="33"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="34"/>
+        <v>4466694.7058823528</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="24"/>
+        <v>0.17</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="35"/>
+        <v>430.1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1710</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="36"/>
+        <v>735471</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="37"/>
+        <v>7372905.7058823528</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="44"/>
+        <v>737290.57058823528</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="44"/>
+        <v>715816.08794974303</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="44"/>
+        <v>694967.07567936217</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="44"/>
+        <v>674725.31619355548</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="44"/>
+        <v>655073.12251801509</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="44"/>
+        <v>635993.32283302431</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="44"/>
+        <v>617469.24546895572</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" si="44"/>
+        <v>599484.7043387919</v>
+      </c>
+      <c r="Y43" s="2">
+        <f t="shared" si="44"/>
+        <v>582023.98479494359</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="44"/>
+        <v>565071.82989800349</v>
+      </c>
+      <c r="AA43" s="15">
+        <f t="shared" si="12"/>
+        <v>6477915.2602626299</v>
+      </c>
+      <c r="AB43">
+        <v>58</v>
+      </c>
+      <c r="AC43">
+        <v>50</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="38"/>
+        <v>2900</v>
+      </c>
+      <c r="AE43">
+        <v>852</v>
+      </c>
+      <c r="AF43" s="10">
+        <f t="shared" si="26"/>
+        <v>49416</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="39"/>
+        <v>1765.4919786096257</v>
+      </c>
+      <c r="AH43" s="11">
+        <f t="shared" si="16"/>
+        <v>102398.53475935828</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="27"/>
+        <v>0.17</v>
+      </c>
+      <c r="AJ43" s="7">
+        <f t="shared" si="40"/>
+        <v>9.8600000000000012</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>1710</v>
+      </c>
+      <c r="AL43" s="10">
+        <f t="shared" si="41"/>
+        <v>16860.600000000002</v>
+      </c>
+      <c r="AM43" s="13">
+        <f t="shared" si="42"/>
+        <v>168675.13475935828</v>
+      </c>
+      <c r="AN43" s="2">
+        <f t="shared" si="45"/>
+        <v>16867.513475935826</v>
+      </c>
+      <c r="AO43" s="2">
+        <f t="shared" si="45"/>
+        <v>16376.22667566585</v>
+      </c>
+      <c r="AP43" s="2">
+        <f t="shared" si="45"/>
+        <v>15899.249199675583</v>
+      </c>
+      <c r="AQ43" s="2">
+        <f t="shared" si="45"/>
+        <v>15436.164271529693</v>
+      </c>
+      <c r="AR43" s="2">
+        <f t="shared" si="45"/>
+        <v>14986.567253912324</v>
+      </c>
+      <c r="AS43" s="2">
+        <f t="shared" si="45"/>
+        <v>14550.065295060509</v>
+      </c>
+      <c r="AT43" s="2">
+        <f t="shared" si="45"/>
+        <v>14126.27698549564</v>
+      </c>
+      <c r="AU43" s="2">
+        <f t="shared" si="45"/>
+        <v>13714.832024753048</v>
+      </c>
+      <c r="AV43" s="2">
+        <f t="shared" si="45"/>
+        <v>13315.370897818493</v>
+      </c>
+      <c r="AW43" s="2">
+        <f t="shared" si="45"/>
+        <v>12927.544560988828</v>
+      </c>
+      <c r="AX43" s="15">
+        <f t="shared" si="29"/>
+        <v>148199.81064083581</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="43"/>
+        <v>29.838419670386177</v>
+      </c>
+      <c r="AZ43">
+        <f t="shared" si="30"/>
+        <v>94.019089408746439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -5721,8 +14063,20 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -5738,8 +14092,22 @@
       <c r="E2">
         <v>17920</v>
       </c>
+      <c r="F2">
+        <f>C2-E2</f>
+        <v>34090</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>82</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I21" si="0">E2/C2</f>
+        <v>0.34454912516823688</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -5755,8 +14123,22 @@
       <c r="E3">
         <v>4585</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="1">C3-E3</f>
+        <v>16094</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.22172252043135549</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -5772,8 +14154,22 @@
       <c r="E4">
         <v>13687</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>37670</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.26650700001947153</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5789,8 +14185,22 @@
       <c r="E5">
         <v>10461</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>22164</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.32064367816091954</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -5806,8 +14216,22 @@
       <c r="E6">
         <v>18880</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>36664</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.33991070142589658</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5823,8 +14247,22 @@
       <c r="E7">
         <v>3751</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>11851</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.24041789514164852</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -5840,8 +14278,22 @@
       <c r="E8">
         <v>4388</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>10810</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.28872220028951179</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -5857,8 +14309,22 @@
       <c r="E9">
         <v>2886</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>7672</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.27334722485319191</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5874,8 +14340,22 @@
       <c r="E10">
         <v>4628</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>12700</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.26708217913204063</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -5891,8 +14371,22 @@
       <c r="E11">
         <v>2356</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10703</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.18041197641473314</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -5908,8 +14402,22 @@
       <c r="E12">
         <v>3071</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>11850</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.20581730447020977</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5925,8 +14433,22 @@
       <c r="E13">
         <v>893</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4345</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.17048491790759832</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5942,8 +14464,22 @@
       <c r="E14">
         <v>8371</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>23236</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>102</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.26484639478596511</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5959,8 +14495,22 @@
       <c r="E15">
         <v>1359</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3410</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.28496540155168798</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5976,8 +14526,22 @@
       <c r="E16">
         <v>2899</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>8574</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>68</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.25268020570033994</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5993,8 +14557,22 @@
       <c r="E17">
         <v>11331</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>28071</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>95</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.28757423481041572</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6010,8 +14588,22 @@
       <c r="E18">
         <v>720</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>3212</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>59</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.18311291963377416</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -6027,8 +14619,22 @@
       <c r="E19">
         <v>17291</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>41059</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.29633247643530419</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -6044,8 +14650,22 @@
       <c r="E20">
         <v>685</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2512</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.21426337191116671</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -6060,6 +14680,55 @@
       </c>
       <c r="E21">
         <v>1378</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4697</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>58</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.22683127572016462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:E22" si="2">SUM(B2:B21)</f>
+        <v>4241739</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>462924</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>234567</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>131540</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F2:F21)</f>
+        <v>331384</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>106</v>
+      </c>
+      <c r="I22">
+        <f>E22/C22</f>
+        <v>0.28415031409043384</v>
       </c>
     </row>
   </sheetData>

--- a/cost_benefit_with_management.xlsx
+++ b/cost_benefit_with_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2865" windowWidth="20730" windowHeight="8250" activeTab="3"/>
+    <workbookView xWindow="4950" yWindow="2925" windowWidth="20730" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="discounting" sheetId="4" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="82">
   <si>
     <t>0.92-1.19</t>
   </si>
@@ -371,13 +371,31 @@
     <t>Mean outbreak</t>
   </si>
   <si>
-    <t>Mean outbreak size post vaccination</t>
+    <t>Vaccines</t>
   </si>
   <si>
-    <t>Total discounted costs post vaccination</t>
+    <t>Vac costs</t>
   </si>
   <si>
-    <t>Vaccines</t>
+    <t>Wage loss</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Hospitalised</t>
+  </si>
+  <si>
+    <t>Hospitalisation</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Outbreak</t>
+  </si>
+  <si>
+    <t>OB costs</t>
   </si>
 </sst>
 </file>
@@ -5780,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,7 +6100,7 @@
         <v>852</v>
       </c>
       <c r="AE2" s="10">
-        <f>AD2*AB2</f>
+        <f t="shared" ref="AE2:AE21" si="2">AD2*AB2</f>
         <v>69864</v>
       </c>
       <c r="AF2" s="7">
@@ -6090,15 +6108,15 @@
         <v>1765.4919786096257</v>
       </c>
       <c r="AG2" s="11">
-        <f>AF2*AB2</f>
+        <f t="shared" ref="AG2:AG21" si="3">AF2*AB2</f>
         <v>144770.3422459893</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH21" si="2">0.17</f>
+        <f t="shared" ref="AH2:AH21" si="4">0.17</f>
         <v>0.17</v>
       </c>
       <c r="AI2" s="7">
-        <f>AH2*AB2</f>
+        <f t="shared" ref="AI2:AI21" si="5">AH2*AB2</f>
         <v>13.940000000000001</v>
       </c>
       <c r="AJ2" s="2">
@@ -6113,55 +6131,55 @@
         <v>238471.7422459893</v>
       </c>
       <c r="AM2" s="2">
-        <f t="shared" ref="AM2:AV11" si="3">($AL2/10)*(1/(1+discount_rate)^AM$1)</f>
-        <v>23847.17422459893</v>
+        <f>($AL2)*(1/(1+discount_rate)^AM$1)</f>
+        <v>238471.7422459893</v>
       </c>
       <c r="AN2" s="2">
-        <f t="shared" si="3"/>
-        <v>23152.596334562069</v>
+        <f>($AL2)*(1/(1+discount_rate)^AN$1)</f>
+        <v>231525.96334562069</v>
       </c>
       <c r="AO2" s="2">
-        <f t="shared" si="3"/>
-        <v>22478.24886850686</v>
+        <f>($AL2)*(1/(1+discount_rate)^AO$1)</f>
+        <v>224782.48868506862</v>
       </c>
       <c r="AP2" s="2">
-        <f t="shared" si="3"/>
-        <v>21823.542590783363</v>
+        <f>($AL2)*(1/(1+discount_rate)^AP$1)</f>
+        <v>218235.42590783362</v>
       </c>
       <c r="AQ2" s="2">
-        <f t="shared" si="3"/>
-        <v>21187.905427945014</v>
+        <f>($AL2)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>211879.05427945012</v>
       </c>
       <c r="AR2" s="2">
-        <f t="shared" si="3"/>
-        <v>20570.781968878655</v>
+        <f>($AL2)*(1/(1+discount_rate)^AR$1)</f>
+        <v>205707.81968878655</v>
       </c>
       <c r="AS2" s="2">
-        <f t="shared" si="3"/>
-        <v>19971.632979493839</v>
+        <f>($AL2)*(1/(1+discount_rate)^AS$1)</f>
+        <v>199716.32979493839</v>
       </c>
       <c r="AT2" s="2">
-        <f t="shared" si="3"/>
-        <v>19389.934931547414</v>
+        <f>($AL2)*(1/(1+discount_rate)^AT$1)</f>
+        <v>193899.34931547416</v>
       </c>
       <c r="AU2" s="2">
-        <f t="shared" si="3"/>
-        <v>18825.179545191666</v>
+        <f>($AL2)*(1/(1+discount_rate)^AU$1)</f>
+        <v>188251.79545191664</v>
       </c>
       <c r="AV2" s="2">
-        <f t="shared" si="3"/>
-        <v>18276.873344846277</v>
+        <f>($AL2)*(1/(1+discount_rate)^AV$1)</f>
+        <v>182768.73344846276</v>
       </c>
       <c r="AW2" s="15">
         <f>SUM(AM2:AV2)</f>
-        <v>209523.87021635409</v>
+        <v>2095238.702163541</v>
       </c>
       <c r="AX2">
-        <f>AA2/(G2+AW2)</f>
-        <v>140.18871135445528</v>
+        <f t="shared" ref="AX2:AX21" si="6">AA2/(G2+AW2)</f>
+        <v>32.448345162986818</v>
       </c>
       <c r="AY2">
-        <f>AA2/G2</f>
+        <f t="shared" ref="AY2:AY21" si="7">AA2/G2</f>
         <v>222.14429551636601</v>
       </c>
     </row>
@@ -6185,22 +6203,22 @@
         <v>20</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G20" si="4">F3*E3</f>
+        <f t="shared" ref="G3:G20" si="8">F3*E3</f>
         <v>91700</v>
       </c>
       <c r="H3">
         <v>852</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I21" si="5">H3*D3</f>
+        <f t="shared" ref="I3:I21" si="9">H3*D3</f>
         <v>7188324</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J21" si="6">330147/187</f>
+        <f t="shared" ref="J3:J21" si="10">330147/187</f>
         <v>1765.4919786096257</v>
       </c>
       <c r="K3" s="11">
-        <f t="shared" ref="K3:K21" si="7">J3*D3</f>
+        <f t="shared" ref="K3:K21" si="11">J3*D3</f>
         <v>14895455.823529411</v>
       </c>
       <c r="L3" s="1">
@@ -6208,18 +6226,18 @@
         <v>0.17</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M21" si="8">L3*D3</f>
+        <f t="shared" ref="M3:M21" si="12">L3*D3</f>
         <v>1434.2900000000002</v>
       </c>
       <c r="N3" s="2">
         <v>1710</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O21" si="9">N3*M3</f>
+        <f t="shared" ref="O3:O21" si="13">N3*M3</f>
         <v>2452635.9000000004</v>
       </c>
       <c r="P3" s="13">
-        <f t="shared" ref="P3:P21" si="10">I3+K3+O3</f>
+        <f t="shared" ref="P3:P21" si="14">I3+K3+O3</f>
         <v>24536415.723529413</v>
       </c>
       <c r="Q3" s="2">
@@ -6263,7 +6281,7 @@
         <v>1880511.9562252201</v>
       </c>
       <c r="AA3" s="15">
-        <f t="shared" ref="AA3:AA43" si="11">SUM(Q3:Z3)</f>
+        <f t="shared" ref="AA3:AA43" si="15">SUM(Q3:Z3)</f>
         <v>21557962.109943651</v>
       </c>
       <c r="AB3">
@@ -6276,15 +6294,15 @@
         <v>852</v>
       </c>
       <c r="AE3" s="10">
-        <f>AD3*AB3</f>
+        <f t="shared" si="2"/>
         <v>60492</v>
       </c>
       <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AF21" si="12">330147/187</f>
+        <f t="shared" ref="AF3:AF21" si="16">330147/187</f>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG3" s="11">
-        <f>AF3*AB3</f>
+        <f t="shared" si="3"/>
         <v>125349.93048128342</v>
       </c>
       <c r="AH3" s="1">
@@ -6292,70 +6310,70 @@
         <v>0.17</v>
       </c>
       <c r="AI3" s="7">
-        <f>AH3*AB3</f>
+        <f t="shared" si="5"/>
         <v>12.07</v>
       </c>
       <c r="AJ3" s="2">
         <v>1710</v>
       </c>
       <c r="AK3" s="10">
-        <f t="shared" ref="AK3:AK21" si="13">AJ3*AI3</f>
+        <f t="shared" ref="AK3:AK21" si="17">AJ3*AI3</f>
         <v>20639.7</v>
       </c>
       <c r="AL3" s="13">
-        <f t="shared" ref="AL3:AL21" si="14">AE3+AG3+AK3</f>
+        <f t="shared" ref="AL3:AL21" si="18">AE3+AG3+AK3</f>
         <v>206481.63048128341</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" si="3"/>
-        <v>20648.163048128343</v>
+        <f>($AL3)*(1/(1+discount_rate)^AM$1)</f>
+        <v>206481.63048128341</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" si="3"/>
-        <v>20046.760240901305</v>
+        <f>($AL3)*(1/(1+discount_rate)^AN$1)</f>
+        <v>200467.60240901302</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" si="3"/>
-        <v>19462.874020292529</v>
+        <f>($AL3)*(1/(1+discount_rate)^AO$1)</f>
+        <v>194628.74020292526</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" si="3"/>
-        <v>18895.994194458766</v>
+        <f>($AL3)*(1/(1+discount_rate)^AP$1)</f>
+        <v>188959.94194458766</v>
       </c>
       <c r="AQ3" s="2">
-        <f t="shared" si="3"/>
-        <v>18345.625431513366</v>
+        <f>($AL3)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>183456.25431513364</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" si="3"/>
-        <v>17811.286826712007</v>
+        <f>($AL3)*(1/(1+discount_rate)^AR$1)</f>
+        <v>178112.86826712004</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" si="3"/>
-        <v>17292.511482244667</v>
+        <f>($AL3)*(1/(1+discount_rate)^AS$1)</f>
+        <v>172925.11482244666</v>
       </c>
       <c r="AT3" s="2">
-        <f t="shared" si="3"/>
-        <v>16788.846099266666</v>
+        <f>($AL3)*(1/(1+discount_rate)^AT$1)</f>
+        <v>167888.46099266663</v>
       </c>
       <c r="AU3" s="2">
-        <f t="shared" si="3"/>
-        <v>16299.850581812296</v>
+        <f>($AL3)*(1/(1+discount_rate)^AU$1)</f>
+        <v>162998.50581812294</v>
       </c>
       <c r="AV3" s="2">
-        <f t="shared" si="3"/>
-        <v>15825.097652244949</v>
+        <f>($AL3)*(1/(1+discount_rate)^AV$1)</f>
+        <v>158250.97652244946</v>
       </c>
       <c r="AW3" s="15">
-        <f t="shared" ref="AW3:AW21" si="15">SUM(AM3:AV3)</f>
-        <v>181417.00957757491</v>
+        <f t="shared" ref="AW3:AW21" si="19">SUM(AM3:AV3)</f>
+        <v>1814170.0957757486</v>
       </c>
       <c r="AX3">
-        <f>AA3/(G3+AW3)</f>
-        <v>78.933062950883055</v>
+        <f t="shared" si="6"/>
+        <v>11.311349161585374</v>
       </c>
       <c r="AY3">
-        <f>AA3/G3</f>
+        <f t="shared" si="7"/>
         <v>235.09228037015976</v>
       </c>
     </row>
@@ -6379,22 +6397,22 @@
         <v>20</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>273740</v>
       </c>
       <c r="H4">
         <v>852</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21040140</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K4" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>43598824.411764704</v>
       </c>
       <c r="L4" s="1">
@@ -6402,18 +6420,18 @@
         <v>0.17</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4198.1500000000005</v>
       </c>
       <c r="N4" s="2">
         <v>1710</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7178836.5000000009</v>
       </c>
       <c r="P4" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>71817800.911764711</v>
       </c>
       <c r="Q4" s="2">
@@ -6457,7 +6475,7 @@
         <v>5504236.4298899863</v>
       </c>
       <c r="AA4" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>63099902.13405931</v>
       </c>
       <c r="AB4">
@@ -6470,86 +6488,86 @@
         <v>852</v>
       </c>
       <c r="AE4" s="10">
-        <f>AD4*AB4</f>
+        <f t="shared" si="2"/>
         <v>52824</v>
       </c>
       <c r="AF4" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG4" s="11">
-        <f>AF4*AB4</f>
+        <f t="shared" si="3"/>
         <v>109460.50267379679</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI4" s="7">
-        <f>AH4*AB4</f>
+        <f t="shared" si="5"/>
         <v>10.540000000000001</v>
       </c>
       <c r="AJ4" s="2">
         <v>1710</v>
       </c>
       <c r="AK4" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18023.400000000001</v>
       </c>
       <c r="AL4" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>180307.90267379678</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="3"/>
-        <v>18030.790267379678</v>
+        <f>($AL4)*(1/(1+discount_rate)^AM$1)</f>
+        <v>180307.90267379678</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="3"/>
-        <v>17505.621618815221</v>
+        <f>($AL4)*(1/(1+discount_rate)^AN$1)</f>
+        <v>175056.2161881522</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="3"/>
-        <v>16995.749144480797</v>
+        <f>($AL4)*(1/(1+discount_rate)^AO$1)</f>
+        <v>169957.49144480797</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" si="3"/>
-        <v>16500.72732473864</v>
+        <f>($AL4)*(1/(1+discount_rate)^AP$1)</f>
+        <v>165007.27324738639</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" si="3"/>
-        <v>16020.123616251107</v>
+        <f>($AL4)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>160201.23616251108</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" si="3"/>
-        <v>15553.518074030202</v>
+        <f>($AL4)*(1/(1+discount_rate)^AR$1)</f>
+        <v>155535.18074030202</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="3"/>
-        <v>15100.502984495341</v>
+        <f>($AL4)*(1/(1+discount_rate)^AS$1)</f>
+        <v>151005.02984495342</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="3"/>
-        <v>14660.682509218776</v>
+        <f>($AL4)*(1/(1+discount_rate)^AT$1)</f>
+        <v>146606.82509218776</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" si="3"/>
-        <v>14233.672339047356</v>
+        <f>($AL4)*(1/(1+discount_rate)^AU$1)</f>
+        <v>142336.72339047355</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="3"/>
-        <v>13819.099358298405</v>
+        <f>($AL4)*(1/(1+discount_rate)^AV$1)</f>
+        <v>138190.99358298405</v>
       </c>
       <c r="AW4" s="15">
-        <f t="shared" si="15"/>
-        <v>158420.48723675552</v>
+        <f t="shared" si="19"/>
+        <v>1584204.8723675553</v>
       </c>
       <c r="AX4">
-        <f>AA4/(G4+AW4)</f>
-        <v>146.01034568782904</v>
+        <f t="shared" si="6"/>
+        <v>33.962203654434546</v>
       </c>
       <c r="AY4">
-        <f>AA4/G4</f>
+        <f t="shared" si="7"/>
         <v>230.51034607313258</v>
       </c>
       <c r="BA4" s="2"/>
@@ -6574,22 +6592,22 @@
         <v>20</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>209220</v>
       </c>
       <c r="H5">
         <v>852</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15679356</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>32490348.882352941</v>
       </c>
       <c r="L5" s="1">
@@ -6597,18 +6615,18 @@
         <v>0.17</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3128.51</v>
       </c>
       <c r="N5" s="2">
         <v>1710</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5349752.1000000006</v>
       </c>
       <c r="P5" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>53519456.982352942</v>
       </c>
       <c r="Q5" s="2">
@@ -6652,7 +6670,7 @@
         <v>4101820.7337220251</v>
       </c>
       <c r="AA5" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>47022777.848677605</v>
       </c>
       <c r="AB5">
@@ -6665,86 +6683,86 @@
         <v>852</v>
       </c>
       <c r="AE5" s="10">
-        <f>AD5*AB5</f>
+        <f t="shared" si="2"/>
         <v>81792</v>
       </c>
       <c r="AF5" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG5" s="11">
-        <f>AF5*AB5</f>
+        <f t="shared" si="3"/>
         <v>169487.22994652408</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI5" s="7">
-        <f>AH5*AB5</f>
+        <f t="shared" si="5"/>
         <v>16.32</v>
       </c>
       <c r="AJ5" s="2">
         <v>1710</v>
       </c>
       <c r="AK5" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>27907.200000000001</v>
       </c>
       <c r="AL5" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>279186.42994652409</v>
       </c>
       <c r="AM5" s="2">
-        <f t="shared" si="3"/>
-        <v>27918.642994652408</v>
+        <f>($AL5)*(1/(1+discount_rate)^AM$1)</f>
+        <v>279186.42994652409</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" si="3"/>
-        <v>27105.478635584863</v>
+        <f>($AL5)*(1/(1+discount_rate)^AN$1)</f>
+        <v>271054.78635584866</v>
       </c>
       <c r="AO5" s="2">
-        <f t="shared" si="3"/>
-        <v>26315.998675325107</v>
+        <f>($AL5)*(1/(1+discount_rate)^AO$1)</f>
+        <v>263159.98675325111</v>
       </c>
       <c r="AP5" s="2">
-        <f t="shared" si="3"/>
-        <v>25549.51327701467</v>
+        <f>($AL5)*(1/(1+discount_rate)^AP$1)</f>
+        <v>255495.13277014671</v>
       </c>
       <c r="AQ5" s="2">
-        <f t="shared" si="3"/>
-        <v>24805.352696130747</v>
+        <f>($AL5)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>248053.52696130751</v>
       </c>
       <c r="AR5" s="2">
-        <f t="shared" si="3"/>
-        <v>24082.866695272573</v>
+        <f>($AL5)*(1/(1+discount_rate)^AR$1)</f>
+        <v>240828.66695272573</v>
       </c>
       <c r="AS5" s="2">
-        <f t="shared" si="3"/>
-        <v>23381.423975992788</v>
+        <f>($AL5)*(1/(1+discount_rate)^AS$1)</f>
+        <v>233814.23975992791</v>
       </c>
       <c r="AT5" s="2">
-        <f t="shared" si="3"/>
-        <v>22700.411627177462</v>
+        <f>($AL5)*(1/(1+discount_rate)^AT$1)</f>
+        <v>227004.11627177463</v>
       </c>
       <c r="AU5" s="2">
-        <f t="shared" si="3"/>
-        <v>22039.234589492684</v>
+        <f>($AL5)*(1/(1+discount_rate)^AU$1)</f>
+        <v>220392.34589492684</v>
       </c>
       <c r="AV5" s="2">
-        <f t="shared" si="3"/>
-        <v>21397.315135429792</v>
+        <f>($AL5)*(1/(1+discount_rate)^AV$1)</f>
+        <v>213973.15135429791</v>
       </c>
       <c r="AW5" s="15">
-        <f t="shared" si="15"/>
-        <v>245296.23830207309</v>
+        <f t="shared" si="19"/>
+        <v>2452962.3830207312</v>
       </c>
       <c r="AX5">
-        <f>AA5/(G5+AW5)</f>
-        <v>103.45676102649186</v>
+        <f t="shared" si="6"/>
+        <v>17.663244317364047</v>
       </c>
       <c r="AY5">
-        <f>AA5/G5</f>
+        <f t="shared" si="7"/>
         <v>224.75278581721443</v>
       </c>
     </row>
@@ -6768,22 +6786,22 @@
         <v>20</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>377600</v>
       </c>
       <c r="H6">
         <v>852</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>28033356</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>58089982.572192512</v>
       </c>
       <c r="L6" s="1">
@@ -6791,18 +6809,18 @@
         <v>0.17</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5593.51</v>
       </c>
       <c r="N6" s="2">
         <v>1710</v>
       </c>
       <c r="O6" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9564902.0999999996</v>
       </c>
       <c r="P6" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>95688240.672192514</v>
       </c>
       <c r="Q6" s="2">
@@ -6846,7 +6864,7 @@
         <v>7333706.8739692327</v>
       </c>
       <c r="AA6" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>84072730.508886561</v>
       </c>
       <c r="AB6">
@@ -6859,86 +6877,86 @@
         <v>852</v>
       </c>
       <c r="AE6" s="10">
-        <f>AD6*AB6</f>
+        <f t="shared" si="2"/>
         <v>42600</v>
       </c>
       <c r="AF6" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG6" s="11">
-        <f>AF6*AB6</f>
+        <f t="shared" si="3"/>
         <v>88274.598930481283</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI6" s="7">
-        <f>AH6*AB6</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="AJ6" s="2">
         <v>1710</v>
       </c>
       <c r="AK6" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>14535</v>
       </c>
       <c r="AL6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>145409.5989304813</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="3"/>
-        <v>14540.95989304813</v>
+        <f>($AL6)*(1/(1+discount_rate)^AM$1)</f>
+        <v>145409.5989304813</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="3"/>
-        <v>14117.436789367117</v>
+        <f>($AL6)*(1/(1+discount_rate)^AN$1)</f>
+        <v>141174.36789367115</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="3"/>
-        <v>13706.249310065161</v>
+        <f>($AL6)*(1/(1+discount_rate)^AO$1)</f>
+        <v>137062.49310065163</v>
       </c>
       <c r="AP6" s="2">
-        <f t="shared" si="3"/>
-        <v>13307.038165111808</v>
+        <f>($AL6)*(1/(1+discount_rate)^AP$1)</f>
+        <v>133070.38165111808</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="3"/>
-        <v>12919.454529234765</v>
+        <f>($AL6)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>129194.54529234766</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="3"/>
-        <v>12543.159737121132</v>
+        <f>($AL6)*(1/(1+discount_rate)^AR$1)</f>
+        <v>125431.59737121132</v>
       </c>
       <c r="AS6" s="2">
-        <f t="shared" si="3"/>
-        <v>12177.824987496244</v>
+        <f>($AL6)*(1/(1+discount_rate)^AS$1)</f>
+        <v>121778.24987496245</v>
       </c>
       <c r="AT6" s="2">
-        <f t="shared" si="3"/>
-        <v>11823.131055821596</v>
+        <f>($AL6)*(1/(1+discount_rate)^AT$1)</f>
+        <v>118231.31055821596</v>
       </c>
       <c r="AU6" s="2">
-        <f t="shared" si="3"/>
-        <v>11478.768015360773</v>
+        <f>($AL6)*(1/(1+discount_rate)^AU$1)</f>
+        <v>114787.68015360773</v>
       </c>
       <c r="AV6" s="2">
-        <f t="shared" si="3"/>
-        <v>11144.434966369683</v>
+        <f>($AL6)*(1/(1+discount_rate)^AV$1)</f>
+        <v>111444.34966369683</v>
       </c>
       <c r="AW6" s="15">
-        <f t="shared" si="15"/>
-        <v>127758.4574489964</v>
+        <f t="shared" si="19"/>
+        <v>1277584.5744899642</v>
       </c>
       <c r="AX6">
-        <f>AA6/(G6+AW6)</f>
-        <v>166.36256753924349</v>
+        <f t="shared" si="6"/>
+        <v>50.793568164319744</v>
       </c>
       <c r="AY6">
-        <f>AA6/G6</f>
+        <f t="shared" si="7"/>
         <v>222.65023969514451</v>
       </c>
     </row>
@@ -6962,22 +6980,22 @@
         <v>20</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>75020</v>
       </c>
       <c r="H7">
         <v>852</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5832792</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12086558.085561497</v>
       </c>
       <c r="L7" s="1">
@@ -6985,18 +7003,18 @@
         <v>0.17</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1163.8200000000002</v>
       </c>
       <c r="N7" s="2">
         <v>1710</v>
       </c>
       <c r="O7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1990132.2000000002</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19909482.285561498</v>
       </c>
       <c r="Q7" s="2">
@@ -7040,7 +7058,7 @@
         <v>1525896.0355953369</v>
       </c>
       <c r="AA7" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17492687.993916586</v>
       </c>
       <c r="AB7">
@@ -7053,86 +7071,86 @@
         <v>852</v>
       </c>
       <c r="AE7" s="10">
-        <f>AD7*AB7</f>
+        <f t="shared" si="2"/>
         <v>47712</v>
       </c>
       <c r="AF7" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG7" s="11">
-        <f>AF7*AB7</f>
+        <f t="shared" si="3"/>
         <v>98867.550802139041</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI7" s="7">
-        <f>AH7*AB7</f>
+        <f t="shared" si="5"/>
         <v>9.5200000000000014</v>
       </c>
       <c r="AJ7" s="2">
         <v>1710</v>
       </c>
       <c r="AK7" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>16279.200000000003</v>
       </c>
       <c r="AL7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>162858.75080213905</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" si="3"/>
-        <v>16285.875080213906</v>
+        <f>($AL7)*(1/(1+discount_rate)^AM$1)</f>
+        <v>162858.75080213905</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="3"/>
-        <v>15811.52920409117</v>
+        <f>($AL7)*(1/(1+discount_rate)^AN$1)</f>
+        <v>158115.29204091171</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="3"/>
-        <v>15350.999227272981</v>
+        <f>($AL7)*(1/(1+discount_rate)^AO$1)</f>
+        <v>153509.99227272981</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" si="3"/>
-        <v>14903.882744925226</v>
+        <f>($AL7)*(1/(1+discount_rate)^AP$1)</f>
+        <v>149038.82744925225</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" si="3"/>
-        <v>14469.789072742939</v>
+        <f>($AL7)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>144697.89072742939</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="3"/>
-        <v>14048.338905575669</v>
+        <f>($AL7)*(1/(1+discount_rate)^AR$1)</f>
+        <v>140483.38905575668</v>
       </c>
       <c r="AS7" s="2">
-        <f t="shared" si="3"/>
-        <v>13639.163985995794</v>
+        <f>($AL7)*(1/(1+discount_rate)^AS$1)</f>
+        <v>136391.63985995794</v>
       </c>
       <c r="AT7" s="2">
-        <f t="shared" si="3"/>
-        <v>13241.906782520187</v>
+        <f>($AL7)*(1/(1+discount_rate)^AT$1)</f>
+        <v>132419.06782520187</v>
       </c>
       <c r="AU7" s="2">
-        <f t="shared" si="3"/>
-        <v>12856.220177204066</v>
+        <f>($AL7)*(1/(1+discount_rate)^AU$1)</f>
+        <v>128562.20177204066</v>
       </c>
       <c r="AV7" s="2">
-        <f t="shared" si="3"/>
-        <v>12481.767162334045</v>
+        <f>($AL7)*(1/(1+discount_rate)^AV$1)</f>
+        <v>124817.67162334044</v>
       </c>
       <c r="AW7" s="15">
-        <f t="shared" si="15"/>
-        <v>143089.47234287599</v>
+        <f t="shared" si="19"/>
+        <v>1430894.7234287597</v>
       </c>
       <c r="AX7">
-        <f>AA7/(G7+AW7)</f>
-        <v>80.201413565466098</v>
+        <f t="shared" si="6"/>
+        <v>11.61598842336049</v>
       </c>
       <c r="AY7">
-        <f>AA7/G7</f>
+        <f t="shared" si="7"/>
         <v>233.1736602761475</v>
       </c>
     </row>
@@ -7156,22 +7174,22 @@
         <v>20</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>87760</v>
       </c>
       <c r="H8">
         <v>852</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6676272</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13834395.144385027</v>
       </c>
       <c r="L8" s="1">
@@ -7179,18 +7197,18 @@
         <v>0.17</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1332.1200000000001</v>
       </c>
       <c r="N8" s="2">
         <v>1710</v>
       </c>
       <c r="O8" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2277925.2000000002</v>
       </c>
       <c r="P8" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22788592.344385024</v>
       </c>
       <c r="Q8" s="2">
@@ -7234,7 +7252,7 @@
         <v>1746555.8479294563</v>
       </c>
       <c r="AA8" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20022305.45140671</v>
       </c>
       <c r="AB8">
@@ -7247,86 +7265,86 @@
         <v>852</v>
       </c>
       <c r="AE8" s="10">
-        <f>AD8*AB8</f>
+        <f t="shared" si="2"/>
         <v>73272</v>
       </c>
       <c r="AF8" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG8" s="11">
-        <f>AF8*AB8</f>
+        <f t="shared" si="3"/>
         <v>151832.31016042782</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI8" s="7">
-        <f>AH8*AB8</f>
+        <f t="shared" si="5"/>
         <v>14.620000000000001</v>
       </c>
       <c r="AJ8" s="2">
         <v>1710</v>
       </c>
       <c r="AK8" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25000.2</v>
       </c>
       <c r="AL8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>250104.51016042783</v>
       </c>
       <c r="AM8" s="2">
-        <f t="shared" si="3"/>
-        <v>25010.451016042782</v>
+        <f>($AL8)*(1/(1+discount_rate)^AM$1)</f>
+        <v>250104.51016042783</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="3"/>
-        <v>24281.99127771144</v>
+        <f>($AL8)*(1/(1+discount_rate)^AN$1)</f>
+        <v>242819.9127771144</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="3"/>
-        <v>23574.748813312075</v>
+        <f>($AL8)*(1/(1+discount_rate)^AO$1)</f>
+        <v>235747.48813312079</v>
       </c>
       <c r="AP8" s="2">
-        <f t="shared" si="3"/>
-        <v>22888.105643992309</v>
+        <f>($AL8)*(1/(1+discount_rate)^AP$1)</f>
+        <v>228881.05643992309</v>
       </c>
       <c r="AQ8" s="2">
-        <f t="shared" si="3"/>
-        <v>22221.461790283796</v>
+        <f>($AL8)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>222214.61790283796</v>
       </c>
       <c r="AR8" s="2">
-        <f t="shared" si="3"/>
-        <v>21574.234747848346</v>
+        <f>($AL8)*(1/(1+discount_rate)^AR$1)</f>
+        <v>215742.34747848348</v>
       </c>
       <c r="AS8" s="2">
-        <f t="shared" si="3"/>
-        <v>20945.858978493539</v>
+        <f>($AL8)*(1/(1+discount_rate)^AS$1)</f>
+        <v>209458.58978493541</v>
       </c>
       <c r="AT8" s="2">
-        <f t="shared" si="3"/>
-        <v>20335.785416013143</v>
+        <f>($AL8)*(1/(1+discount_rate)^AT$1)</f>
+        <v>203357.85416013145</v>
       </c>
       <c r="AU8" s="2">
-        <f t="shared" si="3"/>
-        <v>19743.480986420527</v>
+        <f>($AL8)*(1/(1+discount_rate)^AU$1)</f>
+        <v>197434.80986420528</v>
       </c>
       <c r="AV8" s="2">
-        <f t="shared" si="3"/>
-        <v>19168.428142155852</v>
+        <f>($AL8)*(1/(1+discount_rate)^AV$1)</f>
+        <v>191684.28142155855</v>
       </c>
       <c r="AW8" s="15">
-        <f t="shared" si="15"/>
-        <v>219744.54681227382</v>
+        <f t="shared" si="19"/>
+        <v>2197445.4681227384</v>
       </c>
       <c r="AX8">
-        <f>AA8/(G8+AW8)</f>
-        <v>65.112225685657847</v>
+        <f t="shared" si="6"/>
+        <v>8.7617090588596955</v>
       </c>
       <c r="AY8">
-        <f>AA8/G8</f>
+        <f t="shared" si="7"/>
         <v>228.14842127856323</v>
       </c>
     </row>
@@ -7350,22 +7368,22 @@
         <v>20</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>57720</v>
       </c>
       <c r="H9">
         <v>852</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4423584</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9166434.3529411759</v>
       </c>
       <c r="L9" s="1">
@@ -7373,18 +7391,18 @@
         <v>0.17</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>882.6400000000001</v>
       </c>
       <c r="N9" s="2">
         <v>1710</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1509314.4000000001</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15099332.752941176</v>
       </c>
       <c r="Q9" s="2">
@@ -7428,7 +7446,7 @@
         <v>1157238.1269078278</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13266438.221503789</v>
       </c>
       <c r="AB9">
@@ -7441,86 +7459,86 @@
         <v>852</v>
       </c>
       <c r="AE9" s="10">
-        <f>AD9*AB9</f>
+        <f t="shared" si="2"/>
         <v>52824</v>
       </c>
       <c r="AF9" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG9" s="11">
-        <f>AF9*AB9</f>
+        <f t="shared" si="3"/>
         <v>109460.50267379679</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI9" s="7">
-        <f>AH9*AB9</f>
+        <f t="shared" si="5"/>
         <v>10.540000000000001</v>
       </c>
       <c r="AJ9" s="2">
         <v>1710</v>
       </c>
       <c r="AK9" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18023.400000000001</v>
       </c>
       <c r="AL9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>180307.90267379678</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="3"/>
-        <v>18030.790267379678</v>
+        <f>($AL9)*(1/(1+discount_rate)^AM$1)</f>
+        <v>180307.90267379678</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="3"/>
-        <v>17505.621618815221</v>
+        <f>($AL9)*(1/(1+discount_rate)^AN$1)</f>
+        <v>175056.2161881522</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="3"/>
-        <v>16995.749144480797</v>
+        <f>($AL9)*(1/(1+discount_rate)^AO$1)</f>
+        <v>169957.49144480797</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="3"/>
-        <v>16500.72732473864</v>
+        <f>($AL9)*(1/(1+discount_rate)^AP$1)</f>
+        <v>165007.27324738639</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="3"/>
-        <v>16020.123616251107</v>
+        <f>($AL9)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>160201.23616251108</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="3"/>
-        <v>15553.518074030202</v>
+        <f>($AL9)*(1/(1+discount_rate)^AR$1)</f>
+        <v>155535.18074030202</v>
       </c>
       <c r="AS9" s="2">
-        <f t="shared" si="3"/>
-        <v>15100.502984495341</v>
+        <f>($AL9)*(1/(1+discount_rate)^AS$1)</f>
+        <v>151005.02984495342</v>
       </c>
       <c r="AT9" s="2">
-        <f t="shared" si="3"/>
-        <v>14660.682509218776</v>
+        <f>($AL9)*(1/(1+discount_rate)^AT$1)</f>
+        <v>146606.82509218776</v>
       </c>
       <c r="AU9" s="2">
-        <f t="shared" si="3"/>
-        <v>14233.672339047356</v>
+        <f>($AL9)*(1/(1+discount_rate)^AU$1)</f>
+        <v>142336.72339047355</v>
       </c>
       <c r="AV9" s="2">
-        <f t="shared" si="3"/>
-        <v>13819.099358298405</v>
+        <f>($AL9)*(1/(1+discount_rate)^AV$1)</f>
+        <v>138190.99358298405</v>
       </c>
       <c r="AW9" s="15">
-        <f t="shared" si="15"/>
-        <v>158420.48723675552</v>
+        <f t="shared" si="19"/>
+        <v>1584204.8723675553</v>
       </c>
       <c r="AX9">
-        <f>AA9/(G9+AW9)</f>
-        <v>61.378774477231673</v>
+        <f t="shared" si="6"/>
+        <v>8.079808305951536</v>
       </c>
       <c r="AY9">
-        <f>AA9/G9</f>
+        <f t="shared" si="7"/>
         <v>229.84127202882516</v>
       </c>
     </row>
@@ -7544,22 +7562,22 @@
         <v>20</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>92560</v>
       </c>
       <c r="H10">
         <v>852</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7112496</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14738327.037433155</v>
       </c>
       <c r="L10" s="1">
@@ -7567,18 +7585,18 @@
         <v>0.17</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1419.16</v>
       </c>
       <c r="N10" s="2">
         <v>1710</v>
       </c>
       <c r="O10" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2426763.6</v>
       </c>
       <c r="P10" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24277586.637433156</v>
       </c>
       <c r="Q10" s="2">
@@ -7622,7 +7640,7 @@
         <v>1860674.8619850823</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21330552.055684444</v>
       </c>
       <c r="AB10">
@@ -7635,15 +7653,15 @@
         <v>852</v>
       </c>
       <c r="AE10" s="10">
-        <f>AD10*AB10</f>
+        <f t="shared" si="2"/>
         <v>63900</v>
       </c>
       <c r="AF10" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG10" s="11">
-        <f>AF10*AB10</f>
+        <f t="shared" si="3"/>
         <v>132411.89839572192</v>
       </c>
       <c r="AH10" s="1">
@@ -7651,70 +7669,70 @@
         <v>0.17</v>
       </c>
       <c r="AI10" s="7">
-        <f>AH10*AB10</f>
+        <f t="shared" si="5"/>
         <v>12.750000000000002</v>
       </c>
       <c r="AJ10" s="2">
         <v>1710</v>
       </c>
       <c r="AK10" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21802.500000000004</v>
       </c>
       <c r="AL10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>218114.39839572192</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="3"/>
-        <v>21811.439839572191</v>
+        <f>($AL10)*(1/(1+discount_rate)^AM$1)</f>
+        <v>218114.39839572192</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="3"/>
-        <v>21176.155184050673</v>
+        <f>($AL10)*(1/(1+discount_rate)^AN$1)</f>
+        <v>211761.55184050673</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="3"/>
-        <v>20559.373965097737</v>
+        <f>($AL10)*(1/(1+discount_rate)^AO$1)</f>
+        <v>205593.7396509774</v>
       </c>
       <c r="AP10" s="2">
-        <f t="shared" si="3"/>
-        <v>19960.557247667708</v>
+        <f>($AL10)*(1/(1+discount_rate)^AP$1)</f>
+        <v>199605.5724766771</v>
       </c>
       <c r="AQ10" s="2">
-        <f t="shared" si="3"/>
-        <v>19379.181793852145</v>
+        <f>($AL10)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>193791.81793852145</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="3"/>
-        <v>18814.739605681694</v>
+        <f>($AL10)*(1/(1+discount_rate)^AR$1)</f>
+        <v>188147.39605681694</v>
       </c>
       <c r="AS10" s="2">
-        <f t="shared" si="3"/>
-        <v>18266.737481244363</v>
+        <f>($AL10)*(1/(1+discount_rate)^AS$1)</f>
+        <v>182667.37481244365</v>
       </c>
       <c r="AT10" s="2">
-        <f t="shared" si="3"/>
-        <v>17734.696583732391</v>
+        <f>($AL10)*(1/(1+discount_rate)^AT$1)</f>
+        <v>177346.96583732392</v>
       </c>
       <c r="AU10" s="2">
-        <f t="shared" si="3"/>
-        <v>17218.152023041155</v>
+        <f>($AL10)*(1/(1+discount_rate)^AU$1)</f>
+        <v>172181.52023041158</v>
       </c>
       <c r="AV10" s="2">
-        <f t="shared" si="3"/>
-        <v>16716.65244955452</v>
+        <f>($AL10)*(1/(1+discount_rate)^AV$1)</f>
+        <v>167166.52449554522</v>
       </c>
       <c r="AW10" s="15">
-        <f t="shared" si="15"/>
-        <v>191637.68617349459</v>
+        <f t="shared" si="19"/>
+        <v>1916376.8617349463</v>
       </c>
       <c r="AX10">
-        <f>AA10/(G10+AW10)</f>
-        <v>75.055333288895085</v>
+        <f t="shared" si="6"/>
+        <v>10.617830984127135</v>
       </c>
       <c r="AY10">
-        <f>AA10/G10</f>
+        <f t="shared" si="7"/>
         <v>230.4510809818976</v>
       </c>
     </row>
@@ -7738,22 +7756,22 @@
         <v>20</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>47120</v>
       </c>
       <c r="H11">
         <v>852</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3758172</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7787585.1176470593</v>
       </c>
       <c r="L11" s="1">
@@ -7761,18 +7779,18 @@
         <v>0.17</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>749.87</v>
       </c>
       <c r="N11" s="2">
         <v>1710</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1282277.7</v>
       </c>
       <c r="P11" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12828034.817647059</v>
       </c>
       <c r="Q11" s="2">
@@ -7816,7 +7834,7 @@
         <v>983162.05273313331</v>
       </c>
       <c r="AA11" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11270851.116150461</v>
       </c>
       <c r="AB11">
@@ -7829,86 +7847,86 @@
         <v>852</v>
       </c>
       <c r="AE11" s="10">
-        <f>AD11*AB11</f>
+        <f t="shared" si="2"/>
         <v>76680</v>
       </c>
       <c r="AF11" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG11" s="11">
-        <f>AF11*AB11</f>
+        <f t="shared" si="3"/>
         <v>158894.27807486631</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI11" s="7">
-        <f>AH11*AB11</f>
+        <f t="shared" si="5"/>
         <v>15.3</v>
       </c>
       <c r="AJ11" s="2">
         <v>1710</v>
       </c>
       <c r="AK11" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26163</v>
       </c>
       <c r="AL11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>261737.27807486631</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="3"/>
-        <v>26173.72780748663</v>
+        <f>($AL11)*(1/(1+discount_rate)^AM$1)</f>
+        <v>261737.27807486631</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="3"/>
-        <v>25411.386220860804</v>
+        <f>($AL11)*(1/(1+discount_rate)^AN$1)</f>
+        <v>254113.86220860807</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="3"/>
-        <v>24671.248758117286</v>
+        <f>($AL11)*(1/(1+discount_rate)^AO$1)</f>
+        <v>246712.48758117287</v>
       </c>
       <c r="AP11" s="2">
-        <f t="shared" si="3"/>
-        <v>23952.66869720125</v>
+        <f>($AL11)*(1/(1+discount_rate)^AP$1)</f>
+        <v>239526.68697201251</v>
       </c>
       <c r="AQ11" s="2">
-        <f t="shared" si="3"/>
-        <v>23255.018152622575</v>
+        <f>($AL11)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>232550.18152622576</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" si="3"/>
-        <v>22577.687526818034</v>
+        <f>($AL11)*(1/(1+discount_rate)^AR$1)</f>
+        <v>225776.87526818036</v>
       </c>
       <c r="AS11" s="2">
-        <f t="shared" si="3"/>
-        <v>21920.084977493236</v>
+        <f>($AL11)*(1/(1+discount_rate)^AS$1)</f>
+        <v>219200.84977493237</v>
       </c>
       <c r="AT11" s="2">
-        <f t="shared" si="3"/>
-        <v>21281.635900478868</v>
+        <f>($AL11)*(1/(1+discount_rate)^AT$1)</f>
+        <v>212816.35900478871</v>
       </c>
       <c r="AU11" s="2">
-        <f t="shared" si="3"/>
-        <v>20661.782427649388</v>
+        <f>($AL11)*(1/(1+discount_rate)^AU$1)</f>
+        <v>206617.82427649389</v>
       </c>
       <c r="AV11" s="2">
-        <f t="shared" si="3"/>
-        <v>20059.982939465426</v>
+        <f>($AL11)*(1/(1+discount_rate)^AV$1)</f>
+        <v>200599.82939465425</v>
       </c>
       <c r="AW11" s="15">
-        <f t="shared" si="15"/>
-        <v>229965.22340819353</v>
+        <f t="shared" si="19"/>
+        <v>2299652.2340819356</v>
       </c>
       <c r="AX11">
-        <f>AA11/(G11+AW11)</f>
-        <v>40.676478440521471</v>
+        <f t="shared" si="6"/>
+        <v>4.8027034547558687</v>
       </c>
       <c r="AY11">
-        <f>AA11/G11</f>
+        <f t="shared" si="7"/>
         <v>239.19463319504374</v>
       </c>
     </row>
@@ -7932,22 +7950,22 @@
         <v>20</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>61420</v>
       </c>
       <c r="H12">
         <v>852</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4846176</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10042118.374331551</v>
       </c>
       <c r="L12" s="1">
@@ -7955,62 +7973,62 @@
         <v>0.17</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>966.96</v>
       </c>
       <c r="N12" s="2">
         <v>1710</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1653501.6</v>
       </c>
       <c r="P12" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16541795.97433155</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ref="Q12:Z21" si="16">($P12/10)*(1/(1+discount_rate)^Q$1)</f>
+        <f t="shared" ref="Q12:Z21" si="20">($P12/10)*(1/(1+discount_rate)^Q$1)</f>
         <v>1654179.5974331549</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1605999.6091584028</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1559222.9215130124</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1513808.661663119</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1469717.1472457466</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1426909.8516948998</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1385349.3705775726</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1344999.3889102645</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1305824.6494274412</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1267790.9217742148</v>
       </c>
       <c r="AA12" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14533802.119397828</v>
       </c>
       <c r="AB12">
@@ -8023,86 +8041,86 @@
         <v>852</v>
       </c>
       <c r="AE12" s="10">
-        <f>AD12*AB12</f>
+        <f t="shared" si="2"/>
         <v>59640</v>
       </c>
       <c r="AF12" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG12" s="11">
-        <f>AF12*AB12</f>
+        <f t="shared" si="3"/>
         <v>123584.4385026738</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI12" s="7">
-        <f>AH12*AB12</f>
+        <f t="shared" si="5"/>
         <v>11.9</v>
       </c>
       <c r="AJ12" s="2">
         <v>1710</v>
       </c>
       <c r="AK12" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20349</v>
       </c>
       <c r="AL12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>203573.43850267382</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" ref="AM12:AV21" si="17">($AL12/10)*(1/(1+discount_rate)^AM$1)</f>
-        <v>20357.343850267382</v>
+        <f>($AL12)*(1/(1+discount_rate)^AM$1)</f>
+        <v>203573.43850267382</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="17"/>
-        <v>19764.411505113963</v>
+        <f>($AL12)*(1/(1+discount_rate)^AN$1)</f>
+        <v>197644.11505113964</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="17"/>
-        <v>19188.749034091226</v>
+        <f>($AL12)*(1/(1+discount_rate)^AO$1)</f>
+        <v>191887.49034091225</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="17"/>
-        <v>18629.853431156531</v>
+        <f>($AL12)*(1/(1+discount_rate)^AP$1)</f>
+        <v>186298.53431156531</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="17"/>
-        <v>18087.236340928674</v>
+        <f>($AL12)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>180872.36340928671</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="17"/>
-        <v>17560.423631969585</v>
+        <f>($AL12)*(1/(1+discount_rate)^AR$1)</f>
+        <v>175604.23631969586</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="17"/>
-        <v>17048.954982494743</v>
+        <f>($AL12)*(1/(1+discount_rate)^AS$1)</f>
+        <v>170489.54982494743</v>
       </c>
       <c r="AT12" s="2">
-        <f t="shared" si="17"/>
-        <v>16552.383478150234</v>
+        <f>($AL12)*(1/(1+discount_rate)^AT$1)</f>
+        <v>165523.83478150234</v>
       </c>
       <c r="AU12" s="2">
-        <f t="shared" si="17"/>
-        <v>16070.275221505082</v>
+        <f>($AL12)*(1/(1+discount_rate)^AU$1)</f>
+        <v>160702.75221505083</v>
       </c>
       <c r="AV12" s="2">
-        <f t="shared" si="17"/>
-        <v>15602.208952917556</v>
+        <f>($AL12)*(1/(1+discount_rate)^AV$1)</f>
+        <v>156022.08952917557</v>
       </c>
       <c r="AW12" s="15">
-        <f t="shared" si="15"/>
-        <v>178861.84042859497</v>
+        <f t="shared" si="19"/>
+        <v>1788618.4042859499</v>
       </c>
       <c r="AX12">
-        <f>AA12/(G12+AW12)</f>
-        <v>60.486477436137612</v>
+        <f t="shared" si="6"/>
+        <v>7.8559461715646748</v>
       </c>
       <c r="AY12">
-        <f>AA12/G12</f>
+        <f t="shared" si="7"/>
         <v>236.62979679905288</v>
       </c>
     </row>
@@ -8126,22 +8144,22 @@
         <v>20</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17860</v>
       </c>
       <c r="H13">
         <v>852</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1429656</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2962495.5401069517</v>
       </c>
       <c r="L13" s="1">
@@ -8149,62 +8167,62 @@
         <v>0.17</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>285.26000000000005</v>
       </c>
       <c r="N13" s="2">
         <v>1710</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>487794.60000000009</v>
       </c>
       <c r="P13" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4879946.1401069518</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>487994.61401069519</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>473781.17865116039</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>459981.72684578679</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>446584.20082115225</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>433576.89400111872</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>420948.44077778514</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>408687.8065803739</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>396784.27823337272</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>385227.45459550753</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>374007.23747136653</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4287573.8319883188</v>
       </c>
       <c r="AB13">
@@ -8217,86 +8235,86 @@
         <v>852</v>
       </c>
       <c r="AE13" s="10">
-        <f>AD13*AB13</f>
+        <f t="shared" si="2"/>
         <v>61344</v>
       </c>
       <c r="AF13" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG13" s="11">
-        <f>AF13*AB13</f>
+        <f t="shared" si="3"/>
         <v>127115.42245989305</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI13" s="7">
-        <f>AH13*AB13</f>
+        <f t="shared" si="5"/>
         <v>12.24</v>
       </c>
       <c r="AJ13" s="2">
         <v>1710</v>
       </c>
       <c r="AK13" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20930.400000000001</v>
       </c>
       <c r="AL13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>209389.82245989304</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="17"/>
-        <v>20938.982245989304</v>
+        <f>($AL13)*(1/(1+discount_rate)^AM$1)</f>
+        <v>209389.82245989304</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="17"/>
-        <v>20329.108976688643</v>
+        <f>($AL13)*(1/(1+discount_rate)^AN$1)</f>
+        <v>203291.08976688643</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="17"/>
-        <v>19736.999006493828</v>
+        <f>($AL13)*(1/(1+discount_rate)^AO$1)</f>
+        <v>197369.99006493829</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="17"/>
-        <v>19162.134957761002</v>
+        <f>($AL13)*(1/(1+discount_rate)^AP$1)</f>
+        <v>191621.34957761</v>
       </c>
       <c r="AQ13" s="2">
-        <f t="shared" si="17"/>
-        <v>18604.014522098059</v>
+        <f>($AL13)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>186040.1452209806</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="17"/>
-        <v>18062.150021454428</v>
+        <f>($AL13)*(1/(1+discount_rate)^AR$1)</f>
+        <v>180621.50021454427</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="17"/>
-        <v>17536.067981994591</v>
+        <f>($AL13)*(1/(1+discount_rate)^AS$1)</f>
+        <v>175360.67981994589</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="17"/>
-        <v>17025.308720383095</v>
+        <f>($AL13)*(1/(1+discount_rate)^AT$1)</f>
+        <v>170253.08720383095</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="17"/>
-        <v>16529.425942119509</v>
+        <f>($AL13)*(1/(1+discount_rate)^AU$1)</f>
+        <v>165294.25942119511</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" si="17"/>
-        <v>16047.986351572341</v>
+        <f>($AL13)*(1/(1+discount_rate)^AV$1)</f>
+        <v>160479.86351572341</v>
       </c>
       <c r="AW13" s="15">
-        <f t="shared" si="15"/>
-        <v>183972.17872655479</v>
+        <f t="shared" si="19"/>
+        <v>1839721.7872655482</v>
       </c>
       <c r="AX13">
-        <f>AA13/(G13+AW13)</f>
-        <v>21.243261897287386</v>
+        <f t="shared" si="6"/>
+        <v>2.3081480779911385</v>
       </c>
       <c r="AY13">
-        <f>AA13/G13</f>
+        <f t="shared" si="7"/>
         <v>240.06572407549376</v>
       </c>
     </row>
@@ -8320,22 +8338,22 @@
         <v>20</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>167420</v>
       </c>
       <c r="H14">
         <v>852</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12877980</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26685411.256684493</v>
       </c>
       <c r="L14" s="1">
@@ -8343,62 +8361,62 @@
         <v>0.17</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2569.5500000000002</v>
       </c>
       <c r="N14" s="2">
         <v>1710</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4393930.5</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>43957321.756684497</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4395732.1756684501</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4267701.1414256794</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4143399.1664326987</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4022717.6373132998</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3905551.1041876702</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3791797.1885317187</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3681356.4937201152</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3574132.5181748685</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3470031.5710435621</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3368962.6903335555</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>38621381.686831616</v>
       </c>
       <c r="AB14">
@@ -8411,86 +8429,86 @@
         <v>852</v>
       </c>
       <c r="AE14" s="10">
-        <f>AD14*AB14</f>
+        <f t="shared" si="2"/>
         <v>86904</v>
       </c>
       <c r="AF14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG14" s="11">
-        <f>AF14*AB14</f>
+        <f t="shared" si="3"/>
         <v>180080.18181818182</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI14" s="7">
-        <f>AH14*AB14</f>
+        <f t="shared" si="5"/>
         <v>17.34</v>
       </c>
       <c r="AJ14" s="2">
         <v>1710</v>
       </c>
       <c r="AK14" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>29651.4</v>
       </c>
       <c r="AL14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>296635.58181818185</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="17"/>
-        <v>29663.558181818185</v>
+        <f>($AL14)*(1/(1+discount_rate)^AM$1)</f>
+        <v>296635.58181818185</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="17"/>
-        <v>28799.571050308918</v>
+        <f>($AL14)*(1/(1+discount_rate)^AN$1)</f>
+        <v>287995.71050308918</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="17"/>
-        <v>27960.748592532931</v>
+        <f>($AL14)*(1/(1+discount_rate)^AO$1)</f>
+        <v>279607.48592532927</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="17"/>
-        <v>27146.35785682809</v>
+        <f>($AL14)*(1/(1+discount_rate)^AP$1)</f>
+        <v>271463.57856828085</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="17"/>
-        <v>26355.687239638923</v>
+        <f>($AL14)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>263556.8723963892</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="17"/>
-        <v>25588.045863727111</v>
+        <f>($AL14)*(1/(1+discount_rate)^AR$1)</f>
+        <v>255880.45863727111</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="17"/>
-        <v>24842.76297449234</v>
+        <f>($AL14)*(1/(1+discount_rate)^AS$1)</f>
+        <v>248427.62974492338</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="17"/>
-        <v>24119.187353876056</v>
+        <f>($AL14)*(1/(1+discount_rate)^AT$1)</f>
+        <v>241191.87353876056</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" si="17"/>
-        <v>23416.686751335976</v>
+        <f>($AL14)*(1/(1+discount_rate)^AU$1)</f>
+        <v>234166.86751335976</v>
       </c>
       <c r="AV14" s="2">
-        <f t="shared" si="17"/>
-        <v>22734.647331394153</v>
+        <f>($AL14)*(1/(1+discount_rate)^AV$1)</f>
+        <v>227346.47331394153</v>
       </c>
       <c r="AW14" s="15">
-        <f t="shared" si="15"/>
-        <v>260627.25319595268</v>
+        <f t="shared" si="19"/>
+        <v>2606272.5319595272</v>
       </c>
       <c r="AX14">
-        <f>AA14/(G14+AW14)</f>
-        <v>90.226911628262243</v>
+        <f t="shared" si="6"/>
+        <v>13.924175532010686</v>
       </c>
       <c r="AY14">
-        <f>AA14/G14</f>
+        <f t="shared" si="7"/>
         <v>230.68559124854627</v>
       </c>
     </row>
@@ -8514,22 +8532,22 @@
         <v>20</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>27180</v>
       </c>
       <c r="H15">
         <v>852</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2071212</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4291911</v>
       </c>
       <c r="L15" s="1">
@@ -8537,62 +8555,62 @@
         <v>0.17</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>413.27000000000004</v>
       </c>
       <c r="N15" s="2">
         <v>1710</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>706691.70000000007</v>
       </c>
       <c r="P15" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7069814.7000000002</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>706981.47</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>686389.77669902914</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>666397.84145536809</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>646988.19558773597</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>628143.87921139423</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>609848.42641882936</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>592085.8508920673</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>574840.63193404593</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>558097.70090684074</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>541842.42806489393</v>
       </c>
       <c r="AA15" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6211616.2011702042</v>
       </c>
       <c r="AB15">
@@ -8605,86 +8623,86 @@
         <v>852</v>
       </c>
       <c r="AE15" s="10">
-        <f>AD15*AB15</f>
+        <f t="shared" si="2"/>
         <v>40044</v>
       </c>
       <c r="AF15" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG15" s="11">
-        <f>AF15*AB15</f>
+        <f t="shared" si="3"/>
         <v>82978.122994652411</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI15" s="7">
-        <f>AH15*AB15</f>
+        <f t="shared" si="5"/>
         <v>7.99</v>
       </c>
       <c r="AJ15" s="2">
         <v>1710</v>
       </c>
       <c r="AK15" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>13662.9</v>
       </c>
       <c r="AL15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>136685.02299465242</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="17"/>
-        <v>13668.502299465243</v>
+        <f>($AL15)*(1/(1+discount_rate)^AM$1)</f>
+        <v>136685.02299465242</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="17"/>
-        <v>13270.39058200509</v>
+        <f>($AL15)*(1/(1+discount_rate)^AN$1)</f>
+        <v>132703.90582005089</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="17"/>
-        <v>12883.874351461252</v>
+        <f>($AL15)*(1/(1+discount_rate)^AO$1)</f>
+        <v>128838.74351461252</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="17"/>
-        <v>12508.6158752051</v>
+        <f>($AL15)*(1/(1+discount_rate)^AP$1)</f>
+        <v>125086.15875205099</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="17"/>
-        <v>12144.287257480681</v>
+        <f>($AL15)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>121442.8725748068</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="17"/>
-        <v>11790.570152893864</v>
+        <f>($AL15)*(1/(1+discount_rate)^AR$1)</f>
+        <v>117905.70152893865</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="17"/>
-        <v>11447.15548824647</v>
+        <f>($AL15)*(1/(1+discount_rate)^AS$1)</f>
+        <v>114471.5548824647</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="17"/>
-        <v>11113.743192472301</v>
+        <f>($AL15)*(1/(1+discount_rate)^AT$1)</f>
+        <v>111137.431924723</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" si="17"/>
-        <v>10790.041934439127</v>
+        <f>($AL15)*(1/(1+discount_rate)^AU$1)</f>
+        <v>107900.41934439127</v>
       </c>
       <c r="AV15" s="2">
-        <f t="shared" si="17"/>
-        <v>10475.768868387502</v>
+        <f>($AL15)*(1/(1+discount_rate)^AV$1)</f>
+        <v>104757.68868387502</v>
       </c>
       <c r="AW15" s="15">
-        <f t="shared" si="15"/>
-        <v>120092.95000205663</v>
+        <f t="shared" si="19"/>
+        <v>1200929.5000205659</v>
       </c>
       <c r="AX15">
-        <f>AA15/(G15+AW15)</f>
-        <v>42.177577084477903</v>
+        <f t="shared" si="6"/>
+        <v>5.0578683749830002</v>
       </c>
       <c r="AY15">
-        <f>AA15/G15</f>
+        <f t="shared" si="7"/>
         <v>228.53628407543061</v>
       </c>
     </row>
@@ -8708,22 +8726,22 @@
         <v>20</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>57980</v>
       </c>
       <c r="H16">
         <v>853</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4488486</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9290018.7914438508</v>
       </c>
       <c r="L16" s="1">
@@ -8731,62 +8749,62 @@
         <v>0.17</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>894.54000000000008</v>
       </c>
       <c r="N16" s="2">
         <v>1710</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1529663.4000000001</v>
       </c>
       <c r="P16" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15308168.191443851</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1530816.8191443852</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1486229.9214994032</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1442941.6713586438</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1400914.2440375183</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1360110.91654128</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1320496.035476971</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1282034.9858999718</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1244694.1610679335</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1208440.9330756636</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1173243.6243453047</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13449923.312447073</v>
       </c>
       <c r="AB16">
@@ -8799,86 +8817,86 @@
         <v>852</v>
       </c>
       <c r="AE16" s="10">
-        <f>AD16*AB16</f>
+        <f t="shared" si="2"/>
         <v>57936</v>
       </c>
       <c r="AF16" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG16" s="11">
-        <f>AF16*AB16</f>
+        <f t="shared" si="3"/>
         <v>120053.45454545454</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI16" s="7">
-        <f>AH16*AB16</f>
+        <f t="shared" si="5"/>
         <v>11.56</v>
       </c>
       <c r="AJ16" s="2">
         <v>1710</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>19767.600000000002</v>
       </c>
       <c r="AL16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>197757.05454545454</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="17"/>
-        <v>19775.705454545452</v>
+        <f>($AL16)*(1/(1+discount_rate)^AM$1)</f>
+        <v>197757.05454545454</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="17"/>
-        <v>19199.714033539272</v>
+        <f>($AL16)*(1/(1+discount_rate)^AN$1)</f>
+        <v>191997.14033539276</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="17"/>
-        <v>18640.499061688613</v>
+        <f>($AL16)*(1/(1+discount_rate)^AO$1)</f>
+        <v>186404.99061688618</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="17"/>
-        <v>18097.571904552053</v>
+        <f>($AL16)*(1/(1+discount_rate)^AP$1)</f>
+        <v>180975.71904552056</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="17"/>
-        <v>17570.458159759277</v>
+        <f>($AL16)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>175704.5815975928</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="17"/>
-        <v>17058.697242484737</v>
+        <f>($AL16)*(1/(1+discount_rate)^AR$1)</f>
+        <v>170586.97242484736</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="17"/>
-        <v>16561.841982994887</v>
+        <f>($AL16)*(1/(1+discount_rate)^AS$1)</f>
+        <v>165618.41982994889</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="17"/>
-        <v>16079.458235917367</v>
+        <f>($AL16)*(1/(1+discount_rate)^AT$1)</f>
+        <v>160794.58235917368</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="17"/>
-        <v>15611.124500890648</v>
+        <f>($AL16)*(1/(1+discount_rate)^AU$1)</f>
+        <v>156111.2450089065</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="17"/>
-        <v>15156.431554262765</v>
+        <f>($AL16)*(1/(1+discount_rate)^AV$1)</f>
+        <v>151564.31554262765</v>
       </c>
       <c r="AW16" s="15">
-        <f t="shared" si="15"/>
-        <v>173751.50213063505</v>
+        <f t="shared" si="19"/>
+        <v>1737515.0213063511</v>
       </c>
       <c r="AX16">
-        <f>AA16/(G16+AW16)</f>
-        <v>58.040979274647285</v>
+        <f t="shared" si="6"/>
+        <v>7.4909276566310341</v>
       </c>
       <c r="AY16">
-        <f>AA16/G16</f>
+        <f t="shared" si="7"/>
         <v>231.97522098046002</v>
       </c>
     </row>
@@ -8902,22 +8920,22 @@
         <v>20</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>226620</v>
       </c>
       <c r="H17">
         <v>854</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>17291792</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>35747681.582887702</v>
       </c>
       <c r="L17" s="1">
@@ -8925,62 +8943,62 @@
         <v>0.17</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3442.1600000000003</v>
       </c>
       <c r="N17" s="2">
         <v>1710</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5886093.6000000006</v>
       </c>
       <c r="P17" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>58925567.182887703</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5892556.7182887699</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5720928.8527075434</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5554299.8569976147</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5392524.1330073932</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5235460.3233081494</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5082971.1876778156</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4934923.4831823446</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4791187.8477498489</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4651638.6871357756</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4516154.065180365</v>
       </c>
       <c r="AA17" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>51772645.155235618</v>
       </c>
       <c r="AB17">
@@ -8993,86 +9011,86 @@
         <v>852</v>
       </c>
       <c r="AE17" s="10">
-        <f>AD17*AB17</f>
+        <f t="shared" si="2"/>
         <v>80940</v>
       </c>
       <c r="AF17" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG17" s="11">
-        <f>AF17*AB17</f>
+        <f t="shared" si="3"/>
         <v>167721.73796791444</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI17" s="7">
-        <f>AH17*AB17</f>
+        <f t="shared" si="5"/>
         <v>16.150000000000002</v>
       </c>
       <c r="AJ17" s="2">
         <v>1710</v>
       </c>
       <c r="AK17" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>27616.500000000004</v>
       </c>
       <c r="AL17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>276278.23796791444</v>
       </c>
       <c r="AM17" s="2">
-        <f t="shared" si="17"/>
-        <v>27627.823796791443</v>
+        <f>($AL17)*(1/(1+discount_rate)^AM$1)</f>
+        <v>276278.23796791444</v>
       </c>
       <c r="AN17" s="2">
-        <f t="shared" si="17"/>
-        <v>26823.129899797517</v>
+        <f>($AL17)*(1/(1+discount_rate)^AN$1)</f>
+        <v>268231.29899797519</v>
       </c>
       <c r="AO17" s="2">
-        <f t="shared" si="17"/>
-        <v>26041.873689123804</v>
+        <f>($AL17)*(1/(1+discount_rate)^AO$1)</f>
+        <v>260418.73689123805</v>
       </c>
       <c r="AP17" s="2">
-        <f t="shared" si="17"/>
-        <v>25283.372513712431</v>
+        <f>($AL17)*(1/(1+discount_rate)^AP$1)</f>
+        <v>252833.72513712433</v>
       </c>
       <c r="AQ17" s="2">
-        <f t="shared" si="17"/>
-        <v>24546.963605546051</v>
+        <f>($AL17)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>245469.63605546052</v>
       </c>
       <c r="AR17" s="2">
-        <f t="shared" si="17"/>
-        <v>23832.003500530147</v>
+        <f>($AL17)*(1/(1+discount_rate)^AR$1)</f>
+        <v>238320.0350053015</v>
       </c>
       <c r="AS17" s="2">
-        <f t="shared" si="17"/>
-        <v>23137.86747624286</v>
+        <f>($AL17)*(1/(1+discount_rate)^AS$1)</f>
+        <v>231378.67476242862</v>
       </c>
       <c r="AT17" s="2">
-        <f t="shared" si="17"/>
-        <v>22463.94900606103</v>
+        <f>($AL17)*(1/(1+discount_rate)^AT$1)</f>
+        <v>224639.49006061029</v>
       </c>
       <c r="AU17" s="2">
-        <f t="shared" si="17"/>
-        <v>21809.659229185465</v>
+        <f>($AL17)*(1/(1+discount_rate)^AU$1)</f>
+        <v>218096.59229185467</v>
       </c>
       <c r="AV17" s="2">
-        <f t="shared" si="17"/>
-        <v>21174.426436102396</v>
+        <f>($AL17)*(1/(1+discount_rate)^AV$1)</f>
+        <v>211744.26436102396</v>
       </c>
       <c r="AW17" s="15">
-        <f t="shared" si="15"/>
-        <v>242741.06915309315</v>
+        <f t="shared" si="19"/>
+        <v>2427410.6915309313</v>
       </c>
       <c r="AX17">
-        <f>AA17/(G17+AW17)</f>
-        <v>110.30451513299403</v>
+        <f t="shared" si="6"/>
+        <v>19.507176507205902</v>
       </c>
       <c r="AY17">
-        <f>AA17/G17</f>
+        <f t="shared" si="7"/>
         <v>228.45576363619989</v>
       </c>
     </row>
@@ -9096,22 +9114,22 @@
         <v>20</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14400</v>
       </c>
       <c r="H18">
         <v>855</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1150830</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2376352.2032085559</v>
       </c>
       <c r="L18" s="1">
@@ -9119,62 +9137,62 @@
         <v>0.17</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>228.82000000000002</v>
       </c>
       <c r="N18" s="2">
         <v>1710</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>391282.2</v>
       </c>
       <c r="P18" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3918464.4032085561</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>391846.44032085559</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>380433.43720471417</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>369352.85165506229</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>358595.00160685659</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>348150.4869969482</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>338010.18155043514</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>328165.22480624769</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>318607.01437499776</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>309327.19842232793</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>300317.66837119218</v>
       </c>
       <c r="AA18" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3442805.5053096381</v>
       </c>
       <c r="AB18">
@@ -9187,86 +9205,86 @@
         <v>852</v>
       </c>
       <c r="AE18" s="10">
-        <f>AD18*AB18</f>
+        <f t="shared" si="2"/>
         <v>50268</v>
       </c>
       <c r="AF18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG18" s="11">
-        <f>AF18*AB18</f>
+        <f t="shared" si="3"/>
         <v>104164.02673796791</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI18" s="7">
-        <f>AH18*AB18</f>
+        <f t="shared" si="5"/>
         <v>10.030000000000001</v>
       </c>
       <c r="AJ18" s="2">
         <v>1710</v>
       </c>
       <c r="AK18" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>17151.300000000003</v>
       </c>
       <c r="AL18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>171583.3267379679</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="17"/>
-        <v>17158.332673796791</v>
+        <f>($AL18)*(1/(1+discount_rate)^AM$1)</f>
+        <v>171583.3267379679</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="17"/>
-        <v>16658.575411453196</v>
+        <f>($AL18)*(1/(1+discount_rate)^AN$1)</f>
+        <v>166585.75411453194</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="17"/>
-        <v>16173.374185876888</v>
+        <f>($AL18)*(1/(1+discount_rate)^AO$1)</f>
+        <v>161733.74185876889</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="17"/>
-        <v>15702.30503483193</v>
+        <f>($AL18)*(1/(1+discount_rate)^AP$1)</f>
+        <v>157023.05034831932</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="17"/>
-        <v>15244.956344497021</v>
+        <f>($AL18)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>152449.5634449702</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="17"/>
-        <v>14800.928489802935</v>
+        <f>($AL18)*(1/(1+discount_rate)^AR$1)</f>
+        <v>148009.28489802932</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="17"/>
-        <v>14369.833485245566</v>
+        <f>($AL18)*(1/(1+discount_rate)^AS$1)</f>
+        <v>143698.33485245565</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="17"/>
-        <v>13951.294645869481</v>
+        <f>($AL18)*(1/(1+discount_rate)^AT$1)</f>
+        <v>139512.94645869482</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="17"/>
-        <v>13544.94625812571</v>
+        <f>($AL18)*(1/(1+discount_rate)^AU$1)</f>
+        <v>135449.4625812571</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="17"/>
-        <v>13150.433260316224</v>
+        <f>($AL18)*(1/(1+discount_rate)^AV$1)</f>
+        <v>131504.33260316224</v>
       </c>
       <c r="AW18" s="15">
-        <f t="shared" si="15"/>
-        <v>150754.97978981576</v>
+        <f t="shared" si="19"/>
+        <v>1507549.797898157</v>
       </c>
       <c r="AX18">
-        <f>AA18/(G18+AW18)</f>
-        <v>20.845907944714227</v>
+        <f t="shared" si="6"/>
+        <v>2.2621018840859408</v>
       </c>
       <c r="AY18">
-        <f>AA18/G18</f>
+        <f t="shared" si="7"/>
         <v>239.08371564650264</v>
       </c>
     </row>
@@ -9290,22 +9308,22 @@
         <v>20</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>345820</v>
       </c>
       <c r="H19">
         <v>856</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26342544</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>54331250.14973262</v>
       </c>
       <c r="L19" s="1">
@@ -9313,62 +9331,62 @@
         <v>0.17</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5231.58</v>
       </c>
       <c r="N19" s="2">
         <v>1710</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8946001.8000000007</v>
       </c>
       <c r="P19" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>89619795.949732617</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8961979.5949732624</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8700951.063080838</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8447525.3039619774</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8201480.8776329886</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7962602.7938184356</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7730682.3240955696</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7505516.8195102615</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7286909.5335051073</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7074669.4500049585</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6868611.1165096695</v>
       </c>
       <c r="AA19" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>78740928.877093077</v>
       </c>
       <c r="AB19">
@@ -9381,86 +9399,86 @@
         <v>852</v>
       </c>
       <c r="AE19" s="10">
-        <f>AD19*AB19</f>
+        <f t="shared" si="2"/>
         <v>59640</v>
       </c>
       <c r="AF19" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG19" s="11">
-        <f>AF19*AB19</f>
+        <f t="shared" si="3"/>
         <v>123584.4385026738</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI19" s="7">
-        <f>AH19*AB19</f>
+        <f t="shared" si="5"/>
         <v>11.9</v>
       </c>
       <c r="AJ19" s="2">
         <v>1710</v>
       </c>
       <c r="AK19" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20349</v>
       </c>
       <c r="AL19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>203573.43850267382</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" si="17"/>
-        <v>20357.343850267382</v>
+        <f>($AL19)*(1/(1+discount_rate)^AM$1)</f>
+        <v>203573.43850267382</v>
       </c>
       <c r="AN19" s="2">
-        <f t="shared" si="17"/>
-        <v>19764.411505113963</v>
+        <f>($AL19)*(1/(1+discount_rate)^AN$1)</f>
+        <v>197644.11505113964</v>
       </c>
       <c r="AO19" s="2">
-        <f t="shared" si="17"/>
-        <v>19188.749034091226</v>
+        <f>($AL19)*(1/(1+discount_rate)^AO$1)</f>
+        <v>191887.49034091225</v>
       </c>
       <c r="AP19" s="2">
-        <f t="shared" si="17"/>
-        <v>18629.853431156531</v>
+        <f>($AL19)*(1/(1+discount_rate)^AP$1)</f>
+        <v>186298.53431156531</v>
       </c>
       <c r="AQ19" s="2">
-        <f t="shared" si="17"/>
-        <v>18087.236340928674</v>
+        <f>($AL19)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>180872.36340928671</v>
       </c>
       <c r="AR19" s="2">
-        <f t="shared" si="17"/>
-        <v>17560.423631969585</v>
+        <f>($AL19)*(1/(1+discount_rate)^AR$1)</f>
+        <v>175604.23631969586</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="17"/>
-        <v>17048.954982494743</v>
+        <f>($AL19)*(1/(1+discount_rate)^AS$1)</f>
+        <v>170489.54982494743</v>
       </c>
       <c r="AT19" s="2">
-        <f t="shared" si="17"/>
-        <v>16552.383478150234</v>
+        <f>($AL19)*(1/(1+discount_rate)^AT$1)</f>
+        <v>165523.83478150234</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" si="17"/>
-        <v>16070.275221505082</v>
+        <f>($AL19)*(1/(1+discount_rate)^AU$1)</f>
+        <v>160702.75221505083</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" si="17"/>
-        <v>15602.208952917556</v>
+        <f>($AL19)*(1/(1+discount_rate)^AV$1)</f>
+        <v>156022.08952917557</v>
       </c>
       <c r="AW19" s="15">
-        <f t="shared" si="15"/>
-        <v>178861.84042859497</v>
+        <f t="shared" si="19"/>
+        <v>1788618.4042859499</v>
       </c>
       <c r="AX19">
-        <f>AA19/(G19+AW19)</f>
-        <v>150.07366905012807</v>
+        <f t="shared" si="6"/>
+        <v>36.890700953928395</v>
       </c>
       <c r="AY19">
-        <f>AA19/G19</f>
+        <f t="shared" si="7"/>
         <v>227.69339216093076</v>
       </c>
     </row>
@@ -9484,22 +9502,22 @@
         <v>20</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13700</v>
       </c>
       <c r="H20">
         <v>857</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1084105</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2233347.3529411764</v>
       </c>
       <c r="L20" s="1">
@@ -9507,62 +9525,62 @@
         <v>0.17</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>215.05</v>
       </c>
       <c r="N20" s="2">
         <v>1710</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>367735.5</v>
       </c>
       <c r="P20" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3685187.8529411764</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>368518.78529411764</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>357785.2284408909</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>347364.29945717566</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>337246.89267686958</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>327424.16764744621</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>317887.54140528757</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>308628.68097600737</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>299639.496093211</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>290912.13212933106</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>282438.96323236031</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3237846.1873526969</v>
       </c>
       <c r="AB20">
@@ -9575,86 +9593,86 @@
         <v>852</v>
       </c>
       <c r="AE20" s="10">
-        <f>AD20*AB20</f>
+        <f t="shared" si="2"/>
         <v>42600</v>
       </c>
       <c r="AF20" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG20" s="11">
-        <f>AF20*AB20</f>
+        <f t="shared" si="3"/>
         <v>88274.598930481283</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI20" s="7">
-        <f>AH20*AB20</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="AJ20" s="2">
         <v>1710</v>
       </c>
       <c r="AK20" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>14535</v>
       </c>
       <c r="AL20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>145409.5989304813</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="17"/>
-        <v>14540.95989304813</v>
+        <f>($AL20)*(1/(1+discount_rate)^AM$1)</f>
+        <v>145409.5989304813</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="17"/>
-        <v>14117.436789367117</v>
+        <f>($AL20)*(1/(1+discount_rate)^AN$1)</f>
+        <v>141174.36789367115</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="17"/>
-        <v>13706.249310065161</v>
+        <f>($AL20)*(1/(1+discount_rate)^AO$1)</f>
+        <v>137062.49310065163</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" si="17"/>
-        <v>13307.038165111808</v>
+        <f>($AL20)*(1/(1+discount_rate)^AP$1)</f>
+        <v>133070.38165111808</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="17"/>
-        <v>12919.454529234765</v>
+        <f>($AL20)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>129194.54529234766</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" si="17"/>
-        <v>12543.159737121132</v>
+        <f>($AL20)*(1/(1+discount_rate)^AR$1)</f>
+        <v>125431.59737121132</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="17"/>
-        <v>12177.824987496244</v>
+        <f>($AL20)*(1/(1+discount_rate)^AS$1)</f>
+        <v>121778.24987496245</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="17"/>
-        <v>11823.131055821596</v>
+        <f>($AL20)*(1/(1+discount_rate)^AT$1)</f>
+        <v>118231.31055821596</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="17"/>
-        <v>11478.768015360773</v>
+        <f>($AL20)*(1/(1+discount_rate)^AU$1)</f>
+        <v>114787.68015360773</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="17"/>
-        <v>11144.434966369683</v>
+        <f>($AL20)*(1/(1+discount_rate)^AV$1)</f>
+        <v>111444.34966369683</v>
       </c>
       <c r="AW20" s="15">
-        <f t="shared" si="15"/>
-        <v>127758.4574489964</v>
+        <f t="shared" si="19"/>
+        <v>1277584.5744899642</v>
       </c>
       <c r="AX20">
-        <f>AA20/(G20+AW20)</f>
-        <v>22.889025129657728</v>
+        <f t="shared" si="6"/>
+        <v>2.5074613693357191</v>
       </c>
       <c r="AY20">
-        <f>AA20/G20</f>
+        <f t="shared" si="7"/>
         <v>236.33913776297058</v>
       </c>
     </row>
@@ -9685,15 +9703,15 @@
         <v>858</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2170740</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4466694.7058823528</v>
       </c>
       <c r="L21" s="1">
@@ -9701,62 +9719,62 @@
         <v>0.17</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>430.1</v>
       </c>
       <c r="N21" s="2">
         <v>1710</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>735471</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7372905.7058823528</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>737290.57058823528</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>715816.08794974303</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>694967.07567936217</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>674725.31619355548</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>655073.12251801509</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>635993.32283302431</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>617469.24546895572</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>599484.7043387919</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>582023.98479494359</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>565071.82989800349</v>
       </c>
       <c r="AA21" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6477915.2602626299</v>
       </c>
       <c r="AB21">
@@ -9769,86 +9787,86 @@
         <v>852</v>
       </c>
       <c r="AE21" s="10">
-        <f>AD21*AB21</f>
+        <f t="shared" si="2"/>
         <v>49416</v>
       </c>
       <c r="AF21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG21" s="11">
-        <f>AF21*AB21</f>
+        <f t="shared" si="3"/>
         <v>102398.53475935828</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="AI21" s="7">
-        <f>AH21*AB21</f>
+        <f t="shared" si="5"/>
         <v>9.8600000000000012</v>
       </c>
       <c r="AJ21" s="2">
         <v>1710</v>
       </c>
       <c r="AK21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>16860.600000000002</v>
       </c>
       <c r="AL21" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>168675.13475935828</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="17"/>
-        <v>16867.513475935826</v>
+        <f>($AL21)*(1/(1+discount_rate)^AM$1)</f>
+        <v>168675.13475935828</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="17"/>
-        <v>16376.22667566585</v>
+        <f>($AL21)*(1/(1+discount_rate)^AN$1)</f>
+        <v>163762.26675665853</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="17"/>
-        <v>15899.249199675583</v>
+        <f>($AL21)*(1/(1+discount_rate)^AO$1)</f>
+        <v>158992.49199675585</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" si="17"/>
-        <v>15436.164271529693</v>
+        <f>($AL21)*(1/(1+discount_rate)^AP$1)</f>
+        <v>154361.64271529694</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="17"/>
-        <v>14986.567253912324</v>
+        <f>($AL21)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>149865.67253912325</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="17"/>
-        <v>14550.065295060509</v>
+        <f>($AL21)*(1/(1+discount_rate)^AR$1)</f>
+        <v>145500.65295060512</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="17"/>
-        <v>14126.27698549564</v>
+        <f>($AL21)*(1/(1+discount_rate)^AS$1)</f>
+        <v>141262.76985495642</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="17"/>
-        <v>13714.832024753048</v>
+        <f>($AL21)*(1/(1+discount_rate)^AT$1)</f>
+        <v>137148.3202475305</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" si="17"/>
-        <v>13315.370897818493</v>
+        <f>($AL21)*(1/(1+discount_rate)^AU$1)</f>
+        <v>133153.70897818494</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="17"/>
-        <v>12927.544560988828</v>
+        <f>($AL21)*(1/(1+discount_rate)^AV$1)</f>
+        <v>129275.44560988829</v>
       </c>
       <c r="AW21" s="15">
-        <f t="shared" si="15"/>
-        <v>148199.81064083581</v>
+        <f t="shared" si="19"/>
+        <v>1481998.1064083581</v>
       </c>
       <c r="AX21">
-        <f>AA21/(G21+AW21)</f>
-        <v>36.856635408536107</v>
+        <f t="shared" si="6"/>
+        <v>4.2912659226317036</v>
       </c>
       <c r="AY21">
-        <f>AA21/G21</f>
+        <f t="shared" si="7"/>
         <v>235.04772352186612</v>
       </c>
     </row>
@@ -10028,7 +10046,7 @@
         <v>55010964.561497323</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" ref="L24:L43" si="18">0.17</f>
+        <f t="shared" ref="L24:L43" si="21">0.17</f>
         <v>0.17</v>
       </c>
       <c r="M24" s="7">
@@ -10047,47 +10065,47 @@
         <v>90616353.861497328</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" ref="Q24:Z33" si="19">($P24/10)*(1/(1+discount_rate)^Q$1)</f>
+        <f t="shared" ref="Q24:Z33" si="22">($P24/10)*(1/(1+discount_rate)^Q$1)</f>
         <v>9061635.3861497324</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8797704.258397799</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8541460.4450464062</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8292680.0437343754</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8051145.6735285204</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7816646.284979146</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7588976.9757079091</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7367938.8113669008</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7153338.6518125255</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6944988.9823422581</v>
       </c>
       <c r="AA24" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>79616515.513065577</v>
       </c>
       <c r="AB24">
@@ -10100,7 +10118,7 @@
         <v>852</v>
       </c>
       <c r="AE24" s="10">
-        <f>AD24*AB24</f>
+        <f t="shared" ref="AE24:AE43" si="23">AD24*AB24</f>
         <v>69864</v>
       </c>
       <c r="AF24" s="7">
@@ -10108,15 +10126,15 @@
         <v>1765.4919786096257</v>
       </c>
       <c r="AG24" s="11">
-        <f>AF24*AB24</f>
+        <f t="shared" ref="AG24:AG43" si="24">AF24*AB24</f>
         <v>144770.3422459893</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24:AH43" si="20">0.17</f>
+        <f t="shared" ref="AH24:AH43" si="25">0.17</f>
         <v>0.17</v>
       </c>
       <c r="AI24" s="7">
-        <f>AH24*AB24</f>
+        <f t="shared" ref="AI24:AI43" si="26">AH24*AB24</f>
         <v>13.940000000000001</v>
       </c>
       <c r="AJ24" s="2">
@@ -10131,55 +10149,55 @@
         <v>238471.7422459893</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AV33" si="21">($AL24/10)*(1/(1+discount_rate)^AM$1)</f>
-        <v>23847.17422459893</v>
+        <f>($AL24)*(1/(1+discount_rate)^AM$1)</f>
+        <v>238471.7422459893</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="21"/>
-        <v>23152.596334562069</v>
+        <f>($AL24)*(1/(1+discount_rate)^AN$1)</f>
+        <v>231525.96334562069</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="21"/>
-        <v>22478.24886850686</v>
+        <f>($AL24)*(1/(1+discount_rate)^AO$1)</f>
+        <v>224782.48868506862</v>
       </c>
       <c r="AP24" s="2">
-        <f t="shared" si="21"/>
-        <v>21823.542590783363</v>
+        <f>($AL24)*(1/(1+discount_rate)^AP$1)</f>
+        <v>218235.42590783362</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" si="21"/>
-        <v>21187.905427945014</v>
+        <f>($AL24)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>211879.05427945012</v>
       </c>
       <c r="AR24" s="2">
-        <f t="shared" si="21"/>
-        <v>20570.781968878655</v>
+        <f>($AL24)*(1/(1+discount_rate)^AR$1)</f>
+        <v>205707.81968878655</v>
       </c>
       <c r="AS24" s="2">
-        <f t="shared" si="21"/>
-        <v>19971.632979493839</v>
+        <f>($AL24)*(1/(1+discount_rate)^AS$1)</f>
+        <v>199716.32979493839</v>
       </c>
       <c r="AT24" s="2">
-        <f t="shared" si="21"/>
-        <v>19389.934931547414</v>
+        <f>($AL24)*(1/(1+discount_rate)^AT$1)</f>
+        <v>193899.34931547416</v>
       </c>
       <c r="AU24" s="2">
-        <f t="shared" si="21"/>
-        <v>18825.179545191666</v>
+        <f>($AL24)*(1/(1+discount_rate)^AU$1)</f>
+        <v>188251.79545191664</v>
       </c>
       <c r="AV24" s="2">
-        <f t="shared" si="21"/>
-        <v>18276.873344846277</v>
+        <f>($AL24)*(1/(1+discount_rate)^AV$1)</f>
+        <v>182768.73344846276</v>
       </c>
       <c r="AW24" s="15">
-        <f t="shared" ref="AW24:AW43" si="22">SUM(AM24:AV24)</f>
-        <v>209523.87021635409</v>
+        <f t="shared" ref="AW24:AW43" si="27">SUM(AM24:AV24)</f>
+        <v>2095238.702163541</v>
       </c>
       <c r="AX24">
-        <f>AA24/(G24+AW24)</f>
-        <v>72.017002669950855</v>
+        <f t="shared" ref="AX24:AX43" si="28">AA24/(G24+AW24)</f>
+        <v>26.616570404588419</v>
       </c>
       <c r="AY24">
-        <f>AA24/G24</f>
+        <f t="shared" ref="AY24:AY43" si="29">AA24/G24</f>
         <v>88.857718206546409</v>
       </c>
     </row>
@@ -10203,22 +10221,22 @@
         <v>50</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G42" si="23">F25*E25</f>
+        <f t="shared" ref="G25:G42" si="30">F25*E25</f>
         <v>229250</v>
       </c>
       <c r="H25">
         <v>852</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" ref="I25:I43" si="24">H25*D25</f>
+        <f t="shared" ref="I25:I43" si="31">H25*D25</f>
         <v>7188324</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" ref="J25:J43" si="25">330147/187</f>
+        <f t="shared" ref="J25:J43" si="32">330147/187</f>
         <v>1765.4919786096257</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" ref="K25:K43" si="26">J25*D25</f>
+        <f t="shared" ref="K25:K43" si="33">J25*D25</f>
         <v>14895455.823529411</v>
       </c>
       <c r="L25" s="1">
@@ -10226,62 +10244,62 @@
         <v>0.17</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" ref="M25:M43" si="27">L25*D25</f>
+        <f t="shared" ref="M25:M43" si="34">L25*D25</f>
         <v>1434.2900000000002</v>
       </c>
       <c r="N25" s="2">
         <v>1710</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25:O43" si="28">N25*M25</f>
+        <f t="shared" ref="O25:O43" si="35">N25*M25</f>
         <v>2452635.9000000004</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" ref="P25:P43" si="29">I25+K25+O25</f>
+        <f t="shared" ref="P25:P43" si="36">I25+K25+O25</f>
         <v>24536415.723529413</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2453641.5723529411</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2382176.2838378069</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2312792.508580395</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2245429.6199809662</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2180028.7572630742</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2116532.7740418194</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2054886.188390116</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1995035.1343593358</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1936927.3149119767</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1880511.9562252201</v>
       </c>
       <c r="AA25" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21557962.109943651</v>
       </c>
       <c r="AB25">
@@ -10294,15 +10312,15 @@
         <v>852</v>
       </c>
       <c r="AE25" s="10">
-        <f>AD25*AB25</f>
+        <f t="shared" si="23"/>
         <v>60492</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" ref="AF25:AF43" si="30">330147/187</f>
+        <f t="shared" ref="AF25:AF43" si="37">330147/187</f>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG25" s="11">
-        <f>AF25*AB25</f>
+        <f t="shared" si="24"/>
         <v>125349.93048128342</v>
       </c>
       <c r="AH25" s="1">
@@ -10310,70 +10328,70 @@
         <v>0.17</v>
       </c>
       <c r="AI25" s="7">
-        <f>AH25*AB25</f>
+        <f t="shared" si="26"/>
         <v>12.07</v>
       </c>
       <c r="AJ25" s="2">
         <v>1710</v>
       </c>
       <c r="AK25" s="10">
-        <f t="shared" ref="AK25:AK43" si="31">AJ25*AI25</f>
+        <f t="shared" ref="AK25:AK43" si="38">AJ25*AI25</f>
         <v>20639.7</v>
       </c>
       <c r="AL25" s="13">
-        <f t="shared" ref="AL25:AL43" si="32">AE25+AG25+AK25</f>
+        <f t="shared" ref="AL25:AL43" si="39">AE25+AG25+AK25</f>
         <v>206481.63048128341</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="21"/>
-        <v>20648.163048128343</v>
+        <f>($AL25)*(1/(1+discount_rate)^AM$1)</f>
+        <v>206481.63048128341</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="21"/>
-        <v>20046.760240901305</v>
+        <f>($AL25)*(1/(1+discount_rate)^AN$1)</f>
+        <v>200467.60240901302</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="21"/>
-        <v>19462.874020292529</v>
+        <f>($AL25)*(1/(1+discount_rate)^AO$1)</f>
+        <v>194628.74020292526</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="21"/>
-        <v>18895.994194458766</v>
+        <f>($AL25)*(1/(1+discount_rate)^AP$1)</f>
+        <v>188959.94194458766</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="21"/>
-        <v>18345.625431513366</v>
+        <f>($AL25)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>183456.25431513364</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="21"/>
-        <v>17811.286826712007</v>
+        <f>($AL25)*(1/(1+discount_rate)^AR$1)</f>
+        <v>178112.86826712004</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="21"/>
-        <v>17292.511482244667</v>
+        <f>($AL25)*(1/(1+discount_rate)^AS$1)</f>
+        <v>172925.11482244666</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="21"/>
-        <v>16788.846099266666</v>
+        <f>($AL25)*(1/(1+discount_rate)^AT$1)</f>
+        <v>167888.46099266663</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="21"/>
-        <v>16299.850581812296</v>
+        <f>($AL25)*(1/(1+discount_rate)^AU$1)</f>
+        <v>162998.50581812294</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="21"/>
-        <v>15825.097652244949</v>
+        <f>($AL25)*(1/(1+discount_rate)^AV$1)</f>
+        <v>158250.97652244946</v>
       </c>
       <c r="AW25" s="15">
-        <f t="shared" si="22"/>
-        <v>181417.00957757491</v>
+        <f t="shared" si="27"/>
+        <v>1814170.0957757486</v>
       </c>
       <c r="AX25">
-        <f>AA25/(G25+AW25)</f>
-        <v>52.494993771520271</v>
+        <f t="shared" si="28"/>
+        <v>10.549941323621734</v>
       </c>
       <c r="AY25">
-        <f>AA25/G25</f>
+        <f t="shared" si="29"/>
         <v>94.036912148063905</v>
       </c>
     </row>
@@ -10397,85 +10415,85 @@
         <v>50</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>684350</v>
       </c>
       <c r="H26">
         <v>852</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>21040140</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>43598824.411764704</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>4198.1500000000005</v>
       </c>
       <c r="N26" s="2">
         <v>1710</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>7178836.5000000009</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>71817800.911764711</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7181780.0911764707</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6972602.0302684186</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6769516.5342411827</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6572346.1497487212</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6380918.5919890506</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6195066.5941641266</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6014627.7613243945</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5839444.4284702856</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5669363.5227866853</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5504236.4298899863</v>
       </c>
       <c r="AA26" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>63099902.13405931</v>
       </c>
       <c r="AB26">
@@ -10488,86 +10506,86 @@
         <v>852</v>
       </c>
       <c r="AE26" s="10">
-        <f>AD26*AB26</f>
+        <f t="shared" si="23"/>
         <v>52824</v>
       </c>
       <c r="AF26" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG26" s="11">
-        <f>AF26*AB26</f>
+        <f t="shared" si="24"/>
         <v>109460.50267379679</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI26" s="7">
-        <f>AH26*AB26</f>
+        <f t="shared" si="26"/>
         <v>10.540000000000001</v>
       </c>
       <c r="AJ26" s="2">
         <v>1710</v>
       </c>
       <c r="AK26" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>18023.400000000001</v>
       </c>
       <c r="AL26" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>180307.90267379678</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="21"/>
-        <v>18030.790267379678</v>
+        <f>($AL26)*(1/(1+discount_rate)^AM$1)</f>
+        <v>180307.90267379678</v>
       </c>
       <c r="AN26" s="2">
-        <f t="shared" si="21"/>
-        <v>17505.621618815221</v>
+        <f>($AL26)*(1/(1+discount_rate)^AN$1)</f>
+        <v>175056.2161881522</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="21"/>
-        <v>16995.749144480797</v>
+        <f>($AL26)*(1/(1+discount_rate)^AO$1)</f>
+        <v>169957.49144480797</v>
       </c>
       <c r="AP26" s="2">
-        <f t="shared" si="21"/>
-        <v>16500.72732473864</v>
+        <f>($AL26)*(1/(1+discount_rate)^AP$1)</f>
+        <v>165007.27324738639</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" si="21"/>
-        <v>16020.123616251107</v>
+        <f>($AL26)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>160201.23616251108</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" si="21"/>
-        <v>15553.518074030202</v>
+        <f>($AL26)*(1/(1+discount_rate)^AR$1)</f>
+        <v>155535.18074030202</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="21"/>
-        <v>15100.502984495341</v>
+        <f>($AL26)*(1/(1+discount_rate)^AS$1)</f>
+        <v>151005.02984495342</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="21"/>
-        <v>14660.682509218776</v>
+        <f>($AL26)*(1/(1+discount_rate)^AT$1)</f>
+        <v>146606.82509218776</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="21"/>
-        <v>14233.672339047356</v>
+        <f>($AL26)*(1/(1+discount_rate)^AU$1)</f>
+        <v>142336.72339047355</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="21"/>
-        <v>13819.099358298405</v>
+        <f>($AL26)*(1/(1+discount_rate)^AV$1)</f>
+        <v>138190.99358298405</v>
       </c>
       <c r="AW26" s="15">
-        <f t="shared" si="22"/>
-        <v>158420.48723675552</v>
+        <f t="shared" si="27"/>
+        <v>1584204.8723675553</v>
       </c>
       <c r="AX26">
-        <f>AA26/(G26+AW26)</f>
-        <v>74.871988387904892</v>
+        <f t="shared" si="28"/>
+        <v>27.815021317163779</v>
       </c>
       <c r="AY26">
-        <f>AA26/G26</f>
+        <f t="shared" si="29"/>
         <v>92.204138429253035</v>
       </c>
     </row>
@@ -10591,85 +10609,85 @@
         <v>50</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>523050</v>
       </c>
       <c r="H27">
         <v>852</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>15679356</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>32490348.882352941</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>3128.51</v>
       </c>
       <c r="N27" s="2">
         <v>1710</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>5349752.1000000006</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>53519456.982352942</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5351945.6982352939</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5196063.7846944602</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5044722.1210625824</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4897788.4670510516</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4755134.4340301473</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4616635.3728448031</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4482170.2648978671</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4351621.6164056957</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4224875.3557336852</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4101820.7337220251</v>
       </c>
       <c r="AA27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>47022777.848677605</v>
       </c>
       <c r="AB27">
@@ -10682,86 +10700,86 @@
         <v>852</v>
       </c>
       <c r="AE27" s="10">
-        <f>AD27*AB27</f>
+        <f t="shared" si="23"/>
         <v>81792</v>
       </c>
       <c r="AF27" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG27" s="11">
-        <f>AF27*AB27</f>
+        <f t="shared" si="24"/>
         <v>169487.22994652408</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI27" s="7">
-        <f>AH27*AB27</f>
+        <f t="shared" si="26"/>
         <v>16.32</v>
       </c>
       <c r="AJ27" s="2">
         <v>1710</v>
       </c>
       <c r="AK27" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>27907.200000000001</v>
       </c>
       <c r="AL27" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>279186.42994652409</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="21"/>
-        <v>27918.642994652408</v>
+        <f>($AL27)*(1/(1+discount_rate)^AM$1)</f>
+        <v>279186.42994652409</v>
       </c>
       <c r="AN27" s="2">
-        <f t="shared" si="21"/>
-        <v>27105.478635584863</v>
+        <f>($AL27)*(1/(1+discount_rate)^AN$1)</f>
+        <v>271054.78635584866</v>
       </c>
       <c r="AO27" s="2">
-        <f t="shared" si="21"/>
-        <v>26315.998675325107</v>
+        <f>($AL27)*(1/(1+discount_rate)^AO$1)</f>
+        <v>263159.98675325111</v>
       </c>
       <c r="AP27" s="2">
-        <f t="shared" si="21"/>
-        <v>25549.51327701467</v>
+        <f>($AL27)*(1/(1+discount_rate)^AP$1)</f>
+        <v>255495.13277014671</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="21"/>
-        <v>24805.352696130747</v>
+        <f>($AL27)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>248053.52696130751</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" si="21"/>
-        <v>24082.866695272573</v>
+        <f>($AL27)*(1/(1+discount_rate)^AR$1)</f>
+        <v>240828.66695272573</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="21"/>
-        <v>23381.423975992788</v>
+        <f>($AL27)*(1/(1+discount_rate)^AS$1)</f>
+        <v>233814.23975992791</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="21"/>
-        <v>22700.411627177462</v>
+        <f>($AL27)*(1/(1+discount_rate)^AT$1)</f>
+        <v>227004.11627177463</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="21"/>
-        <v>22039.234589492684</v>
+        <f>($AL27)*(1/(1+discount_rate)^AU$1)</f>
+        <v>220392.34589492684</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="21"/>
-        <v>21397.315135429792</v>
+        <f>($AL27)*(1/(1+discount_rate)^AV$1)</f>
+        <v>213973.15135429791</v>
       </c>
       <c r="AW27" s="15">
-        <f t="shared" si="22"/>
-        <v>245296.23830207309</v>
+        <f t="shared" si="27"/>
+        <v>2452962.3830207312</v>
       </c>
       <c r="AX27">
-        <f>AA27/(G27+AW27)</f>
-        <v>61.199984466105676</v>
+        <f t="shared" si="28"/>
+        <v>15.800598854010225</v>
       </c>
       <c r="AY27">
-        <f>AA27/G27</f>
+        <f t="shared" si="29"/>
         <v>89.901114326885775</v>
       </c>
     </row>
@@ -10785,85 +10803,85 @@
         <v>50</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>944000</v>
       </c>
       <c r="H28">
         <v>852</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>28033356</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>58089982.572192512</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>5593.51</v>
       </c>
       <c r="N28" s="2">
         <v>1710</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>9564902.0999999996</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>95688240.672192514</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9568824.0672192518</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9290120.453610925</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9019534.4209814798</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8756829.5349334758</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8501776.2475082297</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8254151.696609932</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8013739.5112717785</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7780329.6225939589</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7553718.0801883098</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7333706.8739692327</v>
       </c>
       <c r="AA28" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>84072730.508886561</v>
       </c>
       <c r="AB28">
@@ -10876,86 +10894,86 @@
         <v>852</v>
       </c>
       <c r="AE28" s="10">
-        <f>AD28*AB28</f>
+        <f t="shared" si="23"/>
         <v>42600</v>
       </c>
       <c r="AF28" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG28" s="11">
-        <f>AF28*AB28</f>
+        <f t="shared" si="24"/>
         <v>88274.598930481283</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI28" s="7">
-        <f>AH28*AB28</f>
+        <f t="shared" si="26"/>
         <v>8.5</v>
       </c>
       <c r="AJ28" s="2">
         <v>1710</v>
       </c>
       <c r="AK28" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>14535</v>
       </c>
       <c r="AL28" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>145409.5989304813</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="21"/>
-        <v>14540.95989304813</v>
+        <f>($AL28)*(1/(1+discount_rate)^AM$1)</f>
+        <v>145409.5989304813</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" si="21"/>
-        <v>14117.436789367117</v>
+        <f>($AL28)*(1/(1+discount_rate)^AN$1)</f>
+        <v>141174.36789367115</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="21"/>
-        <v>13706.249310065161</v>
+        <f>($AL28)*(1/(1+discount_rate)^AO$1)</f>
+        <v>137062.49310065163</v>
       </c>
       <c r="AP28" s="2">
-        <f t="shared" si="21"/>
-        <v>13307.038165111808</v>
+        <f>($AL28)*(1/(1+discount_rate)^AP$1)</f>
+        <v>133070.38165111808</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="21"/>
-        <v>12919.454529234765</v>
+        <f>($AL28)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>129194.54529234766</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="21"/>
-        <v>12543.159737121132</v>
+        <f>($AL28)*(1/(1+discount_rate)^AR$1)</f>
+        <v>125431.59737121132</v>
       </c>
       <c r="AS28" s="2">
-        <f t="shared" si="21"/>
-        <v>12177.824987496244</v>
+        <f>($AL28)*(1/(1+discount_rate)^AS$1)</f>
+        <v>121778.24987496245</v>
       </c>
       <c r="AT28" s="2">
-        <f t="shared" si="21"/>
-        <v>11823.131055821596</v>
+        <f>($AL28)*(1/(1+discount_rate)^AT$1)</f>
+        <v>118231.31055821596</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" si="21"/>
-        <v>11478.768015360773</v>
+        <f>($AL28)*(1/(1+discount_rate)^AU$1)</f>
+        <v>114787.68015360773</v>
       </c>
       <c r="AV28" s="2">
-        <f t="shared" si="21"/>
-        <v>11144.434966369683</v>
+        <f>($AL28)*(1/(1+discount_rate)^AV$1)</f>
+        <v>111444.34966369683</v>
       </c>
       <c r="AW28" s="15">
-        <f t="shared" si="22"/>
-        <v>127758.4574489964</v>
+        <f t="shared" si="27"/>
+        <v>1277584.5744899642</v>
       </c>
       <c r="AX28">
-        <f>AA28/(G28+AW28)</f>
-        <v>78.443729484530309</v>
+        <f t="shared" si="28"/>
+        <v>37.843587624021986</v>
       </c>
       <c r="AY28">
-        <f>AA28/G28</f>
+        <f t="shared" si="29"/>
         <v>89.060095878057794</v>
       </c>
     </row>
@@ -10979,85 +10997,85 @@
         <v>50</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>187550</v>
       </c>
       <c r="H29">
         <v>852</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>5832792</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>12086558.085561497</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>1163.8200000000002</v>
       </c>
       <c r="N29" s="2">
         <v>1710</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1990132.2000000002</v>
       </c>
       <c r="P29" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>19909482.285561498</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1990948.2285561499</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1932959.4452001455</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1876659.6555341219</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1821999.6655671087</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1768931.7141428241</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1717409.4312066254</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1667387.7972879857</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1618823.1041630928</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1571672.9166631969</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1525896.0355953369</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17492687.993916586</v>
       </c>
       <c r="AB29">
@@ -11070,86 +11088,86 @@
         <v>852</v>
       </c>
       <c r="AE29" s="10">
-        <f>AD29*AB29</f>
+        <f t="shared" si="23"/>
         <v>47712</v>
       </c>
       <c r="AF29" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG29" s="11">
-        <f>AF29*AB29</f>
+        <f t="shared" si="24"/>
         <v>98867.550802139041</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI29" s="7">
-        <f>AH29*AB29</f>
+        <f t="shared" si="26"/>
         <v>9.5200000000000014</v>
       </c>
       <c r="AJ29" s="2">
         <v>1710</v>
       </c>
       <c r="AK29" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>16279.200000000003</v>
       </c>
       <c r="AL29" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>162858.75080213905</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="21"/>
-        <v>16285.875080213906</v>
+        <f>($AL29)*(1/(1+discount_rate)^AM$1)</f>
+        <v>162858.75080213905</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="21"/>
-        <v>15811.52920409117</v>
+        <f>($AL29)*(1/(1+discount_rate)^AN$1)</f>
+        <v>158115.29204091171</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="21"/>
-        <v>15350.999227272981</v>
+        <f>($AL29)*(1/(1+discount_rate)^AO$1)</f>
+        <v>153509.99227272981</v>
       </c>
       <c r="AP29" s="2">
-        <f t="shared" si="21"/>
-        <v>14903.882744925226</v>
+        <f>($AL29)*(1/(1+discount_rate)^AP$1)</f>
+        <v>149038.82744925225</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="21"/>
-        <v>14469.789072742939</v>
+        <f>($AL29)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>144697.89072742939</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" si="21"/>
-        <v>14048.338905575669</v>
+        <f>($AL29)*(1/(1+discount_rate)^AR$1)</f>
+        <v>140483.38905575668</v>
       </c>
       <c r="AS29" s="2">
-        <f t="shared" si="21"/>
-        <v>13639.163985995794</v>
+        <f>($AL29)*(1/(1+discount_rate)^AS$1)</f>
+        <v>136391.63985995794</v>
       </c>
       <c r="AT29" s="2">
-        <f t="shared" si="21"/>
-        <v>13241.906782520187</v>
+        <f>($AL29)*(1/(1+discount_rate)^AT$1)</f>
+        <v>132419.06782520187</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="21"/>
-        <v>12856.220177204066</v>
+        <f>($AL29)*(1/(1+discount_rate)^AU$1)</f>
+        <v>128562.20177204066</v>
       </c>
       <c r="AV29" s="2">
-        <f t="shared" si="21"/>
-        <v>12481.767162334045</v>
+        <f>($AL29)*(1/(1+discount_rate)^AV$1)</f>
+        <v>124817.67162334044</v>
       </c>
       <c r="AW29" s="15">
-        <f t="shared" si="22"/>
-        <v>143089.47234287599</v>
+        <f t="shared" si="27"/>
+        <v>1430894.7234287597</v>
       </c>
       <c r="AX29">
-        <f>AA29/(G29+AW29)</f>
-        <v>52.905625181304778</v>
+        <f t="shared" si="28"/>
+        <v>10.808332061448112</v>
       </c>
       <c r="AY29">
-        <f>AA29/G29</f>
+        <f t="shared" si="29"/>
         <v>93.269464110458998</v>
       </c>
     </row>
@@ -11173,85 +11191,85 @@
         <v>50</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>219400</v>
       </c>
       <c r="H30">
         <v>852</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>6676272</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>13834395.144385027</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>1332.1200000000001</v>
       </c>
       <c r="N30" s="2">
         <v>1710</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>2277925.2000000002</v>
       </c>
       <c r="P30" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>22788592.344385024</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2278859.2344385022</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2212484.6936296141</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2148043.3918734114</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2085479.0212363219</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2024736.9138216719</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1965763.9940016232</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1908508.7320404109</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1852921.0990683599</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1798952.5233673397</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1746555.8479294563</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20022305.45140671</v>
       </c>
       <c r="AB30">
@@ -11264,86 +11282,86 @@
         <v>852</v>
       </c>
       <c r="AE30" s="10">
-        <f>AD30*AB30</f>
+        <f t="shared" si="23"/>
         <v>73272</v>
       </c>
       <c r="AF30" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG30" s="11">
-        <f>AF30*AB30</f>
+        <f t="shared" si="24"/>
         <v>151832.31016042782</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI30" s="7">
-        <f>AH30*AB30</f>
+        <f t="shared" si="26"/>
         <v>14.620000000000001</v>
       </c>
       <c r="AJ30" s="2">
         <v>1710</v>
       </c>
       <c r="AK30" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>25000.2</v>
       </c>
       <c r="AL30" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>250104.51016042783</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="21"/>
-        <v>25010.451016042782</v>
+        <f>($AL30)*(1/(1+discount_rate)^AM$1)</f>
+        <v>250104.51016042783</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="21"/>
-        <v>24281.99127771144</v>
+        <f>($AL30)*(1/(1+discount_rate)^AN$1)</f>
+        <v>242819.9127771144</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="21"/>
-        <v>23574.748813312075</v>
+        <f>($AL30)*(1/(1+discount_rate)^AO$1)</f>
+        <v>235747.48813312079</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" si="21"/>
-        <v>22888.105643992309</v>
+        <f>($AL30)*(1/(1+discount_rate)^AP$1)</f>
+        <v>228881.05643992309</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="21"/>
-        <v>22221.461790283796</v>
+        <f>($AL30)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>222214.61790283796</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" si="21"/>
-        <v>21574.234747848346</v>
+        <f>($AL30)*(1/(1+discount_rate)^AR$1)</f>
+        <v>215742.34747848348</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" si="21"/>
-        <v>20945.858978493539</v>
+        <f>($AL30)*(1/(1+discount_rate)^AS$1)</f>
+        <v>209458.58978493541</v>
       </c>
       <c r="AT30" s="2">
-        <f t="shared" si="21"/>
-        <v>20335.785416013143</v>
+        <f>($AL30)*(1/(1+discount_rate)^AT$1)</f>
+        <v>203357.85416013145</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" si="21"/>
-        <v>19743.480986420527</v>
+        <f>($AL30)*(1/(1+discount_rate)^AU$1)</f>
+        <v>197434.80986420528</v>
       </c>
       <c r="AV30" s="2">
-        <f t="shared" si="21"/>
-        <v>19168.428142155852</v>
+        <f>($AL30)*(1/(1+discount_rate)^AV$1)</f>
+        <v>191684.28142155855</v>
       </c>
       <c r="AW30" s="15">
-        <f t="shared" si="22"/>
-        <v>219744.54681227382</v>
+        <f t="shared" si="27"/>
+        <v>2197445.4681227384</v>
       </c>
       <c r="AX30">
-        <f>AA30/(G30+AW30)</f>
-        <v>45.593883828792883</v>
+        <f t="shared" si="28"/>
+        <v>8.2844789687603999</v>
       </c>
       <c r="AY30">
-        <f>AA30/G30</f>
+        <f t="shared" si="29"/>
         <v>91.259368511425293</v>
       </c>
     </row>
@@ -11367,85 +11385,85 @@
         <v>50</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>144300</v>
       </c>
       <c r="H31">
         <v>852</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>4423584</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>9166434.3529411759</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>882.6400000000001</v>
       </c>
       <c r="N31" s="2">
         <v>1710</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1509314.4000000001</v>
       </c>
       <c r="P31" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>15099332.752941176</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1509933.2752941176</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1465954.6362078812</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1423256.9283571662</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1381802.8430652099</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1341556.158315738</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1302481.7071026582</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1264545.3467016099</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1227713.9288365145</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1191955.2707150625</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1157238.1269078278</v>
       </c>
       <c r="AA31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13266438.221503789</v>
       </c>
       <c r="AB31">
@@ -11458,86 +11476,86 @@
         <v>852</v>
       </c>
       <c r="AE31" s="10">
-        <f>AD31*AB31</f>
+        <f t="shared" si="23"/>
         <v>52824</v>
       </c>
       <c r="AF31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG31" s="11">
-        <f>AF31*AB31</f>
+        <f t="shared" si="24"/>
         <v>109460.50267379679</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI31" s="7">
-        <f>AH31*AB31</f>
+        <f t="shared" si="26"/>
         <v>10.540000000000001</v>
       </c>
       <c r="AJ31" s="2">
         <v>1710</v>
       </c>
       <c r="AK31" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>18023.400000000001</v>
       </c>
       <c r="AL31" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>180307.90267379678</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="21"/>
-        <v>18030.790267379678</v>
+        <f>($AL31)*(1/(1+discount_rate)^AM$1)</f>
+        <v>180307.90267379678</v>
       </c>
       <c r="AN31" s="2">
-        <f t="shared" si="21"/>
-        <v>17505.621618815221</v>
+        <f>($AL31)*(1/(1+discount_rate)^AN$1)</f>
+        <v>175056.2161881522</v>
       </c>
       <c r="AO31" s="2">
-        <f t="shared" si="21"/>
-        <v>16995.749144480797</v>
+        <f>($AL31)*(1/(1+discount_rate)^AO$1)</f>
+        <v>169957.49144480797</v>
       </c>
       <c r="AP31" s="2">
-        <f t="shared" si="21"/>
-        <v>16500.72732473864</v>
+        <f>($AL31)*(1/(1+discount_rate)^AP$1)</f>
+        <v>165007.27324738639</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="21"/>
-        <v>16020.123616251107</v>
+        <f>($AL31)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>160201.23616251108</v>
       </c>
       <c r="AR31" s="2">
-        <f t="shared" si="21"/>
-        <v>15553.518074030202</v>
+        <f>($AL31)*(1/(1+discount_rate)^AR$1)</f>
+        <v>155535.18074030202</v>
       </c>
       <c r="AS31" s="2">
-        <f t="shared" si="21"/>
-        <v>15100.502984495341</v>
+        <f>($AL31)*(1/(1+discount_rate)^AS$1)</f>
+        <v>151005.02984495342</v>
       </c>
       <c r="AT31" s="2">
-        <f t="shared" si="21"/>
-        <v>14660.682509218776</v>
+        <f>($AL31)*(1/(1+discount_rate)^AT$1)</f>
+        <v>146606.82509218776</v>
       </c>
       <c r="AU31" s="2">
-        <f t="shared" si="21"/>
-        <v>14233.672339047356</v>
+        <f>($AL31)*(1/(1+discount_rate)^AU$1)</f>
+        <v>142336.72339047355</v>
       </c>
       <c r="AV31" s="2">
-        <f t="shared" si="21"/>
-        <v>13819.099358298405</v>
+        <f>($AL31)*(1/(1+discount_rate)^AV$1)</f>
+        <v>138190.99358298405</v>
       </c>
       <c r="AW31" s="15">
-        <f t="shared" si="22"/>
-        <v>158420.48723675552</v>
+        <f t="shared" si="27"/>
+        <v>1584204.8723675553</v>
       </c>
       <c r="AX31">
-        <f>AA31/(G31+AW31)</f>
-        <v>43.824051495821628</v>
+        <f t="shared" si="28"/>
+        <v>7.6750944898018005</v>
       </c>
       <c r="AY31">
-        <f>AA31/G31</f>
+        <f t="shared" si="29"/>
         <v>91.936508811530061</v>
       </c>
     </row>
@@ -11561,22 +11579,22 @@
         <v>50</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>231400</v>
       </c>
       <c r="H32">
         <v>852</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>7112496</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>14738327.037433155</v>
       </c>
       <c r="L32" s="1">
@@ -11584,62 +11602,62 @@
         <v>0.17</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>1419.16</v>
       </c>
       <c r="N32" s="2">
         <v>1710</v>
       </c>
       <c r="O32" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>2426763.6</v>
       </c>
       <c r="P32" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>24277586.637433156</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2427758.6637433157</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2357047.2463527336</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2288395.3848084793</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2221743.0920470674</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2157032.1282010362</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2094205.9497097442</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2033209.6599123729</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1973989.9610799737</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1916495.1078446347</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1860674.8619850823</v>
       </c>
       <c r="AA32" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21330552.055684444</v>
       </c>
       <c r="AB32">
@@ -11652,15 +11670,15 @@
         <v>852</v>
       </c>
       <c r="AE32" s="10">
-        <f>AD32*AB32</f>
+        <f t="shared" si="23"/>
         <v>63900</v>
       </c>
       <c r="AF32" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG32" s="11">
-        <f>AF32*AB32</f>
+        <f t="shared" si="24"/>
         <v>132411.89839572192</v>
       </c>
       <c r="AH32" s="1">
@@ -11668,70 +11686,70 @@
         <v>0.17</v>
       </c>
       <c r="AI32" s="7">
-        <f>AH32*AB32</f>
+        <f t="shared" si="26"/>
         <v>12.750000000000002</v>
       </c>
       <c r="AJ32" s="2">
         <v>1710</v>
       </c>
       <c r="AK32" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>21802.500000000004</v>
       </c>
       <c r="AL32" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>218114.39839572192</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="21"/>
-        <v>21811.439839572191</v>
+        <f>($AL32)*(1/(1+discount_rate)^AM$1)</f>
+        <v>218114.39839572192</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="21"/>
-        <v>21176.155184050673</v>
+        <f>($AL32)*(1/(1+discount_rate)^AN$1)</f>
+        <v>211761.55184050673</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="21"/>
-        <v>20559.373965097737</v>
+        <f>($AL32)*(1/(1+discount_rate)^AO$1)</f>
+        <v>205593.7396509774</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="21"/>
-        <v>19960.557247667708</v>
+        <f>($AL32)*(1/(1+discount_rate)^AP$1)</f>
+        <v>199605.5724766771</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="21"/>
-        <v>19379.181793852145</v>
+        <f>($AL32)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>193791.81793852145</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="21"/>
-        <v>18814.739605681694</v>
+        <f>($AL32)*(1/(1+discount_rate)^AR$1)</f>
+        <v>188147.39605681694</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="21"/>
-        <v>18266.737481244363</v>
+        <f>($AL32)*(1/(1+discount_rate)^AS$1)</f>
+        <v>182667.37481244365</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="21"/>
-        <v>17734.696583732391</v>
+        <f>($AL32)*(1/(1+discount_rate)^AT$1)</f>
+        <v>177346.96583732392</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="21"/>
-        <v>17218.152023041155</v>
+        <f>($AL32)*(1/(1+discount_rate)^AU$1)</f>
+        <v>172181.52023041158</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="21"/>
-        <v>16716.65244955452</v>
+        <f>($AL32)*(1/(1+discount_rate)^AV$1)</f>
+        <v>167166.52449554522</v>
       </c>
       <c r="AW32" s="15">
-        <f t="shared" si="22"/>
-        <v>191637.68617349459</v>
+        <f t="shared" si="27"/>
+        <v>1916376.8617349463</v>
       </c>
       <c r="AX32">
-        <f>AA32/(G32+AW32)</f>
-        <v>50.422344752841809</v>
+        <f t="shared" si="28"/>
+        <v>9.9314563052205997</v>
       </c>
       <c r="AY32">
-        <f>AA32/G32</f>
+        <f t="shared" si="29"/>
         <v>92.180432392759045</v>
       </c>
     </row>
@@ -11755,85 +11773,85 @@
         <v>50</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>117800</v>
       </c>
       <c r="H33">
         <v>852</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3758172</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>7787585.1176470593</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>749.87</v>
       </c>
       <c r="N33" s="2">
         <v>1710</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1282277.7</v>
       </c>
       <c r="P33" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>12828034.817647059</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1282803.4817647059</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1245440.2735579668</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1209165.3141339484</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1173946.9069261635</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1139754.2785690909</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1106557.5520088261</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1074327.7203969185</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1043036.621744581</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1012656.9143151273</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>983162.05273313331</v>
       </c>
       <c r="AA33" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11270851.116150461</v>
       </c>
       <c r="AB33">
@@ -11846,86 +11864,86 @@
         <v>852</v>
       </c>
       <c r="AE33" s="10">
-        <f>AD33*AB33</f>
+        <f t="shared" si="23"/>
         <v>76680</v>
       </c>
       <c r="AF33" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG33" s="11">
-        <f>AF33*AB33</f>
+        <f t="shared" si="24"/>
         <v>158894.27807486631</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI33" s="7">
-        <f>AH33*AB33</f>
+        <f t="shared" si="26"/>
         <v>15.3</v>
       </c>
       <c r="AJ33" s="2">
         <v>1710</v>
       </c>
       <c r="AK33" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>26163</v>
       </c>
       <c r="AL33" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>261737.27807486631</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="21"/>
-        <v>26173.72780748663</v>
+        <f>($AL33)*(1/(1+discount_rate)^AM$1)</f>
+        <v>261737.27807486631</v>
       </c>
       <c r="AN33" s="2">
-        <f t="shared" si="21"/>
-        <v>25411.386220860804</v>
+        <f>($AL33)*(1/(1+discount_rate)^AN$1)</f>
+        <v>254113.86220860807</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="21"/>
-        <v>24671.248758117286</v>
+        <f>($AL33)*(1/(1+discount_rate)^AO$1)</f>
+        <v>246712.48758117287</v>
       </c>
       <c r="AP33" s="2">
-        <f t="shared" si="21"/>
-        <v>23952.66869720125</v>
+        <f>($AL33)*(1/(1+discount_rate)^AP$1)</f>
+        <v>239526.68697201251</v>
       </c>
       <c r="AQ33" s="2">
-        <f t="shared" si="21"/>
-        <v>23255.018152622575</v>
+        <f>($AL33)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>232550.18152622576</v>
       </c>
       <c r="AR33" s="2">
-        <f t="shared" si="21"/>
-        <v>22577.687526818034</v>
+        <f>($AL33)*(1/(1+discount_rate)^AR$1)</f>
+        <v>225776.87526818036</v>
       </c>
       <c r="AS33" s="2">
-        <f t="shared" si="21"/>
-        <v>21920.084977493236</v>
+        <f>($AL33)*(1/(1+discount_rate)^AS$1)</f>
+        <v>219200.84977493237</v>
       </c>
       <c r="AT33" s="2">
-        <f t="shared" si="21"/>
-        <v>21281.635900478868</v>
+        <f>($AL33)*(1/(1+discount_rate)^AT$1)</f>
+        <v>212816.35900478871</v>
       </c>
       <c r="AU33" s="2">
-        <f t="shared" si="21"/>
-        <v>20661.782427649388</v>
+        <f>($AL33)*(1/(1+discount_rate)^AU$1)</f>
+        <v>206617.82427649389</v>
       </c>
       <c r="AV33" s="2">
-        <f t="shared" si="21"/>
-        <v>20059.982939465426</v>
+        <f>($AL33)*(1/(1+discount_rate)^AV$1)</f>
+        <v>200599.82939465425</v>
       </c>
       <c r="AW33" s="15">
-        <f t="shared" si="22"/>
-        <v>229965.22340819353</v>
+        <f t="shared" si="27"/>
+        <v>2299652.2340819356</v>
       </c>
       <c r="AX33">
-        <f>AA33/(G33+AW33)</f>
-        <v>32.409368037703892</v>
+        <f t="shared" si="28"/>
+        <v>4.6622849284262031</v>
       </c>
       <c r="AY33">
-        <f>AA33/G33</f>
+        <f t="shared" si="29"/>
         <v>95.677853278017494</v>
       </c>
     </row>
@@ -11949,85 +11967,85 @@
         <v>50</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>153550</v>
       </c>
       <c r="H34">
         <v>852</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>4846176</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>10042118.374331551</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>966.96</v>
       </c>
       <c r="N34" s="2">
         <v>1710</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1653501.6</v>
       </c>
       <c r="P34" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>16541795.97433155</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" ref="Q34:Z43" si="33">($P34/10)*(1/(1+discount_rate)^Q$1)</f>
+        <f t="shared" ref="Q34:Z43" si="40">($P34/10)*(1/(1+discount_rate)^Q$1)</f>
         <v>1654179.5974331549</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1605999.6091584028</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1559222.9215130124</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1513808.661663119</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1469717.1472457466</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1426909.8516948998</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1385349.3705775726</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1344999.3889102645</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1305824.6494274412</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1267790.9217742148</v>
       </c>
       <c r="AA34" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14533802.119397828</v>
       </c>
       <c r="AB34">
@@ -12040,86 +12058,86 @@
         <v>852</v>
       </c>
       <c r="AE34" s="10">
-        <f>AD34*AB34</f>
+        <f t="shared" si="23"/>
         <v>59640</v>
       </c>
       <c r="AF34" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG34" s="11">
-        <f>AF34*AB34</f>
+        <f t="shared" si="24"/>
         <v>123584.4385026738</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI34" s="7">
-        <f>AH34*AB34</f>
+        <f t="shared" si="26"/>
         <v>11.9</v>
       </c>
       <c r="AJ34" s="2">
         <v>1710</v>
       </c>
       <c r="AK34" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>20349</v>
       </c>
       <c r="AL34" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>203573.43850267382</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AV43" si="34">($AL34/10)*(1/(1+discount_rate)^AM$1)</f>
-        <v>20357.343850267382</v>
+        <f>($AL34)*(1/(1+discount_rate)^AM$1)</f>
+        <v>203573.43850267382</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="34"/>
-        <v>19764.411505113963</v>
+        <f>($AL34)*(1/(1+discount_rate)^AN$1)</f>
+        <v>197644.11505113964</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="34"/>
-        <v>19188.749034091226</v>
+        <f>($AL34)*(1/(1+discount_rate)^AO$1)</f>
+        <v>191887.49034091225</v>
       </c>
       <c r="AP34" s="2">
-        <f t="shared" si="34"/>
-        <v>18629.853431156531</v>
+        <f>($AL34)*(1/(1+discount_rate)^AP$1)</f>
+        <v>186298.53431156531</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="34"/>
-        <v>18087.236340928674</v>
+        <f>($AL34)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>180872.36340928671</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="34"/>
-        <v>17560.423631969585</v>
+        <f>($AL34)*(1/(1+discount_rate)^AR$1)</f>
+        <v>175604.23631969586</v>
       </c>
       <c r="AS34" s="2">
-        <f t="shared" si="34"/>
-        <v>17048.954982494743</v>
+        <f>($AL34)*(1/(1+discount_rate)^AS$1)</f>
+        <v>170489.54982494743</v>
       </c>
       <c r="AT34" s="2">
-        <f t="shared" si="34"/>
-        <v>16552.383478150234</v>
+        <f>($AL34)*(1/(1+discount_rate)^AT$1)</f>
+        <v>165523.83478150234</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="34"/>
-        <v>16070.275221505082</v>
+        <f>($AL34)*(1/(1+discount_rate)^AU$1)</f>
+        <v>160702.75221505083</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="34"/>
-        <v>15602.208952917556</v>
+        <f>($AL34)*(1/(1+discount_rate)^AV$1)</f>
+        <v>156022.08952917557</v>
       </c>
       <c r="AW34" s="15">
-        <f t="shared" si="22"/>
-        <v>178861.84042859497</v>
+        <f t="shared" si="27"/>
+        <v>1788618.4042859499</v>
       </c>
       <c r="AX34">
-        <f>AA34/(G34+AW34)</f>
-        <v>43.7222756585887</v>
+        <f t="shared" si="28"/>
+        <v>7.4832862522759811</v>
       </c>
       <c r="AY34">
-        <f>AA34/G34</f>
+        <f t="shared" si="29"/>
         <v>94.65191871962115</v>
       </c>
     </row>
@@ -12143,85 +12161,85 @@
         <v>50</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>44650</v>
       </c>
       <c r="H35">
         <v>852</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1429656</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>2962495.5401069517</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>285.26000000000005</v>
       </c>
       <c r="N35" s="2">
         <v>1710</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>487794.60000000009</v>
       </c>
       <c r="P35" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>4879946.1401069518</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>487994.61401069519</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>473781.17865116039</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>459981.72684578679</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>446584.20082115225</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>433576.89400111872</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>420948.44077778514</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>408687.8065803739</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>396784.27823337272</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>385227.45459550753</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>374007.23747136653</v>
       </c>
       <c r="AA35" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4287573.8319883188</v>
       </c>
       <c r="AB35">
@@ -12234,86 +12252,86 @@
         <v>852</v>
       </c>
       <c r="AE35" s="10">
-        <f>AD35*AB35</f>
+        <f t="shared" si="23"/>
         <v>61344</v>
       </c>
       <c r="AF35" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG35" s="11">
-        <f>AF35*AB35</f>
+        <f t="shared" si="24"/>
         <v>127115.42245989305</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI35" s="7">
-        <f>AH35*AB35</f>
+        <f t="shared" si="26"/>
         <v>12.24</v>
       </c>
       <c r="AJ35" s="2">
         <v>1710</v>
       </c>
       <c r="AK35" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>20930.400000000001</v>
       </c>
       <c r="AL35" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>209389.82245989304</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="34"/>
-        <v>20938.982245989304</v>
+        <f>($AL35)*(1/(1+discount_rate)^AM$1)</f>
+        <v>209389.82245989304</v>
       </c>
       <c r="AN35" s="2">
-        <f t="shared" si="34"/>
-        <v>20329.108976688643</v>
+        <f>($AL35)*(1/(1+discount_rate)^AN$1)</f>
+        <v>203291.08976688643</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="34"/>
-        <v>19736.999006493828</v>
+        <f>($AL35)*(1/(1+discount_rate)^AO$1)</f>
+        <v>197369.99006493829</v>
       </c>
       <c r="AP35" s="2">
-        <f t="shared" si="34"/>
-        <v>19162.134957761002</v>
+        <f>($AL35)*(1/(1+discount_rate)^AP$1)</f>
+        <v>191621.34957761</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="34"/>
-        <v>18604.014522098059</v>
+        <f>($AL35)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>186040.1452209806</v>
       </c>
       <c r="AR35" s="2">
-        <f t="shared" si="34"/>
-        <v>18062.150021454428</v>
+        <f>($AL35)*(1/(1+discount_rate)^AR$1)</f>
+        <v>180621.50021454427</v>
       </c>
       <c r="AS35" s="2">
-        <f t="shared" si="34"/>
-        <v>17536.067981994591</v>
+        <f>($AL35)*(1/(1+discount_rate)^AS$1)</f>
+        <v>175360.67981994589</v>
       </c>
       <c r="AT35" s="2">
-        <f t="shared" si="34"/>
-        <v>17025.308720383095</v>
+        <f>($AL35)*(1/(1+discount_rate)^AT$1)</f>
+        <v>170253.08720383095</v>
       </c>
       <c r="AU35" s="2">
-        <f t="shared" si="34"/>
-        <v>16529.425942119509</v>
+        <f>($AL35)*(1/(1+discount_rate)^AU$1)</f>
+        <v>165294.25942119511</v>
       </c>
       <c r="AV35" s="2">
-        <f t="shared" si="34"/>
-        <v>16047.986351572341</v>
+        <f>($AL35)*(1/(1+discount_rate)^AV$1)</f>
+        <v>160479.86351572341</v>
       </c>
       <c r="AW35" s="15">
-        <f t="shared" si="22"/>
-        <v>183972.17872655479</v>
+        <f t="shared" si="27"/>
+        <v>1839721.7872655482</v>
       </c>
       <c r="AX35">
-        <f>AA35/(G35+AW35)</f>
-        <v>18.753971534478737</v>
+        <f t="shared" si="28"/>
+        <v>2.2753332760357807</v>
       </c>
       <c r="AY35">
-        <f>AA35/G35</f>
+        <f t="shared" si="29"/>
         <v>96.02628963019751</v>
       </c>
     </row>
@@ -12337,85 +12355,85 @@
         <v>50</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>418550</v>
       </c>
       <c r="H36">
         <v>852</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>12877980</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>26685411.256684493</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>2569.5500000000002</v>
       </c>
       <c r="N36" s="2">
         <v>1710</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>4393930.5</v>
       </c>
       <c r="P36" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>43957321.756684497</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4395732.1756684501</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4267701.1414256794</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4143399.1664326987</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4022717.6373132998</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3905551.1041876702</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3791797.1885317187</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3681356.4937201152</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3574132.5181748685</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3470031.5710435621</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3368962.6903335555</v>
       </c>
       <c r="AA36" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>38621381.686831616</v>
       </c>
       <c r="AB36">
@@ -12428,86 +12446,86 @@
         <v>852</v>
       </c>
       <c r="AE36" s="10">
-        <f>AD36*AB36</f>
+        <f t="shared" si="23"/>
         <v>86904</v>
       </c>
       <c r="AF36" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG36" s="11">
-        <f>AF36*AB36</f>
+        <f t="shared" si="24"/>
         <v>180080.18181818182</v>
       </c>
       <c r="AH36" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI36" s="7">
-        <f>AH36*AB36</f>
+        <f t="shared" si="26"/>
         <v>17.34</v>
       </c>
       <c r="AJ36" s="2">
         <v>1710</v>
       </c>
       <c r="AK36" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>29651.4</v>
       </c>
       <c r="AL36" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>296635.58181818185</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="34"/>
-        <v>29663.558181818185</v>
+        <f>($AL36)*(1/(1+discount_rate)^AM$1)</f>
+        <v>296635.58181818185</v>
       </c>
       <c r="AN36" s="2">
-        <f t="shared" si="34"/>
-        <v>28799.571050308918</v>
+        <f>($AL36)*(1/(1+discount_rate)^AN$1)</f>
+        <v>287995.71050308918</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" si="34"/>
-        <v>27960.748592532931</v>
+        <f>($AL36)*(1/(1+discount_rate)^AO$1)</f>
+        <v>279607.48592532927</v>
       </c>
       <c r="AP36" s="2">
-        <f t="shared" si="34"/>
-        <v>27146.35785682809</v>
+        <f>($AL36)*(1/(1+discount_rate)^AP$1)</f>
+        <v>271463.57856828085</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="34"/>
-        <v>26355.687239638923</v>
+        <f>($AL36)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>263556.8723963892</v>
       </c>
       <c r="AR36" s="2">
-        <f t="shared" si="34"/>
-        <v>25588.045863727111</v>
+        <f>($AL36)*(1/(1+discount_rate)^AR$1)</f>
+        <v>255880.45863727111</v>
       </c>
       <c r="AS36" s="2">
-        <f t="shared" si="34"/>
-        <v>24842.76297449234</v>
+        <f>($AL36)*(1/(1+discount_rate)^AS$1)</f>
+        <v>248427.62974492338</v>
       </c>
       <c r="AT36" s="2">
-        <f t="shared" si="34"/>
-        <v>24119.187353876056</v>
+        <f>($AL36)*(1/(1+discount_rate)^AT$1)</f>
+        <v>241191.87353876056</v>
       </c>
       <c r="AU36" s="2">
-        <f t="shared" si="34"/>
-        <v>23416.686751335976</v>
+        <f>($AL36)*(1/(1+discount_rate)^AU$1)</f>
+        <v>234166.86751335976</v>
       </c>
       <c r="AV36" s="2">
-        <f t="shared" si="34"/>
-        <v>22734.647331394153</v>
+        <f>($AL36)*(1/(1+discount_rate)^AV$1)</f>
+        <v>227346.47331394153</v>
       </c>
       <c r="AW36" s="15">
-        <f t="shared" si="22"/>
-        <v>260627.25319595268</v>
+        <f t="shared" si="27"/>
+        <v>2606272.5319595272</v>
       </c>
       <c r="AX36">
-        <f>AA36/(G36+AW36)</f>
-        <v>56.864951682486307</v>
+        <f t="shared" si="28"/>
+        <v>12.768147975217602</v>
       </c>
       <c r="AY36">
-        <f>AA36/G36</f>
+        <f t="shared" si="29"/>
         <v>92.274236499418507</v>
       </c>
     </row>
@@ -12531,85 +12549,85 @@
         <v>50</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>67950</v>
       </c>
       <c r="H37">
         <v>852</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>2071212</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>4291911</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>413.27000000000004</v>
       </c>
       <c r="N37" s="2">
         <v>1710</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>706691.70000000007</v>
       </c>
       <c r="P37" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>7069814.7000000002</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>706981.47</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>686389.77669902914</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>666397.84145536809</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>646988.19558773597</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>628143.87921139423</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>609848.42641882936</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>592085.8508920673</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>574840.63193404593</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>558097.70090684074</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>541842.42806489393</v>
       </c>
       <c r="AA37" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6211616.2011702042</v>
       </c>
       <c r="AB37">
@@ -12622,86 +12640,86 @@
         <v>852</v>
       </c>
       <c r="AE37" s="10">
-        <f>AD37*AB37</f>
+        <f t="shared" si="23"/>
         <v>40044</v>
       </c>
       <c r="AF37" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG37" s="11">
-        <f>AF37*AB37</f>
+        <f t="shared" si="24"/>
         <v>82978.122994652411</v>
       </c>
       <c r="AH37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI37" s="7">
-        <f>AH37*AB37</f>
+        <f t="shared" si="26"/>
         <v>7.99</v>
       </c>
       <c r="AJ37" s="2">
         <v>1710</v>
       </c>
       <c r="AK37" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>13662.9</v>
       </c>
       <c r="AL37" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>136685.02299465242</v>
       </c>
       <c r="AM37" s="2">
-        <f t="shared" si="34"/>
-        <v>13668.502299465243</v>
+        <f>($AL37)*(1/(1+discount_rate)^AM$1)</f>
+        <v>136685.02299465242</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" si="34"/>
-        <v>13270.39058200509</v>
+        <f>($AL37)*(1/(1+discount_rate)^AN$1)</f>
+        <v>132703.90582005089</v>
       </c>
       <c r="AO37" s="2">
-        <f t="shared" si="34"/>
-        <v>12883.874351461252</v>
+        <f>($AL37)*(1/(1+discount_rate)^AO$1)</f>
+        <v>128838.74351461252</v>
       </c>
       <c r="AP37" s="2">
-        <f t="shared" si="34"/>
-        <v>12508.6158752051</v>
+        <f>($AL37)*(1/(1+discount_rate)^AP$1)</f>
+        <v>125086.15875205099</v>
       </c>
       <c r="AQ37" s="2">
-        <f t="shared" si="34"/>
-        <v>12144.287257480681</v>
+        <f>($AL37)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>121442.8725748068</v>
       </c>
       <c r="AR37" s="2">
-        <f t="shared" si="34"/>
-        <v>11790.570152893864</v>
+        <f>($AL37)*(1/(1+discount_rate)^AR$1)</f>
+        <v>117905.70152893865</v>
       </c>
       <c r="AS37" s="2">
-        <f t="shared" si="34"/>
-        <v>11447.15548824647</v>
+        <f>($AL37)*(1/(1+discount_rate)^AS$1)</f>
+        <v>114471.5548824647</v>
       </c>
       <c r="AT37" s="2">
-        <f t="shared" si="34"/>
-        <v>11113.743192472301</v>
+        <f>($AL37)*(1/(1+discount_rate)^AT$1)</f>
+        <v>111137.431924723</v>
       </c>
       <c r="AU37" s="2">
-        <f t="shared" si="34"/>
-        <v>10790.041934439127</v>
+        <f>($AL37)*(1/(1+discount_rate)^AU$1)</f>
+        <v>107900.41934439127</v>
       </c>
       <c r="AV37" s="2">
-        <f t="shared" si="34"/>
-        <v>10475.768868387502</v>
+        <f>($AL37)*(1/(1+discount_rate)^AV$1)</f>
+        <v>104757.68868387502</v>
       </c>
       <c r="AW37" s="15">
-        <f t="shared" si="22"/>
-        <v>120092.95000205663</v>
+        <f t="shared" si="27"/>
+        <v>1200929.5000205659</v>
       </c>
       <c r="AX37">
-        <f>AA37/(G37+AW37)</f>
-        <v>33.032965081127834</v>
+        <f t="shared" si="28"/>
+        <v>4.8953554699792425</v>
       </c>
       <c r="AY37">
-        <f>AA37/G37</f>
+        <f t="shared" si="29"/>
         <v>91.414513630172252</v>
       </c>
     </row>
@@ -12725,85 +12743,85 @@
         <v>50</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>144950</v>
       </c>
       <c r="H38">
         <v>853</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>4488486</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>9290018.7914438508</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>894.54000000000008</v>
       </c>
       <c r="N38" s="2">
         <v>1710</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1529663.4000000001</v>
       </c>
       <c r="P38" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>15308168.191443851</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1530816.8191443852</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1486229.9214994032</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1442941.6713586438</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1400914.2440375183</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1360110.91654128</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1320496.035476971</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1282034.9858999718</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1244694.1610679335</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1208440.9330756636</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1173243.6243453047</v>
       </c>
       <c r="AA38" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13449923.312447073</v>
       </c>
       <c r="AB38">
@@ -12816,86 +12834,86 @@
         <v>852</v>
       </c>
       <c r="AE38" s="10">
-        <f>AD38*AB38</f>
+        <f t="shared" si="23"/>
         <v>57936</v>
       </c>
       <c r="AF38" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG38" s="11">
-        <f>AF38*AB38</f>
+        <f t="shared" si="24"/>
         <v>120053.45454545454</v>
       </c>
       <c r="AH38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI38" s="7">
-        <f>AH38*AB38</f>
+        <f t="shared" si="26"/>
         <v>11.56</v>
       </c>
       <c r="AJ38" s="2">
         <v>1710</v>
       </c>
       <c r="AK38" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>19767.600000000002</v>
       </c>
       <c r="AL38" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>197757.05454545454</v>
       </c>
       <c r="AM38" s="2">
-        <f t="shared" si="34"/>
-        <v>19775.705454545452</v>
+        <f>($AL38)*(1/(1+discount_rate)^AM$1)</f>
+        <v>197757.05454545454</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="34"/>
-        <v>19199.714033539272</v>
+        <f>($AL38)*(1/(1+discount_rate)^AN$1)</f>
+        <v>191997.14033539276</v>
       </c>
       <c r="AO38" s="2">
-        <f t="shared" si="34"/>
-        <v>18640.499061688613</v>
+        <f>($AL38)*(1/(1+discount_rate)^AO$1)</f>
+        <v>186404.99061688618</v>
       </c>
       <c r="AP38" s="2">
-        <f t="shared" si="34"/>
-        <v>18097.571904552053</v>
+        <f>($AL38)*(1/(1+discount_rate)^AP$1)</f>
+        <v>180975.71904552056</v>
       </c>
       <c r="AQ38" s="2">
-        <f t="shared" si="34"/>
-        <v>17570.458159759277</v>
+        <f>($AL38)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>175704.5815975928</v>
       </c>
       <c r="AR38" s="2">
-        <f t="shared" si="34"/>
-        <v>17058.697242484737</v>
+        <f>($AL38)*(1/(1+discount_rate)^AR$1)</f>
+        <v>170586.97242484736</v>
       </c>
       <c r="AS38" s="2">
-        <f t="shared" si="34"/>
-        <v>16561.841982994887</v>
+        <f>($AL38)*(1/(1+discount_rate)^AS$1)</f>
+        <v>165618.41982994889</v>
       </c>
       <c r="AT38" s="2">
-        <f t="shared" si="34"/>
-        <v>16079.458235917367</v>
+        <f>($AL38)*(1/(1+discount_rate)^AT$1)</f>
+        <v>160794.58235917368</v>
       </c>
       <c r="AU38" s="2">
-        <f t="shared" si="34"/>
-        <v>15611.124500890648</v>
+        <f>($AL38)*(1/(1+discount_rate)^AU$1)</f>
+        <v>156111.2450089065</v>
       </c>
       <c r="AV38" s="2">
-        <f t="shared" si="34"/>
-        <v>15156.431554262765</v>
+        <f>($AL38)*(1/(1+discount_rate)^AV$1)</f>
+        <v>151564.31554262765</v>
       </c>
       <c r="AW38" s="15">
-        <f t="shared" si="22"/>
-        <v>173751.50213063505</v>
+        <f t="shared" si="27"/>
+        <v>1737515.0213063511</v>
       </c>
       <c r="AX38">
-        <f>AA38/(G38+AW38)</f>
-        <v>42.202258924195398</v>
+        <f t="shared" si="28"/>
+        <v>7.1448463372314857</v>
       </c>
       <c r="AY38">
-        <f>AA38/G38</f>
+        <f t="shared" si="29"/>
         <v>92.790088392184018</v>
       </c>
     </row>
@@ -12919,85 +12937,85 @@
         <v>50</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>566550</v>
       </c>
       <c r="H39">
         <v>854</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>17291792</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>35747681.582887702</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>3442.1600000000003</v>
       </c>
       <c r="N39" s="2">
         <v>1710</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>5886093.6000000006</v>
       </c>
       <c r="P39" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>58925567.182887703</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>5892556.7182887699</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>5720928.8527075434</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>5554299.8569976147</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>5392524.1330073932</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>5235460.3233081494</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>5082971.1876778156</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4934923.4831823446</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4791187.8477498489</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4651638.6871357756</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4516154.065180365</v>
       </c>
       <c r="AA39" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>51772645.155235618</v>
       </c>
       <c r="AB39">
@@ -13010,86 +13028,86 @@
         <v>852</v>
       </c>
       <c r="AE39" s="10">
-        <f>AD39*AB39</f>
+        <f t="shared" si="23"/>
         <v>80940</v>
       </c>
       <c r="AF39" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG39" s="11">
-        <f>AF39*AB39</f>
+        <f t="shared" si="24"/>
         <v>167721.73796791444</v>
       </c>
       <c r="AH39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI39" s="7">
-        <f>AH39*AB39</f>
+        <f t="shared" si="26"/>
         <v>16.150000000000002</v>
       </c>
       <c r="AJ39" s="2">
         <v>1710</v>
       </c>
       <c r="AK39" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>27616.500000000004</v>
       </c>
       <c r="AL39" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>276278.23796791444</v>
       </c>
       <c r="AM39" s="2">
-        <f t="shared" si="34"/>
-        <v>27627.823796791443</v>
+        <f>($AL39)*(1/(1+discount_rate)^AM$1)</f>
+        <v>276278.23796791444</v>
       </c>
       <c r="AN39" s="2">
-        <f t="shared" si="34"/>
-        <v>26823.129899797517</v>
+        <f>($AL39)*(1/(1+discount_rate)^AN$1)</f>
+        <v>268231.29899797519</v>
       </c>
       <c r="AO39" s="2">
-        <f t="shared" si="34"/>
-        <v>26041.873689123804</v>
+        <f>($AL39)*(1/(1+discount_rate)^AO$1)</f>
+        <v>260418.73689123805</v>
       </c>
       <c r="AP39" s="2">
-        <f t="shared" si="34"/>
-        <v>25283.372513712431</v>
+        <f>($AL39)*(1/(1+discount_rate)^AP$1)</f>
+        <v>252833.72513712433</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="shared" si="34"/>
-        <v>24546.963605546051</v>
+        <f>($AL39)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>245469.63605546052</v>
       </c>
       <c r="AR39" s="2">
-        <f t="shared" si="34"/>
-        <v>23832.003500530147</v>
+        <f>($AL39)*(1/(1+discount_rate)^AR$1)</f>
+        <v>238320.0350053015</v>
       </c>
       <c r="AS39" s="2">
-        <f t="shared" si="34"/>
-        <v>23137.86747624286</v>
+        <f>($AL39)*(1/(1+discount_rate)^AS$1)</f>
+        <v>231378.67476242862</v>
       </c>
       <c r="AT39" s="2">
-        <f t="shared" si="34"/>
-        <v>22463.94900606103</v>
+        <f>($AL39)*(1/(1+discount_rate)^AT$1)</f>
+        <v>224639.49006061029</v>
       </c>
       <c r="AU39" s="2">
-        <f t="shared" si="34"/>
-        <v>21809.659229185465</v>
+        <f>($AL39)*(1/(1+discount_rate)^AU$1)</f>
+        <v>218096.59229185467</v>
       </c>
       <c r="AV39" s="2">
-        <f t="shared" si="34"/>
-        <v>21174.426436102396</v>
+        <f>($AL39)*(1/(1+discount_rate)^AV$1)</f>
+        <v>211744.26436102396</v>
       </c>
       <c r="AW39" s="15">
-        <f t="shared" si="22"/>
-        <v>242741.06915309315</v>
+        <f t="shared" si="27"/>
+        <v>2427410.6915309313</v>
       </c>
       <c r="AX39">
-        <f>AA39/(G39+AW39)</f>
-        <v>63.972836385572194</v>
+        <f t="shared" si="28"/>
+        <v>17.292359683173462</v>
       </c>
       <c r="AY39">
-        <f>AA39/G39</f>
+        <f t="shared" si="29"/>
         <v>91.382305454479962</v>
       </c>
     </row>
@@ -13113,85 +13131,85 @@
         <v>50</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>36000</v>
       </c>
       <c r="H40">
         <v>855</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1150830</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>2376352.2032085559</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>228.82000000000002</v>
       </c>
       <c r="N40" s="2">
         <v>1710</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>391282.2</v>
       </c>
       <c r="P40" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>3918464.4032085561</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>391846.44032085559</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>380433.43720471417</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>369352.85165506229</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>358595.00160685659</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>348150.4869969482</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>338010.18155043514</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>328165.22480624769</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>318607.01437499776</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>309327.19842232793</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>300317.66837119218</v>
       </c>
       <c r="AA40" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3442805.5053096381</v>
       </c>
       <c r="AB40">
@@ -13204,86 +13222,86 @@
         <v>852</v>
       </c>
       <c r="AE40" s="10">
-        <f>AD40*AB40</f>
+        <f t="shared" si="23"/>
         <v>50268</v>
       </c>
       <c r="AF40" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG40" s="11">
-        <f>AF40*AB40</f>
+        <f t="shared" si="24"/>
         <v>104164.02673796791</v>
       </c>
       <c r="AH40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI40" s="7">
-        <f>AH40*AB40</f>
+        <f t="shared" si="26"/>
         <v>10.030000000000001</v>
       </c>
       <c r="AJ40" s="2">
         <v>1710</v>
       </c>
       <c r="AK40" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>17151.300000000003</v>
       </c>
       <c r="AL40" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>171583.3267379679</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="34"/>
-        <v>17158.332673796791</v>
+        <f>($AL40)*(1/(1+discount_rate)^AM$1)</f>
+        <v>171583.3267379679</v>
       </c>
       <c r="AN40" s="2">
-        <f t="shared" si="34"/>
-        <v>16658.575411453196</v>
+        <f>($AL40)*(1/(1+discount_rate)^AN$1)</f>
+        <v>166585.75411453194</v>
       </c>
       <c r="AO40" s="2">
-        <f t="shared" si="34"/>
-        <v>16173.374185876888</v>
+        <f>($AL40)*(1/(1+discount_rate)^AO$1)</f>
+        <v>161733.74185876889</v>
       </c>
       <c r="AP40" s="2">
-        <f t="shared" si="34"/>
-        <v>15702.30503483193</v>
+        <f>($AL40)*(1/(1+discount_rate)^AP$1)</f>
+        <v>157023.05034831932</v>
       </c>
       <c r="AQ40" s="2">
-        <f t="shared" si="34"/>
-        <v>15244.956344497021</v>
+        <f>($AL40)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>152449.5634449702</v>
       </c>
       <c r="AR40" s="2">
-        <f t="shared" si="34"/>
-        <v>14800.928489802935</v>
+        <f>($AL40)*(1/(1+discount_rate)^AR$1)</f>
+        <v>148009.28489802932</v>
       </c>
       <c r="AS40" s="2">
-        <f t="shared" si="34"/>
-        <v>14369.833485245566</v>
+        <f>($AL40)*(1/(1+discount_rate)^AS$1)</f>
+        <v>143698.33485245565</v>
       </c>
       <c r="AT40" s="2">
-        <f t="shared" si="34"/>
-        <v>13951.294645869481</v>
+        <f>($AL40)*(1/(1+discount_rate)^AT$1)</f>
+        <v>139512.94645869482</v>
       </c>
       <c r="AU40" s="2">
-        <f t="shared" si="34"/>
-        <v>13544.94625812571</v>
+        <f>($AL40)*(1/(1+discount_rate)^AU$1)</f>
+        <v>135449.4625812571</v>
       </c>
       <c r="AV40" s="2">
-        <f t="shared" si="34"/>
-        <v>13150.433260316224</v>
+        <f>($AL40)*(1/(1+discount_rate)^AV$1)</f>
+        <v>131504.33260316224</v>
       </c>
       <c r="AW40" s="15">
-        <f t="shared" si="22"/>
-        <v>150754.97978981576</v>
+        <f t="shared" si="27"/>
+        <v>1507549.797898157</v>
       </c>
       <c r="AX40">
-        <f>AA40/(G40+AW40)</f>
-        <v>18.434879268999193</v>
+        <f t="shared" si="28"/>
+        <v>2.2304466690985199</v>
       </c>
       <c r="AY40">
-        <f>AA40/G40</f>
+        <f t="shared" si="29"/>
         <v>95.633486258601053</v>
       </c>
     </row>
@@ -13307,85 +13325,85 @@
         <v>50</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>864550</v>
       </c>
       <c r="H41">
         <v>856</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>26342544</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>54331250.14973262</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>5231.58</v>
       </c>
       <c r="N41" s="2">
         <v>1710</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>8946001.8000000007</v>
       </c>
       <c r="P41" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>89619795.949732617</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>8961979.5949732624</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>8700951.063080838</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>8447525.3039619774</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>8201480.8776329886</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>7962602.7938184356</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>7730682.3240955696</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>7505516.8195102615</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>7286909.5335051073</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>7074669.4500049585</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>6868611.1165096695</v>
       </c>
       <c r="AA41" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>78740928.877093077</v>
       </c>
       <c r="AB41">
@@ -13398,86 +13416,86 @@
         <v>852</v>
       </c>
       <c r="AE41" s="10">
-        <f>AD41*AB41</f>
+        <f t="shared" si="23"/>
         <v>59640</v>
       </c>
       <c r="AF41" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG41" s="11">
-        <f>AF41*AB41</f>
+        <f t="shared" si="24"/>
         <v>123584.4385026738</v>
       </c>
       <c r="AH41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI41" s="7">
-        <f>AH41*AB41</f>
+        <f t="shared" si="26"/>
         <v>11.9</v>
       </c>
       <c r="AJ41" s="2">
         <v>1710</v>
       </c>
       <c r="AK41" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>20349</v>
       </c>
       <c r="AL41" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>203573.43850267382</v>
       </c>
       <c r="AM41" s="2">
-        <f t="shared" si="34"/>
-        <v>20357.343850267382</v>
+        <f>($AL41)*(1/(1+discount_rate)^AM$1)</f>
+        <v>203573.43850267382</v>
       </c>
       <c r="AN41" s="2">
-        <f t="shared" si="34"/>
-        <v>19764.411505113963</v>
+        <f>($AL41)*(1/(1+discount_rate)^AN$1)</f>
+        <v>197644.11505113964</v>
       </c>
       <c r="AO41" s="2">
-        <f t="shared" si="34"/>
-        <v>19188.749034091226</v>
+        <f>($AL41)*(1/(1+discount_rate)^AO$1)</f>
+        <v>191887.49034091225</v>
       </c>
       <c r="AP41" s="2">
-        <f t="shared" si="34"/>
-        <v>18629.853431156531</v>
+        <f>($AL41)*(1/(1+discount_rate)^AP$1)</f>
+        <v>186298.53431156531</v>
       </c>
       <c r="AQ41" s="2">
-        <f t="shared" si="34"/>
-        <v>18087.236340928674</v>
+        <f>($AL41)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>180872.36340928671</v>
       </c>
       <c r="AR41" s="2">
-        <f t="shared" si="34"/>
-        <v>17560.423631969585</v>
+        <f>($AL41)*(1/(1+discount_rate)^AR$1)</f>
+        <v>175604.23631969586</v>
       </c>
       <c r="AS41" s="2">
-        <f t="shared" si="34"/>
-        <v>17048.954982494743</v>
+        <f>($AL41)*(1/(1+discount_rate)^AS$1)</f>
+        <v>170489.54982494743</v>
       </c>
       <c r="AT41" s="2">
-        <f t="shared" si="34"/>
-        <v>16552.383478150234</v>
+        <f>($AL41)*(1/(1+discount_rate)^AT$1)</f>
+        <v>165523.83478150234</v>
       </c>
       <c r="AU41" s="2">
-        <f t="shared" si="34"/>
-        <v>16070.275221505082</v>
+        <f>($AL41)*(1/(1+discount_rate)^AU$1)</f>
+        <v>160702.75221505083</v>
       </c>
       <c r="AV41" s="2">
-        <f t="shared" si="34"/>
-        <v>15602.208952917556</v>
+        <f>($AL41)*(1/(1+discount_rate)^AV$1)</f>
+        <v>156022.08952917557</v>
       </c>
       <c r="AW41" s="15">
-        <f t="shared" si="22"/>
-        <v>178861.84042859497</v>
+        <f t="shared" si="27"/>
+        <v>1788618.4042859499</v>
       </c>
       <c r="AX41">
-        <f>AA41/(G41+AW41)</f>
-        <v>75.464860399465294</v>
+        <f t="shared" si="28"/>
+        <v>29.678074241308749</v>
       </c>
       <c r="AY41">
-        <f>AA41/G41</f>
+        <f t="shared" si="29"/>
         <v>91.077356864372305</v>
       </c>
     </row>
@@ -13501,85 +13519,85 @@
         <v>50</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>34250</v>
       </c>
       <c r="H42">
         <v>857</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1084105</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>2233347.3529411764</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>215.05</v>
       </c>
       <c r="N42" s="2">
         <v>1710</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>367735.5</v>
       </c>
       <c r="P42" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>3685187.8529411764</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>368518.78529411764</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>357785.2284408909</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>347364.29945717566</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>337246.89267686958</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>327424.16764744621</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>317887.54140528757</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>308628.68097600737</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>299639.496093211</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>290912.13212933106</v>
       </c>
       <c r="Z42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>282438.96323236031</v>
       </c>
       <c r="AA42" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3237846.1873526969</v>
       </c>
       <c r="AB42">
@@ -13592,86 +13610,86 @@
         <v>852</v>
       </c>
       <c r="AE42" s="10">
-        <f>AD42*AB42</f>
+        <f t="shared" si="23"/>
         <v>42600</v>
       </c>
       <c r="AF42" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG42" s="11">
-        <f>AF42*AB42</f>
+        <f t="shared" si="24"/>
         <v>88274.598930481283</v>
       </c>
       <c r="AH42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI42" s="7">
-        <f>AH42*AB42</f>
+        <f t="shared" si="26"/>
         <v>8.5</v>
       </c>
       <c r="AJ42" s="2">
         <v>1710</v>
       </c>
       <c r="AK42" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>14535</v>
       </c>
       <c r="AL42" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>145409.5989304813</v>
       </c>
       <c r="AM42" s="2">
-        <f t="shared" si="34"/>
-        <v>14540.95989304813</v>
+        <f>($AL42)*(1/(1+discount_rate)^AM$1)</f>
+        <v>145409.5989304813</v>
       </c>
       <c r="AN42" s="2">
-        <f t="shared" si="34"/>
-        <v>14117.436789367117</v>
+        <f>($AL42)*(1/(1+discount_rate)^AN$1)</f>
+        <v>141174.36789367115</v>
       </c>
       <c r="AO42" s="2">
-        <f t="shared" si="34"/>
-        <v>13706.249310065161</v>
+        <f>($AL42)*(1/(1+discount_rate)^AO$1)</f>
+        <v>137062.49310065163</v>
       </c>
       <c r="AP42" s="2">
-        <f t="shared" si="34"/>
-        <v>13307.038165111808</v>
+        <f>($AL42)*(1/(1+discount_rate)^AP$1)</f>
+        <v>133070.38165111808</v>
       </c>
       <c r="AQ42" s="2">
-        <f t="shared" si="34"/>
-        <v>12919.454529234765</v>
+        <f>($AL42)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>129194.54529234766</v>
       </c>
       <c r="AR42" s="2">
-        <f t="shared" si="34"/>
-        <v>12543.159737121132</v>
+        <f>($AL42)*(1/(1+discount_rate)^AR$1)</f>
+        <v>125431.59737121132</v>
       </c>
       <c r="AS42" s="2">
-        <f t="shared" si="34"/>
-        <v>12177.824987496244</v>
+        <f>($AL42)*(1/(1+discount_rate)^AS$1)</f>
+        <v>121778.24987496245</v>
       </c>
       <c r="AT42" s="2">
-        <f t="shared" si="34"/>
-        <v>11823.131055821596</v>
+        <f>($AL42)*(1/(1+discount_rate)^AT$1)</f>
+        <v>118231.31055821596</v>
       </c>
       <c r="AU42" s="2">
-        <f t="shared" si="34"/>
-        <v>11478.768015360773</v>
+        <f>($AL42)*(1/(1+discount_rate)^AU$1)</f>
+        <v>114787.68015360773</v>
       </c>
       <c r="AV42" s="2">
-        <f t="shared" si="34"/>
-        <v>11144.434966369683</v>
+        <f>($AL42)*(1/(1+discount_rate)^AV$1)</f>
+        <v>111444.34966369683</v>
       </c>
       <c r="AW42" s="15">
-        <f t="shared" si="22"/>
-        <v>127758.4574489964</v>
+        <f t="shared" si="27"/>
+        <v>1277584.5744899642</v>
       </c>
       <c r="AX42">
-        <f>AA42/(G42+AW42)</f>
-        <v>19.985661479259733</v>
+        <f t="shared" si="28"/>
+        <v>2.468181774071291</v>
       </c>
       <c r="AY42">
-        <f>AA42/G42</f>
+        <f t="shared" si="29"/>
         <v>94.535655105188226</v>
       </c>
     </row>
@@ -13702,78 +13720,78 @@
         <v>858</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>2170740</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>4466694.7058823528</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17</v>
       </c>
       <c r="M43" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>430.1</v>
       </c>
       <c r="N43" s="2">
         <v>1710</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>735471</v>
       </c>
       <c r="P43" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>7372905.7058823528</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>737290.57058823528</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>715816.08794974303</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>694967.07567936217</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>674725.31619355548</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>655073.12251801509</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>635993.32283302431</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>617469.24546895572</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>599484.7043387919</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>582023.98479494359</v>
       </c>
       <c r="Z43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>565071.82989800349</v>
       </c>
       <c r="AA43" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6477915.2602626299</v>
       </c>
       <c r="AB43">
@@ -13786,86 +13804,86 @@
         <v>852</v>
       </c>
       <c r="AE43" s="10">
-        <f>AD43*AB43</f>
+        <f t="shared" si="23"/>
         <v>49416</v>
       </c>
       <c r="AF43" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1765.4919786096257</v>
       </c>
       <c r="AG43" s="11">
-        <f>AF43*AB43</f>
+        <f t="shared" si="24"/>
         <v>102398.53475935828</v>
       </c>
       <c r="AH43" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AI43" s="7">
-        <f>AH43*AB43</f>
+        <f t="shared" si="26"/>
         <v>9.8600000000000012</v>
       </c>
       <c r="AJ43" s="2">
         <v>1710</v>
       </c>
       <c r="AK43" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>16860.600000000002</v>
       </c>
       <c r="AL43" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>168675.13475935828</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="34"/>
-        <v>16867.513475935826</v>
+        <f>($AL43)*(1/(1+discount_rate)^AM$1)</f>
+        <v>168675.13475935828</v>
       </c>
       <c r="AN43" s="2">
-        <f t="shared" si="34"/>
-        <v>16376.22667566585</v>
+        <f>($AL43)*(1/(1+discount_rate)^AN$1)</f>
+        <v>163762.26675665853</v>
       </c>
       <c r="AO43" s="2">
-        <f t="shared" si="34"/>
-        <v>15899.249199675583</v>
+        <f>($AL43)*(1/(1+discount_rate)^AO$1)</f>
+        <v>158992.49199675585</v>
       </c>
       <c r="AP43" s="2">
-        <f t="shared" si="34"/>
-        <v>15436.164271529693</v>
+        <f>($AL43)*(1/(1+discount_rate)^AP$1)</f>
+        <v>154361.64271529694</v>
       </c>
       <c r="AQ43" s="2">
-        <f t="shared" si="34"/>
-        <v>14986.567253912324</v>
+        <f>($AL43)*(1/(1+discount_rate)^AQ$1)</f>
+        <v>149865.67253912325</v>
       </c>
       <c r="AR43" s="2">
-        <f t="shared" si="34"/>
-        <v>14550.065295060509</v>
+        <f>($AL43)*(1/(1+discount_rate)^AR$1)</f>
+        <v>145500.65295060512</v>
       </c>
       <c r="AS43" s="2">
-        <f t="shared" si="34"/>
-        <v>14126.27698549564</v>
+        <f>($AL43)*(1/(1+discount_rate)^AS$1)</f>
+        <v>141262.76985495642</v>
       </c>
       <c r="AT43" s="2">
-        <f t="shared" si="34"/>
-        <v>13714.832024753048</v>
+        <f>($AL43)*(1/(1+discount_rate)^AT$1)</f>
+        <v>137148.3202475305</v>
       </c>
       <c r="AU43" s="2">
-        <f t="shared" si="34"/>
-        <v>13315.370897818493</v>
+        <f>($AL43)*(1/(1+discount_rate)^AU$1)</f>
+        <v>133153.70897818494</v>
       </c>
       <c r="AV43" s="2">
-        <f t="shared" si="34"/>
-        <v>12927.544560988828</v>
+        <f>($AL43)*(1/(1+discount_rate)^AV$1)</f>
+        <v>129275.44560988829</v>
       </c>
       <c r="AW43" s="15">
-        <f t="shared" si="22"/>
-        <v>148199.81064083581</v>
+        <f t="shared" si="27"/>
+        <v>1481998.1064083581</v>
       </c>
       <c r="AX43">
-        <f>AA43/(G43+AW43)</f>
-        <v>29.838419670386177</v>
+        <f t="shared" si="28"/>
+        <v>4.1768799855359209</v>
       </c>
       <c r="AY43">
-        <f>AA43/G43</f>
+        <f t="shared" si="29"/>
         <v>94.019089408746439</v>
       </c>
     </row>
@@ -13944,7 +13962,7 @@
         <v>0.34454912516823688</v>
       </c>
       <c r="G2">
-        <f>C2-E2</f>
+        <f t="shared" ref="G2:G21" si="1">C2-E2</f>
         <v>34090</v>
       </c>
       <c r="H2">
@@ -13975,7 +13993,7 @@
         <v>0.22172252043135549</v>
       </c>
       <c r="G3">
-        <f>C3-E3</f>
+        <f t="shared" si="1"/>
         <v>16094</v>
       </c>
       <c r="H3">
@@ -14006,7 +14024,7 @@
         <v>0.26650700001947153</v>
       </c>
       <c r="G4">
-        <f>C4-E4</f>
+        <f t="shared" si="1"/>
         <v>37670</v>
       </c>
       <c r="H4">
@@ -14037,7 +14055,7 @@
         <v>0.32064367816091954</v>
       </c>
       <c r="G5">
-        <f>C5-E5</f>
+        <f t="shared" si="1"/>
         <v>22164</v>
       </c>
       <c r="H5">
@@ -14068,7 +14086,7 @@
         <v>0.33991070142589658</v>
       </c>
       <c r="G6">
-        <f>C6-E6</f>
+        <f t="shared" si="1"/>
         <v>36664</v>
       </c>
       <c r="H6">
@@ -14099,7 +14117,7 @@
         <v>0.24041789514164852</v>
       </c>
       <c r="G7">
-        <f>C7-E7</f>
+        <f t="shared" si="1"/>
         <v>11851</v>
       </c>
       <c r="H7">
@@ -14130,7 +14148,7 @@
         <v>0.28872220028951179</v>
       </c>
       <c r="G8">
-        <f>C8-E8</f>
+        <f t="shared" si="1"/>
         <v>10810</v>
       </c>
       <c r="H8">
@@ -14161,7 +14179,7 @@
         <v>0.27334722485319191</v>
       </c>
       <c r="G9">
-        <f>C9-E9</f>
+        <f t="shared" si="1"/>
         <v>7672</v>
       </c>
       <c r="H9">
@@ -14192,7 +14210,7 @@
         <v>0.26708217913204063</v>
       </c>
       <c r="G10">
-        <f>C10-E10</f>
+        <f t="shared" si="1"/>
         <v>12700</v>
       </c>
       <c r="H10">
@@ -14223,7 +14241,7 @@
         <v>0.18041197641473314</v>
       </c>
       <c r="G11">
-        <f>C11-E11</f>
+        <f t="shared" si="1"/>
         <v>10703</v>
       </c>
       <c r="H11">
@@ -14254,7 +14272,7 @@
         <v>0.20581730447020977</v>
       </c>
       <c r="G12">
-        <f>C12-E12</f>
+        <f t="shared" si="1"/>
         <v>11850</v>
       </c>
       <c r="H12">
@@ -14285,7 +14303,7 @@
         <v>0.17048491790759832</v>
       </c>
       <c r="G13">
-        <f>C13-E13</f>
+        <f t="shared" si="1"/>
         <v>4345</v>
       </c>
       <c r="H13">
@@ -14316,7 +14334,7 @@
         <v>0.26484639478596511</v>
       </c>
       <c r="G14">
-        <f>C14-E14</f>
+        <f t="shared" si="1"/>
         <v>23236</v>
       </c>
       <c r="H14">
@@ -14347,7 +14365,7 @@
         <v>0.28496540155168798</v>
       </c>
       <c r="G15">
-        <f>C15-E15</f>
+        <f t="shared" si="1"/>
         <v>3410</v>
       </c>
       <c r="H15">
@@ -14378,7 +14396,7 @@
         <v>0.25268020570033994</v>
       </c>
       <c r="G16">
-        <f>C16-E16</f>
+        <f t="shared" si="1"/>
         <v>8574</v>
       </c>
       <c r="H16">
@@ -14409,7 +14427,7 @@
         <v>0.28757423481041572</v>
       </c>
       <c r="G17">
-        <f>C17-E17</f>
+        <f t="shared" si="1"/>
         <v>28071</v>
       </c>
       <c r="H17">
@@ -14440,7 +14458,7 @@
         <v>0.18311291963377416</v>
       </c>
       <c r="G18">
-        <f>C18-E18</f>
+        <f t="shared" si="1"/>
         <v>3212</v>
       </c>
       <c r="H18">
@@ -14471,7 +14489,7 @@
         <v>0.29633247643530419</v>
       </c>
       <c r="G19">
-        <f>C19-E19</f>
+        <f t="shared" si="1"/>
         <v>41059</v>
       </c>
       <c r="H19">
@@ -14502,7 +14520,7 @@
         <v>0.21426337191116671</v>
       </c>
       <c r="G20">
-        <f>C20-E20</f>
+        <f t="shared" si="1"/>
         <v>2512</v>
       </c>
       <c r="H20">
@@ -14533,7 +14551,7 @@
         <v>0.22683127572016462</v>
       </c>
       <c r="G21">
-        <f>C21-E21</f>
+        <f t="shared" si="1"/>
         <v>4697</v>
       </c>
       <c r="H21">
@@ -14548,19 +14566,19 @@
         <v>67</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:E22" si="1">SUM(B2:B21)</f>
+        <f t="shared" ref="B22:E22" si="2">SUM(B2:B21)</f>
         <v>4241739</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>462924</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>234567</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131540</v>
       </c>
       <c r="F22" s="17">
@@ -14585,10 +14603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14611,31 +14629,31 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
         <v>65</v>
@@ -14673,7 +14691,7 @@
         <v>209523.87021635409</v>
       </c>
       <c r="K2" s="17">
-        <v>140.18871135445528</v>
+        <v>32.448345162986818</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -14708,7 +14726,7 @@
         <v>181417.00957757491</v>
       </c>
       <c r="K3" s="17">
-        <v>78.933062950883055</v>
+        <v>11.311349161585374</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -14743,7 +14761,7 @@
         <v>158420.48723675552</v>
       </c>
       <c r="K4" s="17">
-        <v>146.01034568782904</v>
+        <v>33.962203654434546</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -14778,7 +14796,7 @@
         <v>245296.23830207309</v>
       </c>
       <c r="K5" s="17">
-        <v>103.45676102649186</v>
+        <v>17.663244317364047</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -14813,7 +14831,7 @@
         <v>127758.4574489964</v>
       </c>
       <c r="K6" s="17">
-        <v>166.36256753924349</v>
+        <v>50.793568164319744</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14848,7 +14866,7 @@
         <v>143089.47234287599</v>
       </c>
       <c r="K7" s="17">
-        <v>80.201413565466098</v>
+        <v>11.61598842336049</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -14883,7 +14901,7 @@
         <v>219744.54681227382</v>
       </c>
       <c r="K8" s="17">
-        <v>65.112225685657847</v>
+        <v>8.7617090588596955</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -14918,7 +14936,7 @@
         <v>158420.48723675552</v>
       </c>
       <c r="K9" s="17">
-        <v>61.378774477231673</v>
+        <v>8.079808305951536</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -14953,7 +14971,7 @@
         <v>191637.68617349459</v>
       </c>
       <c r="K10" s="17">
-        <v>75.055333288895085</v>
+        <v>10.617830984127135</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14988,7 +15006,7 @@
         <v>229965.22340819353</v>
       </c>
       <c r="K11" s="17">
-        <v>40.676478440521471</v>
+        <v>4.8027034547558687</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15023,7 +15041,7 @@
         <v>178861.84042859497</v>
       </c>
       <c r="K12" s="17">
-        <v>60.486477436137612</v>
+        <v>7.8559461715646748</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15058,7 +15076,7 @@
         <v>183972.17872655479</v>
       </c>
       <c r="K13" s="17">
-        <v>21.243261897287386</v>
+        <v>2.3081480779911385</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15093,7 +15111,7 @@
         <v>260627.25319595268</v>
       </c>
       <c r="K14" s="17">
-        <v>90.226911628262243</v>
+        <v>13.924175532010686</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15128,7 +15146,7 @@
         <v>120092.95000205663</v>
       </c>
       <c r="K15" s="17">
-        <v>42.177577084477903</v>
+        <v>5.0578683749830002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15163,7 +15181,7 @@
         <v>173751.50213063505</v>
       </c>
       <c r="K16" s="17">
-        <v>58.040979274647285</v>
+        <v>7.4909276566310341</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -15198,7 +15216,7 @@
         <v>242741.06915309315</v>
       </c>
       <c r="K17" s="17">
-        <v>110.30451513299403</v>
+        <v>19.507176507205902</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -15233,7 +15251,7 @@
         <v>150754.97978981576</v>
       </c>
       <c r="K18" s="17">
-        <v>20.845907944714227</v>
+        <v>2.2621018840859408</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -15268,7 +15286,7 @@
         <v>178861.84042859497</v>
       </c>
       <c r="K19" s="17">
-        <v>150.07366905012807</v>
+        <v>36.890700953928395</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -15303,7 +15321,7 @@
         <v>127758.4574489964</v>
       </c>
       <c r="K20" s="17">
-        <v>22.889025129657728</v>
+        <v>2.5074613693357191</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -15338,248 +15356,8 @@
         <v>148199.81064083581</v>
       </c>
       <c r="K21" s="17">
-        <v>36.856635408536107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="17"/>
+        <v>4.2912659226317036</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15591,8 +15369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15615,31 +15393,31 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
         <v>65</v>
@@ -15674,10 +15452,10 @@
         <v>82</v>
       </c>
       <c r="J2" s="7">
-        <v>209523.87021635409</v>
+        <v>2095238.702163541</v>
       </c>
       <c r="K2" s="17">
-        <v>72.017002669950855</v>
+        <v>26.616570404588419</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -15709,10 +15487,10 @@
         <v>71</v>
       </c>
       <c r="J3" s="7">
-        <v>181417.00957757491</v>
+        <v>1814170.0957757486</v>
       </c>
       <c r="K3" s="17">
-        <v>52.494993771520271</v>
+        <v>10.549941323621734</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15744,10 +15522,10 @@
         <v>62</v>
       </c>
       <c r="J4" s="7">
-        <v>158420.48723675552</v>
+        <v>1584204.8723675553</v>
       </c>
       <c r="K4" s="17">
-        <v>74.871988387904892</v>
+        <v>27.815021317163779</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15779,10 +15557,10 @@
         <v>96</v>
       </c>
       <c r="J5" s="7">
-        <v>245296.23830207309</v>
+        <v>2452962.3830207312</v>
       </c>
       <c r="K5" s="17">
-        <v>61.199984466105676</v>
+        <v>15.800598854010225</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15814,10 +15592,10 @@
         <v>50</v>
       </c>
       <c r="J6" s="7">
-        <v>127758.4574489964</v>
+        <v>1277584.5744899642</v>
       </c>
       <c r="K6" s="17">
-        <v>78.443729484530309</v>
+        <v>37.843587624021986</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15849,10 +15627,10 @@
         <v>56</v>
       </c>
       <c r="J7" s="7">
-        <v>143089.47234287599</v>
+        <v>1430894.7234287597</v>
       </c>
       <c r="K7" s="17">
-        <v>52.905625181304778</v>
+        <v>10.808332061448112</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15884,10 +15662,10 @@
         <v>86</v>
       </c>
       <c r="J8" s="7">
-        <v>219744.54681227382</v>
+        <v>2197445.4681227384</v>
       </c>
       <c r="K8" s="17">
-        <v>45.593883828792883</v>
+        <v>8.2844789687603999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15919,10 +15697,10 @@
         <v>62</v>
       </c>
       <c r="J9" s="7">
-        <v>158420.48723675552</v>
+        <v>1584204.8723675553</v>
       </c>
       <c r="K9" s="17">
-        <v>43.824051495821628</v>
+        <v>7.6750944898018005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15954,10 +15732,10 @@
         <v>75</v>
       </c>
       <c r="J10" s="7">
-        <v>191637.68617349459</v>
+        <v>1916376.8617349463</v>
       </c>
       <c r="K10" s="17">
-        <v>50.422344752841809</v>
+        <v>9.9314563052205997</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15989,10 +15767,10 @@
         <v>90</v>
       </c>
       <c r="J11" s="7">
-        <v>229965.22340819353</v>
+        <v>2299652.2340819356</v>
       </c>
       <c r="K11" s="17">
-        <v>32.409368037703892</v>
+        <v>4.6622849284262031</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -16024,10 +15802,10 @@
         <v>70</v>
       </c>
       <c r="J12" s="7">
-        <v>178861.84042859497</v>
+        <v>1788618.4042859499</v>
       </c>
       <c r="K12" s="17">
-        <v>43.7222756585887</v>
+        <v>7.4832862522759811</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -16059,10 +15837,10 @@
         <v>72</v>
       </c>
       <c r="J13" s="7">
-        <v>183972.17872655479</v>
+        <v>1839721.7872655482</v>
       </c>
       <c r="K13" s="17">
-        <v>18.753971534478737</v>
+        <v>2.2753332760357807</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -16094,10 +15872,10 @@
         <v>102</v>
       </c>
       <c r="J14" s="7">
-        <v>260627.25319595268</v>
+        <v>2606272.5319595272</v>
       </c>
       <c r="K14" s="17">
-        <v>56.864951682486307</v>
+        <v>12.768147975217602</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16129,10 +15907,10 @@
         <v>47</v>
       </c>
       <c r="J15" s="7">
-        <v>120092.95000205663</v>
+        <v>1200929.5000205659</v>
       </c>
       <c r="K15" s="17">
-        <v>33.032965081127834</v>
+        <v>4.8953554699792425</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16164,10 +15942,10 @@
         <v>68</v>
       </c>
       <c r="J16" s="7">
-        <v>173751.50213063505</v>
+        <v>1737515.0213063511</v>
       </c>
       <c r="K16" s="17">
-        <v>42.202258924195398</v>
+        <v>7.1448463372314857</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -16199,10 +15977,10 @@
         <v>95</v>
       </c>
       <c r="J17" s="7">
-        <v>242741.06915309315</v>
+        <v>2427410.6915309313</v>
       </c>
       <c r="K17" s="17">
-        <v>63.972836385572194</v>
+        <v>17.292359683173462</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -16234,10 +16012,10 @@
         <v>59</v>
       </c>
       <c r="J18" s="7">
-        <v>150754.97978981576</v>
+        <v>1507549.797898157</v>
       </c>
       <c r="K18" s="17">
-        <v>18.434879268999193</v>
+        <v>2.2304466690985199</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -16269,10 +16047,10 @@
         <v>70</v>
       </c>
       <c r="J19" s="7">
-        <v>178861.84042859497</v>
+        <v>1788618.4042859499</v>
       </c>
       <c r="K19" s="17">
-        <v>75.464860399465294</v>
+        <v>29.678074241308749</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -16304,10 +16082,10 @@
         <v>50</v>
       </c>
       <c r="J20" s="7">
-        <v>127758.4574489964</v>
+        <v>1277584.5744899642</v>
       </c>
       <c r="K20" s="17">
-        <v>19.985661479259733</v>
+        <v>2.468181774071291</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -16339,13 +16117,14 @@
         <v>58</v>
       </c>
       <c r="J21" s="7">
-        <v>148199.81064083581</v>
+        <v>1481998.1064083581</v>
       </c>
       <c r="K21" s="17">
-        <v>29.838419670386177</v>
+        <v>4.1768799855359209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cost_benefit_with_management.xlsx
+++ b/cost_benefit_with_management.xlsx
@@ -6078,7 +6078,7 @@
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,8 +6117,8 @@
         <v>83</v>
       </c>
       <c r="B2" s="12">
-        <f>210436/247</f>
-        <v>851.96761133603241</v>
+        <f>207155/247</f>
+        <v>838.68421052631584</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
@@ -6367,75 +6367,75 @@
         <v>17920</v>
       </c>
       <c r="F19" s="7">
-        <f>C19*extra_vacc</f>
+        <f t="shared" ref="F19:F38" si="0">C19*extra_vacc</f>
         <v>0</v>
       </c>
       <c r="G19" s="22">
         <f>lost_wages*D19</f>
-        <v>26546458.801619433</v>
+        <v>26132561.315789476</v>
       </c>
       <c r="H19" s="22">
-        <f>(case_management+case_gp+case_lab)*D19</f>
+        <f t="shared" ref="H19:H38" si="1">(case_management+case_gp+case_lab)*D19</f>
         <v>55634144.561497323</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" ref="I19:I38" si="0">prop_hospitalised*D19</f>
+        <f t="shared" ref="I19:I38" si="2">prop_hospitalised*D19</f>
         <v>5297.0300000000007</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" ref="J19:J38" si="1">hospital_costs*I19</f>
+        <f t="shared" ref="J19:J38" si="3">hospital_costs*I19</f>
         <v>9942525.3100000005</v>
       </c>
       <c r="K19" s="22">
-        <f>D19*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" ref="K19:K38" si="4">D19*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
         <v>81779020.984268814</v>
       </c>
       <c r="L19" s="22">
         <f>G19+H19+J19+K19</f>
-        <v>173902149.65738559</v>
+        <v>173488252.17155561</v>
       </c>
       <c r="M19" s="33">
-        <f t="shared" ref="M19:M38" si="2">L19/disc_years*(1-1/(1+disc_rate)^disc_years)/(1-1/(1+disc_rate))</f>
-        <v>152792322.8638711</v>
+        <f t="shared" ref="M19:M38" si="5">L19/disc_years*(1-1/(1+disc_rate)^disc_years)/(1-1/(1+disc_rate))</f>
+        <v>152428668.02457172</v>
       </c>
       <c r="N19" s="20">
-        <f>vacc_cost*(E19+F19)</f>
+        <f t="shared" ref="N19:N38" si="6">vacc_cost*(E19+F19)</f>
         <v>147194880</v>
       </c>
       <c r="O19" s="23">
         <v>82</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" ref="P19:P38" si="3">lost_wages*O19</f>
-        <v>69861.344129554651</v>
+        <f t="shared" ref="P19:P38" si="7">lost_wages*O19</f>
+        <v>68772.105263157893</v>
       </c>
       <c r="Q19" s="23">
-        <f>(case_management+case_gp+case_lab)*O19</f>
+        <f t="shared" ref="Q19:Q38" si="8">(case_management+case_gp+case_lab)*O19</f>
         <v>146410.3422459893</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" ref="R19:R38" si="4">prop_hospitalised*O19</f>
+        <f t="shared" ref="R19:R38" si="9">prop_hospitalised*O19</f>
         <v>13.940000000000001</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" ref="S19:S38" si="5">hospital_costs*R19</f>
+        <f t="shared" ref="S19:S38" si="10">hospital_costs*R19</f>
         <v>26165.38</v>
       </c>
       <c r="T19" s="23">
-        <f>O19*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" ref="T19:T38" si="11">O19*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
         <v>215214.85672550605</v>
       </c>
       <c r="U19" s="23">
         <f>P19+Q19+S19+T19</f>
-        <v>457651.92310104996</v>
+        <v>456562.68423465325</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" ref="V19:V38" si="6">U19*(1-1/(1+disc_rate)^disc_years)/(1-1/(1+disc_rate))</f>
-        <v>4020979.644673266</v>
+        <f t="shared" ref="V19:V38" si="12">U19*(1-1/(1+disc_rate)^disc_years)/(1-1/(1+disc_rate))</f>
+        <v>4011409.4733511601</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" ref="W19:W38" si="7">M19/(N19+V19)</f>
-        <v>1.0104252505187101</v>
+        <f t="shared" ref="W19:W38" si="13">M19/(N19+V19)</f>
+        <v>1.0080841779497274</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -6455,75 +6455,75 @@
         <v>4585</v>
       </c>
       <c r="F20" s="7">
-        <f>C20*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" ref="G20:G38" si="8">lost_wages*D20</f>
-        <v>7188050.7368421052</v>
+        <f t="shared" ref="G20:G38" si="14">lost_wages*D20</f>
+        <v>7075978.6842105268</v>
       </c>
       <c r="H20" s="22">
-        <f>(case_management+case_gp+case_lab)*D20</f>
+        <f t="shared" si="1"/>
         <v>15064195.823529411</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1434.2900000000002</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2692162.3300000005</v>
       </c>
       <c r="K20" s="22">
-        <f>D20*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>22143509.099915791</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" ref="L20:L40" si="9">G20+H20+J20+K20</f>
-        <v>47087917.990287311</v>
+        <f t="shared" ref="L20:L40" si="15">G20+H20+J20+K20</f>
+        <v>46975845.937655732</v>
       </c>
       <c r="M20" s="33">
-        <f t="shared" si="2"/>
-        <v>41371957.636717506</v>
+        <f t="shared" si="5"/>
+        <v>41273489.910565548</v>
       </c>
       <c r="N20" s="20">
-        <f>vacc_cost*(E20+F20)</f>
+        <f t="shared" si="6"/>
         <v>37661190</v>
       </c>
       <c r="O20" s="23">
         <v>71</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="3"/>
-        <v>60489.700404858304</v>
+        <f t="shared" si="7"/>
+        <v>59546.578947368427</v>
       </c>
       <c r="Q20" s="23">
-        <f>(case_management+case_gp+case_lab)*O20</f>
+        <f t="shared" si="8"/>
         <v>126769.93048128342</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.07</v>
       </c>
       <c r="S20" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>22655.39</v>
       </c>
       <c r="T20" s="23">
-        <f>O20*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>186344.5710672065</v>
       </c>
       <c r="U20" s="23">
-        <f t="shared" ref="U20:U40" si="10">P20+Q20+S20+T20</f>
-        <v>396259.59195334825</v>
+        <f t="shared" ref="U20:U40" si="16">P20+Q20+S20+T20</f>
+        <v>395316.47049585835</v>
       </c>
       <c r="V20" s="23">
-        <f t="shared" si="6"/>
-        <v>3481579.9362414875</v>
+        <f t="shared" si="12"/>
+        <v>3473293.5683894195</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0055705461939288</v>
+        <f t="shared" si="13"/>
+        <v>1.0033793141451508</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -6543,75 +6543,75 @@
         <v>13687</v>
       </c>
       <c r="F21" s="7">
-        <f>C21*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="8"/>
-        <v>21039340.16194332</v>
+        <f t="shared" si="14"/>
+        <v>20711306.578947369</v>
       </c>
       <c r="H21" s="22">
-        <f>(case_management+case_gp+case_lab)*D21</f>
+        <f t="shared" si="1"/>
         <v>44092724.411764704</v>
       </c>
       <c r="I21" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4198.1500000000005</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7879927.5500000007</v>
       </c>
       <c r="K21" s="22">
-        <f>D21*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>64813791.302882589</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="9"/>
-        <v>137825783.42659062</v>
+        <f t="shared" si="15"/>
+        <v>137497749.84359467</v>
       </c>
       <c r="M21" s="33">
-        <f t="shared" si="2"/>
-        <v>121095234.54293452</v>
+        <f t="shared" si="5"/>
+        <v>120807020.66391087</v>
       </c>
       <c r="N21" s="20">
-        <f>vacc_cost*(E21+F21)</f>
+        <f t="shared" si="6"/>
         <v>112425018</v>
       </c>
       <c r="O21" s="23">
         <v>62</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="3"/>
-        <v>52821.991902834008</v>
+        <f t="shared" si="7"/>
+        <v>51998.42105263158</v>
       </c>
       <c r="Q21" s="23">
-        <f>(case_management+case_gp+case_lab)*O21</f>
+        <f t="shared" si="8"/>
         <v>110700.50267379679</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.540000000000001</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>19783.580000000002</v>
       </c>
       <c r="T21" s="23">
-        <f>O21*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>162723.42825587044</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="10"/>
-        <v>346029.5028325012</v>
+        <f t="shared" si="16"/>
+        <v>345205.93198229885</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="6"/>
-        <v>3040252.9020700306</v>
+        <f t="shared" si="12"/>
+        <v>3033016.9188752677</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0487589350189932</v>
+        <f t="shared" si="13"/>
+        <v>1.0463283975757425</v>
       </c>
       <c r="Y21" s="2"/>
     </row>
@@ -6632,75 +6632,75 @@
         <v>10461</v>
       </c>
       <c r="F22" s="7">
-        <f>C22*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="8"/>
-        <v>15678759.951417005</v>
+        <f t="shared" si="14"/>
+        <v>15434305.52631579</v>
       </c>
       <c r="H22" s="22">
-        <f>(case_management+case_gp+case_lab)*D22</f>
+        <f t="shared" si="1"/>
         <v>32858408.882352941</v>
       </c>
       <c r="I22" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3128.51</v>
       </c>
       <c r="J22" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5872213.2700000005</v>
       </c>
       <c r="K22" s="22">
-        <f>D22*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>48299987.906335212</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" si="9"/>
-        <v>102709370.01010516</v>
+        <f t="shared" si="15"/>
+        <v>102464915.58500394</v>
       </c>
       <c r="M22" s="33">
-        <f t="shared" si="2"/>
-        <v>90241571.220636725</v>
+        <f t="shared" si="5"/>
+        <v>90026790.900099263</v>
       </c>
       <c r="N22" s="20">
-        <f>vacc_cost*(E22+F22)</f>
+        <f t="shared" si="6"/>
         <v>85926654</v>
       </c>
       <c r="O22" s="23">
         <v>96</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="3"/>
-        <v>81788.890688259111</v>
+        <f t="shared" si="7"/>
+        <v>80513.68421052632</v>
       </c>
       <c r="Q22" s="23">
-        <f>(case_management+case_gp+case_lab)*O22</f>
+        <f t="shared" si="8"/>
         <v>171407.22994652408</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.32</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>30632.639999999999</v>
       </c>
       <c r="T22" s="23">
-        <f>O22*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>251958.85665425102</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="10"/>
-        <v>535787.61728903418</v>
+        <f t="shared" si="16"/>
+        <v>534512.41081130144</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="6"/>
-        <v>4707488.3644955317</v>
+        <f t="shared" si="12"/>
+        <v>4696284.2614842858</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="7"/>
-        <v>0.99566861743690327</v>
+        <f t="shared" si="13"/>
+        <v>0.99342167256081582</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -6720,75 +6720,75 @@
         <v>18880</v>
       </c>
       <c r="F23" s="7">
-        <f>C23*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="22">
-        <f t="shared" si="8"/>
-        <v>28032290.315789476</v>
+        <f t="shared" si="14"/>
+        <v>27595226.578947369</v>
       </c>
       <c r="H23" s="22">
-        <f>(case_management+case_gp+case_lab)*D23</f>
+        <f t="shared" si="1"/>
         <v>58748042.572192512</v>
       </c>
       <c r="I23" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5593.51</v>
       </c>
       <c r="J23" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10499018.27</v>
       </c>
       <c r="K23" s="22">
-        <f>D23*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>86356273.546821058</v>
       </c>
       <c r="L23" s="22">
-        <f t="shared" si="9"/>
-        <v>183635624.70480305</v>
+        <f t="shared" si="15"/>
+        <v>183198560.96796095</v>
       </c>
       <c r="M23" s="33">
-        <f t="shared" si="2"/>
-        <v>161344260.05937132</v>
+        <f t="shared" si="5"/>
+        <v>160960251.09960154</v>
       </c>
       <c r="N23" s="20">
-        <f>vacc_cost*(E23+F23)</f>
+        <f t="shared" si="6"/>
         <v>155080320</v>
       </c>
       <c r="O23" s="23">
         <v>50</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" si="3"/>
-        <v>42598.380566801621</v>
+        <f t="shared" si="7"/>
+        <v>41934.210526315794</v>
       </c>
       <c r="Q23" s="23">
-        <f>(case_management+case_gp+case_lab)*O23</f>
+        <f t="shared" si="8"/>
         <v>89274.598930481283</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.5</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15954.5</v>
       </c>
       <c r="T23" s="23">
-        <f>O23*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>131228.57117408907</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="10"/>
-        <v>279056.05067137198</v>
+        <f t="shared" si="16"/>
+        <v>278391.88063088618</v>
       </c>
       <c r="V23" s="23">
-        <f t="shared" si="6"/>
-        <v>2451816.8565080892</v>
+        <f t="shared" si="12"/>
+        <v>2445981.3861897322</v>
       </c>
       <c r="W23" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0241990191901962</v>
+        <f t="shared" si="13"/>
+        <v>1.0217992150085031</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -6808,75 +6808,75 @@
         <v>3751</v>
       </c>
       <c r="F24" s="7">
-        <f>C24*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="22">
-        <f t="shared" si="8"/>
-        <v>5832570.2672064779</v>
+        <f t="shared" si="14"/>
+        <v>5741632.1052631587</v>
       </c>
       <c r="H24" s="22">
-        <f>(case_management+case_gp+case_lab)*D24</f>
+        <f t="shared" si="1"/>
         <v>12223478.085561497</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1163.8200000000002</v>
       </c>
       <c r="J24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2184490.14</v>
       </c>
       <c r="K24" s="22">
-        <f>D24*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>17967815.965156276</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" si="9"/>
-        <v>38208354.457924247</v>
+        <f t="shared" si="15"/>
+        <v>38117416.29598093</v>
       </c>
       <c r="M24" s="33">
-        <f t="shared" si="2"/>
-        <v>33570276.399308756</v>
+        <f t="shared" si="5"/>
+        <v>33490377.139709812</v>
       </c>
       <c r="N24" s="20">
-        <f>vacc_cost*(E24+F24)</f>
+        <f t="shared" si="6"/>
         <v>30810714</v>
       </c>
       <c r="O24" s="23">
         <v>56</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" si="3"/>
-        <v>47710.186234817811</v>
+        <f t="shared" si="7"/>
+        <v>46966.315789473687</v>
       </c>
       <c r="Q24" s="23">
-        <f>(case_management+case_gp+case_lab)*O24</f>
+        <f t="shared" si="8"/>
         <v>99987.550802139041</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.5200000000000014</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17869.04</v>
       </c>
       <c r="T24" s="23">
-        <f>O24*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>146975.99971497976</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="10"/>
-        <v>312542.77675193665</v>
+        <f t="shared" si="16"/>
+        <v>311798.90630659251</v>
       </c>
       <c r="V24" s="23">
-        <f t="shared" si="6"/>
-        <v>2746034.8792890604</v>
+        <f t="shared" si="12"/>
+        <v>2739499.1525325002</v>
       </c>
       <c r="W24" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0004031236776947</v>
+        <f t="shared" si="13"/>
+        <v>0.99821652361638813</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -6896,75 +6896,75 @@
         <v>4388</v>
       </c>
       <c r="F25" s="7">
-        <f>C25*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="8"/>
-        <v>6676018.2024291502</v>
+        <f t="shared" si="14"/>
+        <v>6571929.4736842113</v>
       </c>
       <c r="H25" s="22">
-        <f>(case_management+case_gp+case_lab)*D25</f>
+        <f t="shared" si="1"/>
         <v>13991115.144385027</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1332.1200000000001</v>
       </c>
       <c r="J25" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2500389.2400000002</v>
       </c>
       <c r="K25" s="22">
-        <f>D25*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>20566141.674403239</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" si="9"/>
-        <v>43733664.261217415</v>
+        <f t="shared" si="15"/>
+        <v>43629575.532472476</v>
       </c>
       <c r="M25" s="33">
-        <f t="shared" si="2"/>
-        <v>38424873.775194779</v>
+        <f t="shared" si="5"/>
+        <v>38333420.284365475</v>
       </c>
       <c r="N25" s="20">
-        <f>vacc_cost*(E25+F25)</f>
+        <f t="shared" si="6"/>
         <v>36043032</v>
       </c>
       <c r="O25" s="23">
         <v>86</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="3"/>
-        <v>73269.214574898782</v>
+        <f t="shared" si="7"/>
+        <v>72126.84210526316</v>
       </c>
       <c r="Q25" s="23">
-        <f>(case_management+case_gp+case_lab)*O25</f>
+        <f t="shared" si="8"/>
         <v>153552.31016042782</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.620000000000001</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>27441.74</v>
       </c>
       <c r="T25" s="23">
-        <f>O25*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>225713.14241943319</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="10"/>
-        <v>479976.40715475974</v>
+        <f t="shared" si="16"/>
+        <v>478834.03468512418</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" si="6"/>
-        <v>4217124.9931939133</v>
+        <f t="shared" si="12"/>
+        <v>4207087.9842463387</v>
       </c>
       <c r="W25" s="15">
-        <f t="shared" si="7"/>
-        <v>0.95441440483430329</v>
+        <f t="shared" si="13"/>
+        <v>0.95238027363319544</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -6984,75 +6984,75 @@
         <v>2886</v>
       </c>
       <c r="F26" s="7">
-        <f>C26*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="8"/>
-        <v>4423415.8380566798</v>
+        <f t="shared" si="14"/>
+        <v>4354448.4210526319</v>
       </c>
       <c r="H26" s="22">
-        <f>(case_management+case_gp+case_lab)*D26</f>
+        <f t="shared" si="1"/>
         <v>9270274.3529411759</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>882.6400000000001</v>
       </c>
       <c r="J26" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1656715.2800000003</v>
       </c>
       <c r="K26" s="22">
-        <f>D26*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>13626774.830717409</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" si="9"/>
-        <v>28977180.301715262</v>
+        <f t="shared" si="15"/>
+        <v>28908212.884711221</v>
       </c>
       <c r="M26" s="33">
-        <f t="shared" si="2"/>
-        <v>25459666.237979997</v>
+        <f t="shared" si="5"/>
+        <v>25399070.714194182</v>
       </c>
       <c r="N26" s="20">
-        <f>vacc_cost*(E26+F26)</f>
+        <f t="shared" si="6"/>
         <v>23705604</v>
       </c>
       <c r="O26" s="23">
         <v>62</v>
       </c>
       <c r="P26" s="23">
-        <f t="shared" si="3"/>
-        <v>52821.991902834008</v>
+        <f t="shared" si="7"/>
+        <v>51998.42105263158</v>
       </c>
       <c r="Q26" s="23">
-        <f>(case_management+case_gp+case_lab)*O26</f>
+        <f t="shared" si="8"/>
         <v>110700.50267379679</v>
       </c>
       <c r="R26" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.540000000000001</v>
       </c>
       <c r="S26" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>19783.580000000002</v>
       </c>
       <c r="T26" s="23">
-        <f>O26*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>162723.42825587044</v>
       </c>
       <c r="U26" s="23">
-        <f t="shared" si="10"/>
-        <v>346029.5028325012</v>
+        <f t="shared" si="16"/>
+        <v>345205.93198229885</v>
       </c>
       <c r="V26" s="23">
-        <f t="shared" si="6"/>
-        <v>3040252.9020700306</v>
+        <f t="shared" si="12"/>
+        <v>3033016.9188752677</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" si="7"/>
-        <v>0.95191065783386852</v>
+        <f t="shared" si="13"/>
+        <v>0.94990204585549609</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -7072,75 +7072,75 @@
         <v>4628</v>
       </c>
       <c r="F27" s="7">
-        <f>C27*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" si="8"/>
-        <v>7112225.6194331981</v>
+        <f t="shared" si="14"/>
+        <v>7001335.7894736845</v>
       </c>
       <c r="H27" s="22">
-        <f>(case_management+case_gp+case_lab)*D27</f>
+        <f t="shared" si="1"/>
         <v>14905287.037433155</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1419.16</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2663763.3200000003</v>
       </c>
       <c r="K27" s="22">
-        <f>D27*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>21909922.24322591</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" si="9"/>
-        <v>46591198.220092267</v>
+        <f t="shared" si="15"/>
+        <v>46480308.390132748</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="2"/>
-        <v>40935534.236259066</v>
+        <f t="shared" si="5"/>
+        <v>40838105.223823763</v>
       </c>
       <c r="N27" s="20">
-        <f>vacc_cost*(E27+F27)</f>
+        <f t="shared" si="6"/>
         <v>38014392</v>
       </c>
       <c r="O27" s="23">
         <v>75</v>
       </c>
       <c r="P27" s="23">
-        <f t="shared" si="3"/>
-        <v>63897.570850202428</v>
+        <f t="shared" si="7"/>
+        <v>62901.315789473687</v>
       </c>
       <c r="Q27" s="23">
-        <f>(case_management+case_gp+case_lab)*O27</f>
+        <f t="shared" si="8"/>
         <v>133911.89839572192</v>
       </c>
       <c r="R27" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.750000000000002</v>
       </c>
       <c r="S27" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>23931.750000000004</v>
       </c>
       <c r="T27" s="23">
-        <f>O27*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>196842.85676113362</v>
       </c>
       <c r="U27" s="23">
-        <f t="shared" si="10"/>
-        <v>418584.07600705797</v>
+        <f t="shared" si="16"/>
+        <v>417587.82094632922</v>
       </c>
       <c r="V27" s="23">
-        <f t="shared" si="6"/>
-        <v>3677725.2847621343</v>
+        <f t="shared" si="12"/>
+        <v>3668972.0792845981</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="7"/>
-        <v>0.98185309123699527</v>
+        <f t="shared" si="13"/>
+        <v>0.97972191366673056</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -7160,75 +7160,75 @@
         <v>2356</v>
       </c>
       <c r="F28" s="7">
-        <f>C28*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="22">
-        <f t="shared" si="8"/>
-        <v>3758029.133603239</v>
+        <f t="shared" si="14"/>
+        <v>3699436.0526315793</v>
       </c>
       <c r="H28" s="22">
-        <f>(case_management+case_gp+case_lab)*D28</f>
+        <f t="shared" si="1"/>
         <v>7875805.1176470593</v>
       </c>
       <c r="I28" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>749.87</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1407505.99</v>
       </c>
       <c r="K28" s="22">
-        <f>D28*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>11576984.548978137</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="9"/>
-        <v>24618324.790228434</v>
+        <f t="shared" si="15"/>
+        <v>24559731.709256776</v>
       </c>
       <c r="M28" s="33">
-        <f t="shared" si="2"/>
-        <v>21629928.308114361</v>
+        <f t="shared" si="5"/>
+        <v>21578447.788965818</v>
       </c>
       <c r="N28" s="20">
-        <f>vacc_cost*(E28+F28)</f>
+        <f t="shared" si="6"/>
         <v>19352184</v>
       </c>
       <c r="O28" s="23">
         <v>90</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" si="3"/>
-        <v>76677.085020242914</v>
+        <f t="shared" si="7"/>
+        <v>75481.578947368427</v>
       </c>
       <c r="Q28" s="23">
-        <f>(case_management+case_gp+case_lab)*O28</f>
+        <f t="shared" si="8"/>
         <v>160694.27807486631</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.3</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>28718.100000000002</v>
       </c>
       <c r="T28" s="23">
-        <f>O28*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>236211.42811336031</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="10"/>
-        <v>502300.89120846952</v>
+        <f t="shared" si="16"/>
+        <v>501105.38513559505</v>
       </c>
       <c r="V28" s="23">
-        <f t="shared" si="6"/>
-        <v>4413270.3417145601</v>
+        <f t="shared" si="12"/>
+        <v>4402766.4951415174</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="7"/>
-        <v>0.91014158606461837</v>
+        <f t="shared" si="13"/>
+        <v>0.90837687889011387</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -7248,75 +7248,75 @@
         <v>3071</v>
       </c>
       <c r="F29" s="7">
-        <f>C29*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="8"/>
-        <v>4845991.7732793521</v>
+        <f t="shared" si="14"/>
+        <v>4770435.7894736845</v>
       </c>
       <c r="H29" s="22">
-        <f>(case_management+case_gp+case_lab)*D29</f>
+        <f t="shared" si="1"/>
         <v>10155878.374331551</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>966.96</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1814983.9200000002</v>
       </c>
       <c r="K29" s="22">
-        <f>D29*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>14928562.256764371</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="9"/>
-        <v>31745416.324375276</v>
+        <f t="shared" si="15"/>
+        <v>31669860.340569608</v>
       </c>
       <c r="M29" s="33">
-        <f t="shared" si="2"/>
-        <v>27891868.559636027</v>
+        <f t="shared" si="5"/>
+        <v>27825484.249294389</v>
       </c>
       <c r="N29" s="20">
-        <f>vacc_cost*(E29+F29)</f>
+        <f t="shared" si="6"/>
         <v>25225194</v>
       </c>
       <c r="O29" s="23">
         <v>70</v>
       </c>
       <c r="P29" s="23">
-        <f t="shared" si="3"/>
-        <v>59637.732793522271</v>
+        <f t="shared" si="7"/>
+        <v>58707.894736842107</v>
       </c>
       <c r="Q29" s="23">
-        <f>(case_management+case_gp+case_lab)*O29</f>
+        <f t="shared" si="8"/>
         <v>124984.4385026738</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.9</v>
       </c>
       <c r="S29" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>22336.3</v>
       </c>
       <c r="T29" s="23">
-        <f>O29*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>183719.99964372467</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="10"/>
-        <v>390678.47093992075</v>
+        <f t="shared" si="16"/>
+        <v>389748.63288324059</v>
       </c>
       <c r="V29" s="23">
-        <f t="shared" si="6"/>
-        <v>3432543.5991113251</v>
+        <f t="shared" si="12"/>
+        <v>3424373.940665625</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="7"/>
-        <v>0.97327531397666756</v>
+        <f t="shared" si="13"/>
+        <v>0.97123573754836567</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -7336,75 +7336,75 @@
         <v>893</v>
       </c>
       <c r="F30" s="7">
-        <f>C30*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" si="8"/>
-        <v>1429601.6518218624</v>
+        <f t="shared" si="14"/>
+        <v>1407312.105263158</v>
       </c>
       <c r="H30" s="22">
-        <f>(case_management+case_gp+case_lab)*D30</f>
+        <f t="shared" si="1"/>
         <v>2996055.5401069517</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>285.26000000000005</v>
       </c>
       <c r="J30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>535433.02000000014</v>
       </c>
       <c r="K30" s="22">
-        <f>D30*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>4404030.84860243</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="9"/>
-        <v>9365121.0605312437</v>
+        <f t="shared" si="15"/>
+        <v>9342831.5139725395</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" si="2"/>
-        <v>8228297.370441149</v>
+        <f t="shared" si="5"/>
+        <v>8208713.5320527414</v>
       </c>
       <c r="N30" s="20">
-        <f>vacc_cost*(E30+F30)</f>
+        <f t="shared" si="6"/>
         <v>7335102</v>
       </c>
       <c r="O30" s="23">
         <v>72</v>
       </c>
       <c r="P30" s="23">
-        <f t="shared" si="3"/>
-        <v>61341.668016194337</v>
+        <f t="shared" si="7"/>
+        <v>60385.26315789474</v>
       </c>
       <c r="Q30" s="23">
-        <f>(case_management+case_gp+case_lab)*O30</f>
+        <f t="shared" si="8"/>
         <v>128555.42245989305</v>
       </c>
       <c r="R30" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.24</v>
       </c>
       <c r="S30" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>22974.48</v>
       </c>
       <c r="T30" s="23">
-        <f>O30*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>188969.14249068825</v>
       </c>
       <c r="U30" s="23">
-        <f t="shared" si="10"/>
-        <v>401840.71296677564</v>
+        <f t="shared" si="16"/>
+        <v>400884.30810847605</v>
       </c>
       <c r="V30" s="23">
-        <f t="shared" si="6"/>
-        <v>3530616.2733716485</v>
+        <f t="shared" si="12"/>
+        <v>3522213.1961132139</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="7"/>
-        <v>0.75727137069309425</v>
+        <f t="shared" si="13"/>
+        <v>0.75605371897017049</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -7424,75 +7424,75 @@
         <v>8371</v>
       </c>
       <c r="F31" s="7">
-        <f>C31*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" si="8"/>
-        <v>12877490.44534413</v>
+        <f t="shared" si="14"/>
+        <v>12676711.842105264</v>
       </c>
       <c r="H31" s="22">
-        <f>(case_management+case_gp+case_lab)*D31</f>
+        <f t="shared" si="1"/>
         <v>26987711.256684493</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2569.5500000000002</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4823045.3500000006</v>
       </c>
       <c r="K31" s="22">
-        <f>D31*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>39670397.065927126</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="9"/>
-        <v>84358644.117955744</v>
+        <f t="shared" si="15"/>
+        <v>84157865.514716893</v>
       </c>
       <c r="M31" s="33">
-        <f t="shared" si="2"/>
-        <v>74118423.572239548</v>
+        <f t="shared" si="5"/>
+        <v>73942017.3045156</v>
       </c>
       <c r="N31" s="20">
-        <f>vacc_cost*(E31+F31)</f>
+        <f t="shared" si="6"/>
         <v>68759394</v>
       </c>
       <c r="O31" s="23">
         <v>102</v>
       </c>
       <c r="P31" s="23">
-        <f t="shared" si="3"/>
-        <v>86900.696356275308</v>
+        <f t="shared" si="7"/>
+        <v>85545.789473684214</v>
       </c>
       <c r="Q31" s="23">
-        <f>(case_management+case_gp+case_lab)*O31</f>
+        <f t="shared" si="8"/>
         <v>182120.18181818182</v>
       </c>
       <c r="R31" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.34</v>
       </c>
       <c r="S31" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>32547.18</v>
       </c>
       <c r="T31" s="23">
-        <f>O31*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>267706.28519514174</v>
       </c>
       <c r="U31" s="23">
-        <f t="shared" si="10"/>
-        <v>569274.34336959885</v>
+        <f t="shared" si="16"/>
+        <v>567919.43648700777</v>
       </c>
       <c r="V31" s="23">
-        <f t="shared" si="6"/>
-        <v>5001706.3872765023</v>
+        <f t="shared" si="12"/>
+        <v>4989802.0278270533</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0048443309967849</v>
+        <f t="shared" si="13"/>
+        <v>1.0026145542876941</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -7512,75 +7512,75 @@
         <v>1359</v>
       </c>
       <c r="F32" s="7">
-        <f>C32*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="22">
-        <f t="shared" si="8"/>
-        <v>2071133.2631578948</v>
+        <f t="shared" si="14"/>
+        <v>2038841.3157894737</v>
       </c>
       <c r="H32" s="22">
-        <f>(case_management+case_gp+case_lab)*D32</f>
+        <f t="shared" si="1"/>
         <v>4340531</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>413.27000000000004</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>775707.79</v>
       </c>
       <c r="K32" s="22">
-        <f>D32*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>6380333.1304842113</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="9"/>
-        <v>13567705.183642106</v>
+        <f t="shared" si="15"/>
+        <v>13535413.236273685</v>
       </c>
       <c r="M32" s="33">
-        <f t="shared" si="2"/>
-        <v>11920733.556342332</v>
+        <f t="shared" si="5"/>
+        <v>11892361.499654479</v>
       </c>
       <c r="N32" s="20">
-        <f>vacc_cost*(E32+F32)</f>
+        <f t="shared" si="6"/>
         <v>11162826</v>
       </c>
       <c r="O32" s="23">
         <v>47</v>
       </c>
       <c r="P32" s="23">
-        <f t="shared" si="3"/>
-        <v>40042.477732793523</v>
+        <f t="shared" si="7"/>
+        <v>39418.157894736847</v>
       </c>
       <c r="Q32" s="23">
-        <f>(case_management+case_gp+case_lab)*O32</f>
+        <f t="shared" si="8"/>
         <v>83918.122994652411</v>
       </c>
       <c r="R32" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.99</v>
       </c>
       <c r="S32" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14997.23</v>
       </c>
       <c r="T32" s="23">
-        <f>O32*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>123354.85690364373</v>
       </c>
       <c r="U32" s="23">
-        <f t="shared" si="10"/>
-        <v>262312.68763108971</v>
+        <f t="shared" si="16"/>
+        <v>261688.36779303299</v>
       </c>
       <c r="V32" s="23">
-        <f t="shared" si="6"/>
-        <v>2304707.8451176044</v>
+        <f t="shared" si="12"/>
+        <v>2299222.5030183485</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" si="7"/>
-        <v>0.88514598837737202</v>
+        <f t="shared" si="13"/>
+        <v>0.88339909761787538</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -7600,75 +7600,75 @@
         <v>2899</v>
       </c>
       <c r="F33" s="7">
-        <f>C33*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" si="8"/>
-        <v>4483053.5708502028</v>
+        <f t="shared" si="14"/>
+        <v>4413156.3157894742</v>
       </c>
       <c r="H33" s="22">
-        <f>(case_management+case_gp+case_lab)*D33</f>
+        <f t="shared" si="1"/>
         <v>9395258.7914438508</v>
       </c>
       <c r="I33" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>894.54000000000008</v>
       </c>
       <c r="J33" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1679051.58</v>
       </c>
       <c r="K33" s="22">
-        <f>D33*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>13810494.830361133</v>
       </c>
       <c r="L33" s="22">
-        <f t="shared" si="9"/>
-        <v>29367858.772655189</v>
+        <f t="shared" si="15"/>
+        <v>29297961.517594457</v>
       </c>
       <c r="M33" s="33">
-        <f t="shared" si="2"/>
-        <v>25802920.597891137</v>
+        <f t="shared" si="5"/>
+        <v>25741508.108260736</v>
       </c>
       <c r="N33" s="20">
-        <f>vacc_cost*(E33+F33)</f>
+        <f t="shared" si="6"/>
         <v>23812386</v>
       </c>
       <c r="O33" s="23">
         <v>68</v>
       </c>
       <c r="P33" s="23">
-        <f t="shared" si="3"/>
-        <v>57933.797570850205</v>
+        <f t="shared" si="7"/>
+        <v>57030.526315789481</v>
       </c>
       <c r="Q33" s="23">
-        <f>(case_management+case_gp+case_lab)*O33</f>
+        <f t="shared" si="8"/>
         <v>121413.45454545454</v>
       </c>
       <c r="R33" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.56</v>
       </c>
       <c r="S33" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>21698.120000000003</v>
       </c>
       <c r="T33" s="23">
-        <f>O33*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>178470.85679676116</v>
       </c>
       <c r="U33" s="23">
-        <f t="shared" si="10"/>
-        <v>379516.22891306592</v>
+        <f t="shared" si="16"/>
+        <v>378612.95765800518</v>
       </c>
       <c r="V33" s="23">
-        <f t="shared" si="6"/>
-        <v>3334470.9248510017</v>
+        <f t="shared" si="12"/>
+        <v>3326534.6852180357</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="7"/>
-        <v>0.9504938516204583</v>
+        <f t="shared" si="13"/>
+        <v>0.94850891112562041</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -7688,75 +7688,75 @@
         <v>11331</v>
       </c>
       <c r="F34" s="7">
-        <f>C34*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" si="8"/>
-        <v>17250640.194331985</v>
+        <f t="shared" si="14"/>
+        <v>16981677.894736841</v>
       </c>
       <c r="H34" s="22">
-        <f>(case_management+case_gp+case_lab)*D34</f>
+        <f t="shared" si="1"/>
         <v>36152641.582887702</v>
       </c>
       <c r="I34" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3442.1600000000003</v>
       </c>
       <c r="J34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6460934.3200000003</v>
       </c>
       <c r="K34" s="22">
-        <f>D34*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>53142322.182659104</v>
       </c>
       <c r="L34" s="22">
-        <f t="shared" si="9"/>
-        <v>113006538.2798788</v>
+        <f t="shared" si="15"/>
+        <v>112737575.98028365</v>
       </c>
       <c r="M34" s="33">
-        <f t="shared" si="2"/>
-        <v>99288775.421151593</v>
+        <f t="shared" si="5"/>
+        <v>99052462.215139389</v>
       </c>
       <c r="N34" s="20">
-        <f>vacc_cost*(E34+F34)</f>
+        <f t="shared" si="6"/>
         <v>93072834</v>
       </c>
       <c r="O34" s="23">
         <v>95</v>
       </c>
       <c r="P34" s="23">
-        <f t="shared" si="3"/>
-        <v>80936.923076923078</v>
+        <f t="shared" si="7"/>
+        <v>79675</v>
       </c>
       <c r="Q34" s="23">
-        <f>(case_management+case_gp+case_lab)*O34</f>
+        <f t="shared" si="8"/>
         <v>169621.73796791444</v>
       </c>
       <c r="R34" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.150000000000002</v>
       </c>
       <c r="S34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>30313.550000000003</v>
       </c>
       <c r="T34" s="23">
-        <f>O34*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>249334.28523076922</v>
       </c>
       <c r="U34" s="23">
-        <f t="shared" si="10"/>
-        <v>530206.49627560668</v>
+        <f t="shared" si="16"/>
+        <v>528944.57319868368</v>
       </c>
       <c r="V34" s="23">
-        <f t="shared" si="6"/>
-        <v>4658452.0273653697</v>
+        <f t="shared" si="12"/>
+        <v>4647364.6337604905</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0159364463223182</v>
+        <f t="shared" si="13"/>
+        <v>1.0136334514256566</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -7776,75 +7776,75 @@
         <v>720</v>
       </c>
       <c r="F35" s="7">
-        <f>C35*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="8"/>
-        <v>1146748.4048582995</v>
+        <f t="shared" si="14"/>
+        <v>1128868.9473684211</v>
       </c>
       <c r="H35" s="22">
-        <f>(case_management+case_gp+case_lab)*D35</f>
+        <f t="shared" si="1"/>
         <v>2403272.2032085559</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>228.82000000000002</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>429495.14</v>
       </c>
       <c r="K35" s="22">
-        <f>D35*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>3532673.1360064778</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
-        <v>7512188.8840733338</v>
+        <f t="shared" si="15"/>
+        <v>7494309.4265834549</v>
       </c>
       <c r="M35" s="33">
-        <f t="shared" si="2"/>
-        <v>6600290.9777197773</v>
+        <f t="shared" si="5"/>
+        <v>6584581.8916227575</v>
       </c>
       <c r="N35" s="20">
-        <f>vacc_cost*(E35+F35)</f>
+        <f t="shared" si="6"/>
         <v>5914080</v>
       </c>
       <c r="O35" s="23">
         <v>59</v>
       </c>
       <c r="P35" s="23">
-        <f t="shared" si="3"/>
-        <v>50266.08906882591</v>
+        <f t="shared" si="7"/>
+        <v>49482.368421052633</v>
       </c>
       <c r="Q35" s="23">
-        <f>(case_management+case_gp+case_lab)*O35</f>
+        <f t="shared" si="8"/>
         <v>105344.02673796791</v>
       </c>
       <c r="R35" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.030000000000001</v>
       </c>
       <c r="S35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>18826.310000000001</v>
       </c>
       <c r="T35" s="23">
-        <f>O35*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>154849.7139854251</v>
       </c>
       <c r="U35" s="23">
-        <f t="shared" si="10"/>
-        <v>329286.13979221892</v>
+        <f t="shared" si="16"/>
+        <v>328502.41914444568</v>
       </c>
       <c r="V35" s="23">
-        <f t="shared" si="6"/>
-        <v>2893143.8906795452</v>
+        <f t="shared" si="12"/>
+        <v>2886258.035703884</v>
       </c>
       <c r="W35" s="15">
-        <f t="shared" si="7"/>
-        <v>0.74941787101661994</v>
+        <f t="shared" si="13"/>
+        <v>0.74821920077483683</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -7864,75 +7864,75 @@
         <v>17291</v>
       </c>
       <c r="F36" s="7">
-        <f>C36*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" si="8"/>
-        <v>26218451.271255061</v>
+        <f t="shared" si="14"/>
+        <v>25809667.894736845</v>
       </c>
       <c r="H36" s="22">
-        <f>(case_management+case_gp+case_lab)*D36</f>
+        <f t="shared" si="1"/>
         <v>54946730.14973262</v>
       </c>
       <c r="I36" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5231.58</v>
       </c>
       <c r="J36" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9819675.6600000001</v>
       </c>
       <c r="K36" s="22">
-        <f>D36*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>80768560.986228347</v>
       </c>
       <c r="L36" s="22">
-        <f t="shared" si="9"/>
-        <v>171753418.06721604</v>
+        <f t="shared" si="15"/>
+        <v>171344634.69069779</v>
       </c>
       <c r="M36" s="33">
-        <f t="shared" si="2"/>
-        <v>150904423.8843599</v>
+        <f t="shared" si="5"/>
+        <v>150545262.35720563</v>
       </c>
       <c r="N36" s="20">
-        <f>vacc_cost*(E36+F36)</f>
+        <f t="shared" si="6"/>
         <v>142028274</v>
       </c>
       <c r="O36" s="23">
         <v>70</v>
       </c>
       <c r="P36" s="23">
-        <f t="shared" si="3"/>
-        <v>59637.732793522271</v>
+        <f t="shared" si="7"/>
+        <v>58707.894736842107</v>
       </c>
       <c r="Q36" s="23">
-        <f>(case_management+case_gp+case_lab)*O36</f>
+        <f t="shared" si="8"/>
         <v>124984.4385026738</v>
       </c>
       <c r="R36" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.9</v>
       </c>
       <c r="S36" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>22336.3</v>
       </c>
       <c r="T36" s="23">
-        <f>O36*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>183719.99964372467</v>
       </c>
       <c r="U36" s="23">
-        <f t="shared" si="10"/>
-        <v>390678.47093992075</v>
+        <f t="shared" si="16"/>
+        <v>389748.63288324059</v>
       </c>
       <c r="V36" s="23">
-        <f t="shared" si="6"/>
-        <v>3432543.5991113251</v>
+        <f t="shared" si="12"/>
+        <v>3424373.940665625</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" si="7"/>
-        <v>1.03742317948639</v>
+        <f t="shared" si="13"/>
+        <v>1.0350121808618942</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -7952,75 +7952,75 @@
         <v>685</v>
       </c>
       <c r="F37" s="7">
-        <f>C37*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="8"/>
-        <v>1077739.028340081</v>
+        <f t="shared" si="14"/>
+        <v>1060935.5263157894</v>
       </c>
       <c r="H37" s="22">
-        <f>(case_management+case_gp+case_lab)*D37</f>
+        <f t="shared" si="1"/>
         <v>2258647.3529411764</v>
       </c>
       <c r="I37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>215.05</v>
       </c>
       <c r="J37" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>403648.85000000003</v>
       </c>
       <c r="K37" s="22">
-        <f>D37*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>3320082.8507044534</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" si="9"/>
-        <v>7060118.0819857111</v>
+        <f t="shared" si="15"/>
+        <v>7043314.5799614191</v>
       </c>
       <c r="M37" s="33">
-        <f t="shared" si="2"/>
-        <v>6203096.6469654664</v>
+        <f t="shared" si="5"/>
+        <v>6188332.9070600215</v>
       </c>
       <c r="N37" s="20">
-        <f>vacc_cost*(E37+F37)</f>
+        <f t="shared" si="6"/>
         <v>5626590</v>
       </c>
       <c r="O37" s="23">
         <v>50</v>
       </c>
       <c r="P37" s="23">
-        <f t="shared" si="3"/>
-        <v>42598.380566801621</v>
+        <f t="shared" si="7"/>
+        <v>41934.210526315794</v>
       </c>
       <c r="Q37" s="23">
-        <f>(case_management+case_gp+case_lab)*O37</f>
+        <f t="shared" si="8"/>
         <v>89274.598930481283</v>
       </c>
       <c r="R37" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.5</v>
       </c>
       <c r="S37" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15954.5</v>
       </c>
       <c r="T37" s="23">
-        <f>O37*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>131228.57117408907</v>
       </c>
       <c r="U37" s="23">
-        <f t="shared" si="10"/>
-        <v>279056.05067137198</v>
+        <f t="shared" si="16"/>
+        <v>278391.88063088618</v>
       </c>
       <c r="V37" s="23">
-        <f t="shared" si="6"/>
-        <v>2451816.8565080892</v>
+        <f t="shared" si="12"/>
+        <v>2445981.3861897322</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.76786138122867087</v>
+        <f t="shared" si="13"/>
+        <v>0.76658757303116587</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -8040,75 +8040,75 @@
         <v>1378</v>
       </c>
       <c r="F38" s="7">
-        <f>C38*extra_vacc</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38" s="22">
-        <f t="shared" si="8"/>
-        <v>2155478.056680162</v>
+        <f t="shared" si="14"/>
+        <v>2121871.0526315789</v>
       </c>
       <c r="H38" s="22">
-        <f>(case_management+case_gp+case_lab)*D38</f>
+        <f t="shared" si="1"/>
         <v>4517294.7058823528</v>
       </c>
       <c r="I38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>430.1</v>
       </c>
       <c r="J38" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>807297.70000000007</v>
       </c>
       <c r="K38" s="22">
-        <f>D38*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="4"/>
         <v>6640165.7014089068</v>
       </c>
       <c r="L38" s="22">
-        <f t="shared" si="9"/>
-        <v>14120236.163971422</v>
+        <f t="shared" si="15"/>
+        <v>14086629.159922838</v>
       </c>
       <c r="M38" s="33">
-        <f t="shared" si="2"/>
-        <v>12406193.293930933</v>
+        <f t="shared" si="5"/>
+        <v>12376665.814120043</v>
       </c>
       <c r="N38" s="20">
-        <f>vacc_cost*(E38+F38)</f>
+        <f t="shared" si="6"/>
         <v>11318892</v>
       </c>
       <c r="O38" s="23">
         <v>58</v>
       </c>
       <c r="P38" s="23">
-        <f t="shared" si="3"/>
-        <v>49414.121457489877</v>
+        <f t="shared" si="7"/>
+        <v>48643.68421052632</v>
       </c>
       <c r="Q38" s="23">
-        <f>(case_management+case_gp+case_lab)*O38</f>
+        <f t="shared" si="8"/>
         <v>103558.53475935828</v>
       </c>
       <c r="R38" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.8600000000000012</v>
       </c>
       <c r="S38" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>18507.22</v>
       </c>
       <c r="T38" s="23">
-        <f>O38*contacts_number*contacts_quarantine*contacts_wage_per_day</f>
+        <f t="shared" si="11"/>
         <v>152225.14256194333</v>
       </c>
       <c r="U38" s="23">
-        <f t="shared" si="10"/>
-        <v>323705.01877879153</v>
+        <f t="shared" si="16"/>
+        <v>322934.58153182792</v>
       </c>
       <c r="V38" s="23">
-        <f t="shared" si="6"/>
-        <v>2844107.5535493838</v>
+        <f t="shared" si="12"/>
+        <v>2837338.4079800891</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="7"/>
-        <v>0.87595803749226431</v>
+        <f t="shared" si="13"/>
+        <v>0.87429106883871599</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -8140,11 +8140,11 @@
         <v>67</v>
       </c>
       <c r="B40" s="14">
-        <f t="shared" ref="B40:C40" si="11">SUM(B19:B38)</f>
+        <f t="shared" ref="B40:C40" si="17">SUM(B19:B38)</f>
         <v>4241739</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>462924</v>
       </c>
       <c r="D40" s="14">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="G40" s="27">
         <f>lost_wages*D40</f>
-        <v>199843486.68825912</v>
+        <v>196727639.21052632</v>
       </c>
       <c r="H40" s="27">
         <f>(case_management+case_gp+case_lab)*D40</f>
@@ -8180,12 +8180,12 @@
         <v>615637845.091851</v>
       </c>
       <c r="L40" s="27">
-        <f t="shared" si="9"/>
-        <v>1309146812.7566342</v>
+        <f t="shared" si="15"/>
+        <v>1306030965.2789013</v>
       </c>
       <c r="M40" s="34">
         <f>L40/disc_years*(1-1/(1+disc_rate)^disc_years)/(1-1/(1+disc_rate))</f>
-        <v>1150230649.1610661</v>
+        <v>1147493031.6287336</v>
       </c>
       <c r="N40" s="21">
         <f>vacc_cost*E40</f>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="P40" s="28">
         <f>lost_wages*O40</f>
-        <v>1210645.9757085021</v>
+        <v>1191770.2631578948</v>
       </c>
       <c r="Q40" s="28">
         <f>(case_management+case_gp+case_lab)*O40</f>
@@ -8216,16 +8216,16 @@
         <v>3729515.9927676115</v>
       </c>
       <c r="U40" s="28">
-        <f t="shared" si="10"/>
-        <v>7930772.9600803917</v>
+        <f t="shared" si="16"/>
+        <v>7911897.2475297842</v>
       </c>
       <c r="V40" s="28">
         <f>U40*(1-1/(1+disc_rate)^disc_years)/(1-1/(1+disc_rate))</f>
-        <v>69680635.061959907</v>
+        <v>69514790.995512187</v>
       </c>
       <c r="W40" s="18">
         <f>M40/(N40+V40)</f>
-        <v>1.0000699509502773</v>
+        <v>0.99783360585331271</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
